--- a/assets/3 Months.xlsx
+++ b/assets/3 Months.xlsx
@@ -553,5753 +553,5753 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44339</v>
+        <v>44358</v>
       </c>
       <c r="B2" t="n">
-        <v>1.002386685821935</v>
+        <v>1.006475536959877</v>
       </c>
       <c r="C2" t="n">
-        <v>1.001881720641064</v>
+        <v>1.00554203778154</v>
       </c>
       <c r="D2" t="n">
-        <v>1.007058860714438</v>
+        <v>1.003501332955534</v>
       </c>
       <c r="E2" t="n">
-        <v>1.004955646095069</v>
+        <v>1.001948434669559</v>
       </c>
       <c r="F2" t="n">
-        <v>1.00272428829284</v>
+        <v>1.01055639086626</v>
       </c>
       <c r="G2" t="n">
-        <v>1.000595520878339</v>
+        <v>1.007838165977409</v>
       </c>
       <c r="H2" t="n">
-        <v>1.00432863833575</v>
+        <v>0.9964569599319866</v>
       </c>
       <c r="I2" t="n">
-        <v>1.003412219118678</v>
+        <v>1.007859640164952</v>
       </c>
       <c r="J2" t="n">
-        <v>1.000104063010788</v>
+        <v>1.000035997702204</v>
       </c>
       <c r="K2" t="n">
-        <v>1.002123342882076</v>
+        <v>1.006908209505003</v>
       </c>
       <c r="L2" t="n">
-        <v>1.018524322555705</v>
+        <v>1.009871624765071</v>
       </c>
       <c r="M2" t="n">
-        <v>1.004308642918869</v>
+        <v>0.9961494618111264</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000880518147029</v>
+        <v>0.9887476092146463</v>
       </c>
       <c r="O2" t="n">
-        <v>1.002786154213709</v>
+        <v>0.995277391268409</v>
       </c>
       <c r="P2" t="n">
-        <v>0.9965576624572313</v>
+        <v>1.046031738583043</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.9974310926871665</v>
+        <v>0.9933628488496282</v>
       </c>
       <c r="R2" t="n">
-        <v>0.9972745141553999</v>
+        <v>0.990204838721183</v>
       </c>
       <c r="S2" t="n">
-        <v>0.9951823812801102</v>
+        <v>0.9438602720181807</v>
       </c>
       <c r="T2" t="n">
-        <v>1.001173002628986</v>
+        <v>1.000909077037464</v>
       </c>
       <c r="U2" t="n">
-        <v>1</v>
+        <v>1.013114696688244</v>
       </c>
       <c r="V2" t="n">
-        <v>1.015201659909991</v>
+        <v>1.00234426097917</v>
       </c>
       <c r="W2" t="n">
-        <v>1.009370631336504</v>
+        <v>1.011363779704138</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44340</v>
+        <v>44360</v>
       </c>
       <c r="B3" t="n">
-        <v>1.004773371643871</v>
+        <v>1.007364344930099</v>
       </c>
       <c r="C3" t="n">
-        <v>1.003763441282128</v>
+        <v>1.005772045350841</v>
       </c>
       <c r="D3" t="n">
-        <v>1.014117721428875</v>
+        <v>1.007235900044146</v>
       </c>
       <c r="E3" t="n">
-        <v>1.009911292190139</v>
+        <v>1.002857804007238</v>
       </c>
       <c r="F3" t="n">
-        <v>1.005448576585679</v>
+        <v>1.008466723386816</v>
       </c>
       <c r="G3" t="n">
-        <v>1.001191041756679</v>
+        <v>1.007207840185428</v>
       </c>
       <c r="H3" t="n">
-        <v>1.0086572766715</v>
+        <v>0.9979392359934245</v>
       </c>
       <c r="I3" t="n">
-        <v>1.006824438237356</v>
+        <v>1.008667141943131</v>
       </c>
       <c r="J3" t="n">
-        <v>1.000208126021576</v>
+        <v>1.000560137922485</v>
       </c>
       <c r="K3" t="n">
-        <v>1.004246685764153</v>
+        <v>1.007061713884819</v>
       </c>
       <c r="L3" t="n">
-        <v>1.037048645111409</v>
+        <v>1.008108826943263</v>
       </c>
       <c r="M3" t="n">
-        <v>1.008617285837739</v>
+        <v>0.995571859049503</v>
       </c>
       <c r="N3" t="n">
-        <v>1.001761036294059</v>
+        <v>0.9858501220213749</v>
       </c>
       <c r="O3" t="n">
-        <v>1.005572308427418</v>
+        <v>1.001111239456949</v>
       </c>
       <c r="P3" t="n">
-        <v>0.9931153249144626</v>
+        <v>1.054761869801056</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.994862185374333</v>
+        <v>0.9841814128203701</v>
       </c>
       <c r="R3" t="n">
-        <v>0.9945490283107998</v>
+        <v>0.9699466044267475</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9903647625602203</v>
+        <v>0.9157904352216922</v>
       </c>
       <c r="T3" t="n">
-        <v>1.002346005257973</v>
+        <v>0.9952272588556463</v>
       </c>
       <c r="U3" t="n">
-        <v>1</v>
+        <v>1.018149828977387</v>
       </c>
       <c r="V3" t="n">
-        <v>1.030403319819981</v>
+        <v>1.003516338866749</v>
       </c>
       <c r="W3" t="n">
-        <v>1.018684789105772</v>
+        <v>1.015552973379513</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44341</v>
+        <v>44361</v>
       </c>
       <c r="B4" t="n">
-        <v>1.001667076112972</v>
+        <v>1.008253152900321</v>
       </c>
       <c r="C4" t="n">
-        <v>1.001763440061393</v>
+        <v>1.006002052920141</v>
       </c>
       <c r="D4" t="n">
-        <v>1.013820787058765</v>
+        <v>1.010970467132759</v>
       </c>
       <c r="E4" t="n">
-        <v>1.007764944101308</v>
+        <v>1.003767173344916</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9957025466659525</v>
+        <v>1.006377055907372</v>
       </c>
       <c r="G4" t="n">
-        <v>1.001786562635018</v>
+        <v>1.006577514393448</v>
       </c>
       <c r="H4" t="n">
-        <v>1.018529694288411</v>
+        <v>0.9994215120548624</v>
       </c>
       <c r="I4" t="n">
-        <v>1.010236657356034</v>
+        <v>1.009474643721311</v>
       </c>
       <c r="J4" t="n">
-        <v>1.001396789426495</v>
+        <v>1.001084278142767</v>
       </c>
       <c r="K4" t="n">
-        <v>1.002202015765776</v>
+        <v>1.007215218264635</v>
       </c>
       <c r="L4" t="n">
-        <v>1.037204225858114</v>
+        <v>1.006346029121455</v>
       </c>
       <c r="M4" t="n">
-        <v>1.018017981672569</v>
+        <v>0.9949942562878794</v>
       </c>
       <c r="N4" t="n">
-        <v>1.010849828078582</v>
+        <v>0.9829526348281035</v>
       </c>
       <c r="O4" t="n">
-        <v>1.021558423166485</v>
+        <v>1.006945087645489</v>
       </c>
       <c r="P4" t="n">
-        <v>1.002753919277295</v>
+        <v>1.063492001019069</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.9964969283758066</v>
+        <v>0.9749999767911119</v>
       </c>
       <c r="R4" t="n">
-        <v>0.9554014070901949</v>
+        <v>0.9496883701323119</v>
       </c>
       <c r="S4" t="n">
-        <v>0.9614590502408811</v>
+        <v>0.8877205984252038</v>
       </c>
       <c r="T4" t="n">
-        <v>1.005278556577621</v>
+        <v>0.9895454406738281</v>
       </c>
       <c r="U4" t="n">
-        <v>0.9995384154876878</v>
+        <v>1.02318496126653</v>
       </c>
       <c r="V4" t="n">
-        <v>1.033263079519325</v>
+        <v>1.004688416754328</v>
       </c>
       <c r="W4" t="n">
-        <v>1.020751093620111</v>
+        <v>1.019668781957682</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44342</v>
+        <v>44362</v>
       </c>
       <c r="B5" t="n">
-        <v>1.001253872781102</v>
+        <v>1.011892977394071</v>
       </c>
       <c r="C5" t="n">
-        <v>1.010745788483282</v>
+        <v>1.001012810795298</v>
       </c>
       <c r="D5" t="n">
-        <v>1.019821094142259</v>
+        <v>1.003746721592487</v>
       </c>
       <c r="E5" t="n">
-        <v>1.009656334047334</v>
+        <v>1.001747901165202</v>
       </c>
       <c r="F5" t="n">
-        <v>1.015348016133579</v>
+        <v>1.003746698586274</v>
       </c>
       <c r="G5" t="n">
-        <v>1.000855705430348</v>
+        <v>1.010166178852223</v>
       </c>
       <c r="H5" t="n">
-        <v>1.026351723788859</v>
+        <v>0.9922632312567785</v>
       </c>
       <c r="I5" t="n">
-        <v>1.007374773585012</v>
+        <v>1.011412631560443</v>
       </c>
       <c r="J5" t="n">
-        <v>1.002585452831413</v>
+        <v>0.9956586380393921</v>
       </c>
       <c r="K5" t="n">
-        <v>1.002202015765776</v>
+        <v>1.009518003567568</v>
       </c>
       <c r="L5" t="n">
-        <v>1.040006223229868</v>
+        <v>1.024679169505319</v>
       </c>
       <c r="M5" t="n">
-        <v>1.005483720559462</v>
+        <v>0.9876781015292647</v>
       </c>
       <c r="N5" t="n">
-        <v>1.009088878462492</v>
+        <v>0.9792393252651939</v>
       </c>
       <c r="O5" t="n">
-        <v>1.017356367084059</v>
+        <v>0.998796210241786</v>
       </c>
       <c r="P5" t="n">
-        <v>1.041308132585024</v>
+        <v>1.028571400458581</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.037832763741953</v>
+        <v>0.9515486193707791</v>
       </c>
       <c r="R5" t="n">
-        <v>0.9643210500587325</v>
+        <v>0.9376669779342003</v>
       </c>
       <c r="S5" t="n">
-        <v>0.9218169472911649</v>
+        <v>0.8999287723720345</v>
       </c>
       <c r="T5" t="n">
-        <v>1.007624651329958</v>
+        <v>0.9818181818181818</v>
       </c>
       <c r="U5" t="n">
-        <v>1.003923336297288</v>
+        <v>1.037939084377975</v>
       </c>
       <c r="V5" t="n">
-        <v>1.03657435604881</v>
+        <v>1.020270288041218</v>
       </c>
       <c r="W5" t="n">
-        <v>1.026074040164721</v>
+        <v>1.008027099563501</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44343</v>
+        <v>44363</v>
       </c>
       <c r="B6" t="n">
-        <v>1.000227995844172</v>
+        <v>1.013656471603541</v>
       </c>
       <c r="C6" t="n">
-        <v>1.011589578508702</v>
+        <v>1.00039358290544</v>
       </c>
       <c r="D6" t="n">
-        <v>1.01969343266136</v>
+        <v>1.001380110829573</v>
       </c>
       <c r="E6" t="n">
-        <v>1.010832901255651</v>
+        <v>0.9963483551472551</v>
       </c>
       <c r="F6" t="n">
-        <v>1.026091649468698</v>
+        <v>1.001419059977069</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9980062006539722</v>
+        <v>1.008949240225529</v>
       </c>
       <c r="H6" t="n">
-        <v>1.02718706366215</v>
+        <v>0.9789588029024311</v>
       </c>
       <c r="I6" t="n">
-        <v>1.008915852521659</v>
+        <v>1.012812257499958</v>
       </c>
       <c r="J6" t="n">
-        <v>1.00095249411189</v>
+        <v>0.9959066656266244</v>
       </c>
       <c r="K6" t="n">
-        <v>1.005976739225715</v>
+        <v>1.011360129327257</v>
       </c>
       <c r="L6" t="n">
-        <v>1.049813273412972</v>
+        <v>1.024679169505319</v>
       </c>
       <c r="M6" t="n">
-        <v>1.012534261113107</v>
+        <v>0.9726607969485946</v>
       </c>
       <c r="N6" t="n">
-        <v>1.009486556983787</v>
+        <v>0.9626982970748953</v>
       </c>
       <c r="O6" t="n">
-        <v>1.00813007563464</v>
+        <v>0.9801833555701329</v>
       </c>
       <c r="P6" t="n">
-        <v>1.018932897521128</v>
+        <v>1.031746000509535</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.037832763741953</v>
+        <v>0.9657079820597828</v>
       </c>
       <c r="R6" t="n">
-        <v>1.018830483400396</v>
+        <v>0.9332146010176375</v>
       </c>
       <c r="S6" t="n">
-        <v>0.910529938059188</v>
+        <v>0.8625022870508215</v>
       </c>
       <c r="T6" t="n">
-        <v>1.007624651329958</v>
+        <v>0.9809091047807174</v>
       </c>
       <c r="U6" t="n">
-        <v>0.9935379048658739</v>
+        <v>1.054566697300383</v>
       </c>
       <c r="V6" t="n">
-        <v>1.045454493258482</v>
+        <v>1.025786029138776</v>
       </c>
       <c r="W6" t="n">
-        <v>1.026917854504052</v>
+        <v>1.008596046860583</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44344</v>
+        <v>44364</v>
       </c>
       <c r="B7" t="n">
-        <v>1.000641199176042</v>
+        <v>1.009198344464702</v>
       </c>
       <c r="C7" t="n">
-        <v>1.012705679813381</v>
+        <v>0.9967401556328399</v>
       </c>
       <c r="D7" t="n">
-        <v>1.020618380324503</v>
+        <v>1.010058217635691</v>
       </c>
       <c r="E7" t="n">
-        <v>1.011610112368396</v>
+        <v>0.9959142306338022</v>
       </c>
       <c r="F7" t="n">
-        <v>1.024240815204658</v>
+        <v>0.9896383800007078</v>
       </c>
       <c r="G7" t="n">
-        <v>1.00534222840193</v>
+        <v>1.010047395005647</v>
       </c>
       <c r="H7" t="n">
-        <v>1.033490259683073</v>
+        <v>0.9849601960751083</v>
       </c>
       <c r="I7" t="n">
-        <v>1.01474963114795</v>
+        <v>1.013027552974309</v>
       </c>
       <c r="J7" t="n">
-        <v>1.005459057605374</v>
+        <v>0.9934098806317172</v>
       </c>
       <c r="K7" t="n">
-        <v>1.011009778836949</v>
+        <v>1.010899616187809</v>
       </c>
       <c r="L7" t="n">
-        <v>1.045454637226672</v>
+        <v>1.009025516240248</v>
       </c>
       <c r="M7" t="n">
-        <v>1.014492711395747</v>
+        <v>0.9260685357312801</v>
       </c>
       <c r="N7" t="n">
-        <v>1.01329249992004</v>
+        <v>0.9331045402150293</v>
       </c>
       <c r="O7" t="n">
-        <v>1.009043553966658</v>
+        <v>0.9227706592937283</v>
       </c>
       <c r="P7" t="n">
-        <v>1.027538700342149</v>
+        <v>1.033333338379229</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.078000938262305</v>
+        <v>0.937168139277633</v>
       </c>
       <c r="R7" t="n">
-        <v>1.0054509716892</v>
+        <v>0.8748887096845418</v>
       </c>
       <c r="S7" t="n">
-        <v>0.9012388162422575</v>
+        <v>0.8063625590690022</v>
       </c>
       <c r="T7" t="n">
-        <v>1.009970656587931</v>
+        <v>0.9800000277432529</v>
       </c>
       <c r="U7" t="n">
-        <v>0.9903069013179326</v>
+        <v>1.050117080829324</v>
       </c>
       <c r="V7" t="n">
-        <v>1.048013165183505</v>
+        <v>1.007722079618185</v>
       </c>
       <c r="W7" t="n">
-        <v>1.033040139161223</v>
+        <v>1.025657683198451</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44346</v>
+        <v>44365</v>
       </c>
       <c r="B8" t="n">
-        <v>1.003391226559431</v>
+        <v>0.9900256491966388</v>
       </c>
       <c r="C8" t="n">
-        <v>1.015548017802629</v>
+        <v>0.9874119125001964</v>
       </c>
       <c r="D8" t="n">
-        <v>1.020315018175873</v>
+        <v>1.000716802288641</v>
       </c>
       <c r="E8" t="n">
-        <v>1.011444095844993</v>
+        <v>0.9828433854063902</v>
       </c>
       <c r="F8" t="n">
-        <v>1.028118449278464</v>
+        <v>0.9681320428179035</v>
       </c>
       <c r="G8" t="n">
-        <v>1.002140592016326</v>
+        <v>0.9920892717678454</v>
       </c>
       <c r="H8" t="n">
-        <v>1.040704718710815</v>
+        <v>0.9842733188720172</v>
       </c>
       <c r="I8" t="n">
-        <v>1.013813991075329</v>
+        <v>0.9975237324037427</v>
       </c>
       <c r="J8" t="n">
-        <v>1.006171473954347</v>
+        <v>0.9841509981010114</v>
       </c>
       <c r="K8" t="n">
-        <v>1.0081000446088</v>
+        <v>0.9947804850767683</v>
       </c>
       <c r="L8" t="n">
-        <v>1.051629371823931</v>
+        <v>1.015371545361703</v>
       </c>
       <c r="M8" t="n">
-        <v>1.013709326302018</v>
+        <v>0.9195225179881635</v>
       </c>
       <c r="N8" t="n">
-        <v>1.012383594738197</v>
+        <v>0.9279283649067093</v>
       </c>
       <c r="O8" t="n">
-        <v>1.013245610049084</v>
+        <v>0.9029540148638611</v>
       </c>
       <c r="P8" t="n">
-        <v>1.04130807787049</v>
+        <v>1.02063486248698</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.078234464492343</v>
+        <v>0.9415929348431994</v>
       </c>
       <c r="R8" t="n">
-        <v>1.019160914060429</v>
+        <v>0.9162956706411307</v>
       </c>
       <c r="S8" t="n">
-        <v>0.8916035788024778</v>
+        <v>0.8001248115154668</v>
       </c>
       <c r="T8" t="n">
-        <v>1.048289339097247</v>
+        <v>0.9795454545454546</v>
       </c>
       <c r="U8" t="n">
-        <v>0.9838448648759689</v>
+        <v>1.029508156885721</v>
       </c>
       <c r="V8" t="n">
-        <v>1.048013165183505</v>
+        <v>1.013651482887358</v>
       </c>
       <c r="W8" t="n">
-        <v>1.031785315733817</v>
+        <v>1.018632977400211</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44347</v>
+        <v>44367</v>
       </c>
       <c r="B9" t="n">
-        <v>1.00614125394282</v>
+        <v>0.993185817042711</v>
       </c>
       <c r="C9" t="n">
-        <v>1.018390355791878</v>
+        <v>0.9903510420876273</v>
       </c>
       <c r="D9" t="n">
-        <v>1.020011656027244</v>
+        <v>1.00467892676497</v>
       </c>
       <c r="E9" t="n">
-        <v>1.011278079321591</v>
+        <v>0.9897244144415912</v>
       </c>
       <c r="F9" t="n">
-        <v>1.031996083352271</v>
+        <v>0.9785888829563345</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9989389556307215</v>
+        <v>0.9970728311176551</v>
       </c>
       <c r="H9" t="n">
-        <v>1.047919177738558</v>
+        <v>0.9793022415039767</v>
       </c>
       <c r="I9" t="n">
-        <v>1.012878351002709</v>
+        <v>1.000053885475457</v>
       </c>
       <c r="J9" t="n">
-        <v>1.006883890303321</v>
+        <v>0.9806338711806841</v>
       </c>
       <c r="K9" t="n">
-        <v>1.005190310380651</v>
+        <v>0.9986951395696666</v>
       </c>
       <c r="L9" t="n">
-        <v>1.05780410642119</v>
+        <v>1.028063711197252</v>
       </c>
       <c r="M9" t="n">
-        <v>1.01292594120829</v>
+        <v>0.9233731296213453</v>
       </c>
       <c r="N9" t="n">
-        <v>1.011474689556354</v>
+        <v>0.9336108342721628</v>
       </c>
       <c r="O9" t="n">
-        <v>1.01744766613151</v>
+        <v>0.9107787895904226</v>
       </c>
       <c r="P9" t="n">
-        <v>1.055077455398832</v>
+        <v>1.016666631345397</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.078467990722381</v>
+        <v>0.9537610593515402</v>
       </c>
       <c r="R9" t="n">
-        <v>1.032870856431658</v>
+        <v>0.9136242359989905</v>
       </c>
       <c r="S9" t="n">
-        <v>0.881968341362698</v>
+        <v>0.8155409481628646</v>
       </c>
       <c r="T9" t="n">
-        <v>1.086608021606564</v>
+        <v>0.9777272657914595</v>
       </c>
       <c r="U9" t="n">
-        <v>0.9773828284340053</v>
+        <v>1.026112361682609</v>
       </c>
       <c r="V9" t="n">
-        <v>1.048013165183505</v>
+        <v>1.02323504227781</v>
       </c>
       <c r="W9" t="n">
-        <v>1.030476258922973</v>
+        <v>1.023789633943442</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44348</v>
+        <v>44368</v>
       </c>
       <c r="B10" t="n">
-        <v>1.008891281326208</v>
+        <v>0.9963459848887833</v>
       </c>
       <c r="C10" t="n">
-        <v>1.021232693781127</v>
+        <v>0.9932901716750581</v>
       </c>
       <c r="D10" t="n">
-        <v>1.019708293878614</v>
+        <v>1.008641051241299</v>
       </c>
       <c r="E10" t="n">
-        <v>1.011112062798188</v>
+        <v>0.9966054434767923</v>
       </c>
       <c r="F10" t="n">
-        <v>1.035873717426077</v>
+        <v>0.9890457230947655</v>
       </c>
       <c r="G10" t="n">
-        <v>1.008411368666898</v>
+        <v>1.002056390467465</v>
       </c>
       <c r="H10" t="n">
-        <v>1.0551336367663</v>
+        <v>0.9743311641359362</v>
       </c>
       <c r="I10" t="n">
-        <v>1.018271917336159</v>
+        <v>1.002584038547172</v>
       </c>
       <c r="J10" t="n">
-        <v>1.007596306652294</v>
+        <v>0.9771167442603569</v>
       </c>
       <c r="K10" t="n">
-        <v>1.014155419219223</v>
+        <v>1.002609794062565</v>
       </c>
       <c r="L10" t="n">
-        <v>1.063978841018448</v>
+        <v>1.040755877032802</v>
       </c>
       <c r="M10" t="n">
-        <v>1.012142556114561</v>
+        <v>0.927223741254527</v>
       </c>
       <c r="N10" t="n">
-        <v>1.010565784374511</v>
+        <v>0.9392933036376165</v>
       </c>
       <c r="O10" t="n">
-        <v>1.021649722213937</v>
+        <v>0.9186035643169842</v>
       </c>
       <c r="P10" t="n">
-        <v>1.068846832927173</v>
+        <v>1.012698400203814</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.078701516952419</v>
+        <v>0.965929183859881</v>
       </c>
       <c r="R10" t="n">
-        <v>1.046580798802888</v>
+        <v>0.9109528013568501</v>
       </c>
       <c r="S10" t="n">
-        <v>0.8723331039229182</v>
+        <v>0.8309570848102623</v>
       </c>
       <c r="T10" t="n">
-        <v>1.124926704115881</v>
+        <v>0.9759090770374645</v>
       </c>
       <c r="U10" t="n">
-        <v>0.9709207919920415</v>
+        <v>1.022716566479497</v>
       </c>
       <c r="V10" t="n">
-        <v>1.048013165183505</v>
+        <v>1.032818601668262</v>
       </c>
       <c r="W10" t="n">
-        <v>1.029113301763831</v>
+        <v>1.028849342640151</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44349</v>
+        <v>44369</v>
       </c>
       <c r="B11" t="n">
-        <v>1.012809720735356</v>
+        <v>1.000253915611567</v>
       </c>
       <c r="C11" t="n">
-        <v>1.023835476901804</v>
+        <v>1.003131472067449</v>
       </c>
       <c r="D11" t="n">
-        <v>1.021181801692787</v>
+        <v>1.016614405782674</v>
       </c>
       <c r="E11" t="n">
-        <v>1.012575076067408</v>
+        <v>1.001712540001596</v>
       </c>
       <c r="F11" t="n">
-        <v>1.03726862092018</v>
+        <v>0.9933114585792394</v>
       </c>
       <c r="G11" t="n">
-        <v>1.010701220457224</v>
+        <v>1.004181454806102</v>
       </c>
       <c r="H11" t="n">
-        <v>1.057032178615706</v>
+        <v>0.9697035253694413</v>
       </c>
       <c r="I11" t="n">
-        <v>1.019702817232707</v>
+        <v>1.004414337577882</v>
       </c>
       <c r="J11" t="n">
-        <v>1.005627121810591</v>
+        <v>0.9780290442356079</v>
       </c>
       <c r="K11" t="n">
-        <v>1.016671976523832</v>
+        <v>1.005066010543416</v>
       </c>
       <c r="L11" t="n">
-        <v>1.081102105506311</v>
+        <v>1.040755877032802</v>
       </c>
       <c r="M11" t="n">
-        <v>1.024285112229122</v>
+        <v>0.9183673859092246</v>
       </c>
       <c r="N11" t="n">
-        <v>1.015507902127052</v>
+        <v>0.9353549840325285</v>
       </c>
       <c r="O11" t="n">
-        <v>1.017995808885865</v>
+        <v>0.931845534253679</v>
       </c>
       <c r="P11" t="n">
-        <v>1.058519820298867</v>
+        <v>1.034920600560488</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.073096709257884</v>
+        <v>0.9415929348431994</v>
       </c>
       <c r="R11" t="n">
-        <v>1.037661061317571</v>
+        <v>0.8846839558853851</v>
       </c>
       <c r="S11" t="n">
-        <v>0.9156916724019271</v>
+        <v>0.7935305994890494</v>
       </c>
       <c r="T11" t="n">
-        <v>1.126099706744868</v>
+        <v>0.976818154074929</v>
       </c>
       <c r="U11" t="n">
-        <v>0.9783059681125481</v>
+        <v>1.05105387040339</v>
       </c>
       <c r="V11" t="n">
-        <v>1.073901201870741</v>
+        <v>1.031577509949407</v>
       </c>
       <c r="W11" t="n">
-        <v>1.041461235742933</v>
+        <v>1.040037495336727</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44350</v>
+        <v>44370</v>
       </c>
       <c r="B12" t="n">
-        <v>1.006597199248122</v>
+        <v>0.9980107647544189</v>
       </c>
       <c r="C12" t="n">
-        <v>1.017991553031422</v>
+        <v>1.002238049238638</v>
       </c>
       <c r="D12" t="n">
-        <v>1.010653970402545</v>
+        <v>1.017931132093477</v>
       </c>
       <c r="E12" t="n">
-        <v>1.008900741505224</v>
+        <v>1.000627401492379</v>
       </c>
       <c r="F12" t="n">
-        <v>1.028881346248837</v>
+        <v>0.9965648925512289</v>
       </c>
       <c r="G12" t="n">
-        <v>1.012641945444114</v>
+        <v>0.9926254924057678</v>
       </c>
       <c r="H12" t="n">
-        <v>1.045033357046565</v>
+        <v>0.9765726504598246</v>
       </c>
       <c r="I12" t="n">
-        <v>1.013538837397822</v>
+        <v>1.003445302587069</v>
       </c>
       <c r="J12" t="n">
-        <v>1.00106456948595</v>
+        <v>0.9851832578545692</v>
       </c>
       <c r="K12" t="n">
-        <v>1.016042818448184</v>
+        <v>0.9973902791393333</v>
       </c>
       <c r="L12" t="n">
-        <v>1.081102105506311</v>
+        <v>1.036948173485817</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9972580650101792</v>
+        <v>0.9214478605269085</v>
       </c>
       <c r="N12" t="n">
-        <v>0.9956260563335725</v>
+        <v>0.9347360991053768</v>
       </c>
       <c r="O12" t="n">
-        <v>0.9939709175596086</v>
+        <v>0.9398092404057661</v>
       </c>
       <c r="P12" t="n">
-        <v>1.046471597863277</v>
+        <v>1.058730138786857</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.046240064370567</v>
+        <v>0.9555309269401931</v>
       </c>
       <c r="R12" t="n">
-        <v>1.028245772358984</v>
+        <v>0.8802315789688223</v>
       </c>
       <c r="S12" t="n">
-        <v>0.912732244440382</v>
+        <v>0.7880057264924352</v>
       </c>
       <c r="T12" t="n">
-        <v>1.178299084436858</v>
+        <v>0.9759090770374645</v>
       </c>
       <c r="U12" t="n">
-        <v>0.9921532393671812</v>
+        <v>1.034192015418881</v>
       </c>
       <c r="V12" t="n">
-        <v>1.07329914115344</v>
+        <v>1.036817511333892</v>
       </c>
       <c r="W12" t="n">
-        <v>1.030566972290029</v>
+        <v>1.04247810838199</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44351</v>
+        <v>44371</v>
       </c>
       <c r="B13" t="n">
-        <v>1.007252661209656</v>
+        <v>1.003075506346719</v>
       </c>
       <c r="C13" t="n">
-        <v>1.019344215495444</v>
+        <v>0.9956343915438074</v>
       </c>
       <c r="D13" t="n">
-        <v>1.025499239033183</v>
+        <v>1.024919519074491</v>
       </c>
       <c r="E13" t="n">
-        <v>1.017813467218081</v>
+        <v>1.006442297204014</v>
       </c>
       <c r="F13" t="n">
-        <v>1.032113418206769</v>
+        <v>1.009608942560022</v>
       </c>
       <c r="G13" t="n">
-        <v>1.016543511801928</v>
+        <v>1.00115666868131</v>
       </c>
       <c r="H13" t="n">
-        <v>1.055437422002653</v>
+        <v>0.9856832618740961</v>
       </c>
       <c r="I13" t="n">
-        <v>1.019592722170533</v>
+        <v>1.005813963517397</v>
       </c>
       <c r="J13" t="n">
-        <v>1.006235475148776</v>
+        <v>0.9910971381631373</v>
       </c>
       <c r="K13" t="n">
-        <v>1.019817616906105</v>
+        <v>1.006447696365555</v>
       </c>
       <c r="L13" t="n">
-        <v>1.093555453550537</v>
+        <v>1.040050714867022</v>
       </c>
       <c r="M13" t="n">
-        <v>1.009792400833376</v>
+        <v>0.9256835406678393</v>
       </c>
       <c r="N13" t="n">
-        <v>1.006362249594932</v>
+        <v>0.9341734452265376</v>
       </c>
       <c r="O13" t="n">
-        <v>0.9988124154438405</v>
+        <v>0.947217362153921</v>
       </c>
       <c r="P13" t="n">
-        <v>1.065404495384405</v>
+        <v>1.085714277064179</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.074731452259358</v>
+        <v>0.9615043882943144</v>
       </c>
       <c r="R13" t="n">
-        <v>1.061446964933896</v>
+        <v>0.8788958404172456</v>
       </c>
       <c r="S13" t="n">
-        <v>0.8838265321210427</v>
+        <v>0.7505792411712223</v>
       </c>
       <c r="T13" t="n">
-        <v>1.187683284457478</v>
+        <v>0.9813636086203835</v>
       </c>
       <c r="U13" t="n">
-        <v>0.9845372269713966</v>
+        <v>1.029742398947823</v>
       </c>
       <c r="V13" t="n">
-        <v>1.082028849307292</v>
+        <v>1.041919485055823</v>
       </c>
       <c r="W13" t="n">
-        <v>1.052827360697453</v>
+        <v>1.044719718286663</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44353</v>
+        <v>44372</v>
       </c>
       <c r="B14" t="n">
-        <v>1.007836878818296</v>
+        <v>1.006757696033392</v>
       </c>
       <c r="C14" t="n">
-        <v>1.021027304982441</v>
+        <v>1.001645342409353</v>
       </c>
       <c r="D14" t="n">
-        <v>1.027994582397621</v>
+        <v>1.024254747813896</v>
       </c>
       <c r="E14" t="n">
-        <v>1.017408001526459</v>
+        <v>1.009794351221129</v>
       </c>
       <c r="F14" t="n">
-        <v>1.03950981215476</v>
+        <v>1.009946305981441</v>
       </c>
       <c r="G14" t="n">
-        <v>1.016033390667137</v>
+        <v>1.002360123397226</v>
       </c>
       <c r="H14" t="n">
-        <v>1.052665532362073</v>
+        <v>0.9937093628547541</v>
       </c>
       <c r="I14" t="n">
-        <v>1.021904256597578</v>
+        <v>1.004952617335006</v>
       </c>
       <c r="J14" t="n">
-        <v>1.006247493693684</v>
+        <v>1.000556181594292</v>
       </c>
       <c r="K14" t="n">
-        <v>1.020761279021595</v>
+        <v>1.008443326505061</v>
       </c>
       <c r="L14" t="n">
-        <v>1.090909155689416</v>
+        <v>1.050627501797873</v>
       </c>
       <c r="M14" t="n">
-        <v>1.012142556114561</v>
+        <v>0.9310743528877089</v>
       </c>
       <c r="N14" t="n">
-        <v>1.008378812541297</v>
+        <v>0.9372678698622955</v>
       </c>
       <c r="O14" t="n">
-        <v>1.001415901868718</v>
+        <v>0.9577738897231369</v>
       </c>
       <c r="P14" t="n">
-        <v>1.061101552937994</v>
+        <v>1.109841252589112</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.069511945027023</v>
+        <v>0.9811946399453314</v>
       </c>
       <c r="R14" t="n">
-        <v>1.072101085317272</v>
+        <v>0.8548531409430488</v>
       </c>
       <c r="S14" t="n">
-        <v>0.8621472478815383</v>
+        <v>0.694439513189403</v>
       </c>
       <c r="T14" t="n">
-        <v>1.215249248963297</v>
+        <v>0.9854545593261718</v>
       </c>
       <c r="U14" t="n">
-        <v>0.9822293484289577</v>
+        <v>1.031615888758785</v>
       </c>
       <c r="V14" t="n">
-        <v>1.079018603136457</v>
+        <v>1.050468889017238</v>
       </c>
       <c r="W14" t="n">
-        <v>1.058263636427549</v>
+        <v>1.041644305276097</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44354</v>
+        <v>44374</v>
       </c>
       <c r="B15" t="n">
-        <v>1.008421096426936</v>
+        <v>1.002306629760039</v>
       </c>
       <c r="C15" t="n">
-        <v>1.022710394469439</v>
+        <v>0.9991551703196331</v>
       </c>
       <c r="D15" t="n">
-        <v>1.030489925762058</v>
+        <v>1.029251781279111</v>
       </c>
       <c r="E15" t="n">
-        <v>1.017002535834837</v>
+        <v>1.010963170138683</v>
       </c>
       <c r="F15" t="n">
-        <v>1.04690620610275</v>
+        <v>1.007337548791739</v>
       </c>
       <c r="G15" t="n">
-        <v>1.015523269532345</v>
+        <v>1.000632897142409</v>
       </c>
       <c r="H15" t="n">
-        <v>1.049893642721492</v>
+        <v>0.994143184681173</v>
       </c>
       <c r="I15" t="n">
-        <v>1.024215791024624</v>
+        <v>1.002207168788941</v>
       </c>
       <c r="J15" t="n">
-        <v>1.006259512238592</v>
+        <v>1.000932276990449</v>
       </c>
       <c r="K15" t="n">
-        <v>1.021704941137084</v>
+        <v>1.004835717372743</v>
       </c>
       <c r="L15" t="n">
-        <v>1.088262857828295</v>
+        <v>1.042589148034132</v>
       </c>
       <c r="M15" t="n">
-        <v>1.014492711395746</v>
+        <v>0.9316519189271784</v>
       </c>
       <c r="N15" t="n">
-        <v>1.010395375487661</v>
+        <v>0.9372397543381392</v>
       </c>
       <c r="O15" t="n">
-        <v>1.004019388293595</v>
+        <v>0.952773418140495</v>
       </c>
       <c r="P15" t="n">
-        <v>1.056798610491583</v>
+        <v>1.125555534194597</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.064292437794688</v>
+        <v>1.000331844898125</v>
       </c>
       <c r="R15" t="n">
-        <v>1.082755205700647</v>
+        <v>0.8737756366859075</v>
       </c>
       <c r="S15" t="n">
-        <v>0.8404679636420338</v>
+        <v>0.703662473939586</v>
       </c>
       <c r="T15" t="n">
-        <v>1.242815213469116</v>
+        <v>1.002045475352894</v>
       </c>
       <c r="U15" t="n">
-        <v>0.9799214698865188</v>
+        <v>1.029625277916772</v>
       </c>
       <c r="V15" t="n">
-        <v>1.076008356965623</v>
+        <v>1.040126913910822</v>
       </c>
       <c r="W15" t="n">
-        <v>1.063507768784811</v>
+        <v>1.054208161658954</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44355</v>
+        <v>44375</v>
       </c>
       <c r="B16" t="n">
-        <v>1.010971630345614</v>
+        <v>0.997855563486687</v>
       </c>
       <c r="C16" t="n">
-        <v>1.022147896850963</v>
+        <v>0.9966649982299134</v>
       </c>
       <c r="D16" t="n">
-        <v>1.033696106520566</v>
+        <v>1.034248814744326</v>
       </c>
       <c r="E16" t="n">
-        <v>1.017180536565873</v>
+        <v>1.012131989056238</v>
       </c>
       <c r="F16" t="n">
-        <v>1.05800195420943</v>
+        <v>1.004728791602038</v>
       </c>
       <c r="G16" t="n">
-        <v>1.013155609086786</v>
+        <v>0.9989056708875911</v>
       </c>
       <c r="H16" t="n">
-        <v>1.044501802409627</v>
+        <v>0.9945770065075921</v>
       </c>
       <c r="I16" t="n">
-        <v>1.023445293545263</v>
+        <v>0.9994617202428752</v>
       </c>
       <c r="J16" t="n">
-        <v>1.006867865576777</v>
+        <v>1.001308372386607</v>
       </c>
       <c r="K16" t="n">
-        <v>1.023120528057796</v>
+        <v>1.001228108240426</v>
       </c>
       <c r="L16" t="n">
-        <v>1.098692468526074</v>
+        <v>1.034550794270391</v>
       </c>
       <c r="M16" t="n">
-        <v>1.003133565278276</v>
+        <v>0.9322294849666477</v>
       </c>
       <c r="N16" t="n">
-        <v>1.007271154776775</v>
+        <v>0.937211638813983</v>
       </c>
       <c r="O16" t="n">
-        <v>0.9945190603139633</v>
+        <v>0.947772946557853</v>
       </c>
       <c r="P16" t="n">
-        <v>1.077452717819995</v>
+        <v>1.141269815800082</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.050910796840554</v>
+        <v>1.019469049850918</v>
       </c>
       <c r="R16" t="n">
-        <v>1.100594586154501</v>
+        <v>0.8926981324287664</v>
       </c>
       <c r="S16" t="n">
-        <v>0.8031658637302135</v>
+        <v>0.7128854346897692</v>
       </c>
       <c r="T16" t="n">
-        <v>1.24164221084013</v>
+        <v>1.018636391379616</v>
       </c>
       <c r="U16" t="n">
-        <v>0.9817678079357673</v>
+        <v>1.027634667074759</v>
       </c>
       <c r="V16" t="n">
-        <v>1.086995764101518</v>
+        <v>1.029784938804405</v>
       </c>
       <c r="W16" t="n">
-        <v>1.068984632201832</v>
+        <v>1.066565917815698</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44356</v>
+        <v>44376</v>
       </c>
       <c r="B17" t="n">
-        <v>1.008962525679102</v>
+        <v>0.9999153385006468</v>
       </c>
       <c r="C17" t="n">
-        <v>1.016053983727417</v>
+        <v>0.9970541753565612</v>
       </c>
       <c r="D17" t="n">
-        <v>1.032719180843906</v>
+        <v>1.036233098448416</v>
       </c>
       <c r="E17" t="n">
-        <v>1.015325334227214</v>
+        <v>1.01241268988916</v>
       </c>
       <c r="F17" t="n">
-        <v>1.050494911362959</v>
+        <v>0.998888200571743</v>
       </c>
       <c r="G17" t="n">
-        <v>1.009303954134644</v>
+        <v>1.007666073646362</v>
       </c>
       <c r="H17" t="n">
-        <v>1.04176792068693</v>
+        <v>0.9939262296355296</v>
       </c>
       <c r="I17" t="n">
-        <v>1.022124404732962</v>
+        <v>1.003768369012335</v>
       </c>
       <c r="J17" t="n">
-        <v>1.000216138384848</v>
+        <v>1.005165645844446</v>
       </c>
       <c r="K17" t="n">
-        <v>1.024693310749941</v>
+        <v>1.004605497403968</v>
       </c>
       <c r="L17" t="n">
-        <v>1.096980130200895</v>
+        <v>1.035537956746898</v>
       </c>
       <c r="M17" t="n">
-        <v>1.009792400833376</v>
+        <v>0.9199075864959125</v>
       </c>
       <c r="N17" t="n">
-        <v>1.005339709595867</v>
+        <v>0.9273657968767984</v>
       </c>
       <c r="O17" t="n">
-        <v>0.9841052540023137</v>
+        <v>0.9229558305453439</v>
       </c>
       <c r="P17" t="n">
-        <v>1.077452717819995</v>
+        <v>1.152380953822637</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.046006567836133</v>
+        <v>0.9935840506497262</v>
       </c>
       <c r="R17" t="n">
-        <v>1.101090137627772</v>
+        <v>0.8913624787992159</v>
       </c>
       <c r="S17" t="n">
-        <v>0.8012387826372162</v>
+        <v>0.6754589493685563</v>
       </c>
       <c r="T17" t="n">
-        <v>1.269794721407624</v>
+        <v>1.04636362249201</v>
       </c>
       <c r="U17" t="n">
-        <v>0.9854603959960206</v>
+        <v>1.03091334124682</v>
       </c>
       <c r="V17" t="n">
-        <v>1.086995764101518</v>
+        <v>1.030888108064719</v>
       </c>
       <c r="W17" t="n">
-        <v>1.066706765534518</v>
+        <v>1.069420378370286</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44357</v>
+        <v>44377</v>
       </c>
       <c r="B18" t="n">
-        <v>1.009988472190595</v>
+        <v>0.9928472399317912</v>
       </c>
       <c r="C18" t="n">
-        <v>1.009348481967072</v>
+        <v>0.9897030902477998</v>
       </c>
       <c r="D18" t="n">
-        <v>1.040779470120037</v>
+        <v>1.034494203381279</v>
       </c>
       <c r="E18" t="n">
-        <v>1.020048874418545</v>
+        <v>1.013757335569725</v>
       </c>
       <c r="F18" t="n">
-        <v>1.043398724187342</v>
+        <v>0.9996279918690554</v>
       </c>
       <c r="G18" t="n">
-        <v>1.00866136850875</v>
+        <v>0.9974196184881104</v>
       </c>
       <c r="H18" t="n">
-        <v>1.050273351091373</v>
+        <v>0.9868402377643709</v>
       </c>
       <c r="I18" t="n">
-        <v>1.022344510879382</v>
+        <v>0.9937554455338998</v>
       </c>
       <c r="J18" t="n">
-        <v>1.000252145163699</v>
+        <v>0.9989636862311327</v>
       </c>
       <c r="K18" t="n">
-        <v>1.024536039980525</v>
+        <v>0.9972367015576196</v>
       </c>
       <c r="L18" t="n">
-        <v>1.103829483501612</v>
+        <v>1.038781552079788</v>
       </c>
       <c r="M18" t="n">
-        <v>1.017234571675477</v>
+        <v>0.9326145534743968</v>
       </c>
       <c r="N18" t="n">
-        <v>1.009656965870637</v>
+        <v>0.9318667703607257</v>
       </c>
       <c r="O18" t="n">
-        <v>0.9864802837267748</v>
+        <v>0.9284193362306524</v>
       </c>
       <c r="P18" t="n">
-        <v>1.084337392905533</v>
+        <v>1.158730153924544</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.055581529310541</v>
+        <v>0.9957964062345315</v>
       </c>
       <c r="R18" t="n">
-        <v>1.112983089435935</v>
+        <v>0.9514693548677473</v>
       </c>
       <c r="S18" t="n">
-        <v>0.7723330703178768</v>
+        <v>0.6380324640473435</v>
       </c>
       <c r="T18" t="n">
-        <v>1.290322580645161</v>
+        <v>1.097727272727273</v>
       </c>
       <c r="U18" t="n">
-        <v>0.9854603959960206</v>
+        <v>1.022482413754566</v>
       </c>
       <c r="V18" t="n">
-        <v>1.091511047234264</v>
+        <v>1.035990081786651</v>
       </c>
       <c r="W18" t="n">
-        <v>1.075033332791749</v>
+        <v>1.063600114448041</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44358</v>
+        <v>44378</v>
       </c>
       <c r="B19" t="n">
-        <v>1.016528689871314</v>
+        <v>1.005219942860032</v>
       </c>
       <c r="C19" t="n">
-        <v>1.014942329388874</v>
+        <v>1.000605924165662</v>
       </c>
       <c r="D19" t="n">
-        <v>1.044423585578212</v>
+        <v>1.035808700785926</v>
       </c>
       <c r="E19" t="n">
-        <v>1.022036373010107</v>
+        <v>1.019050798096855</v>
       </c>
       <c r="F19" t="n">
-        <v>1.054413248949221</v>
+        <v>1.00776590738772</v>
       </c>
       <c r="G19" t="n">
-        <v>1.016567423730122</v>
+        <v>1.002092953816226</v>
       </c>
       <c r="H19" t="n">
-        <v>1.04655219052609</v>
+        <v>0.9810557113724693</v>
       </c>
       <c r="I19" t="n">
-        <v>1.030379770859508</v>
+        <v>0.9988156695348356</v>
       </c>
       <c r="J19" t="n">
-        <v>1.000288151942549</v>
+        <v>1.00808649060941</v>
       </c>
       <c r="K19" t="n">
-        <v>1.031613749590136</v>
+        <v>1.003223811581829</v>
       </c>
       <c r="L19" t="n">
-        <v>1.114726073967362</v>
+        <v>1.062332505156916</v>
       </c>
       <c r="M19" t="n">
-        <v>1.013317671110198</v>
+        <v>0.9283789467777741</v>
       </c>
       <c r="N19" t="n">
-        <v>0.9982959111315058</v>
+        <v>0.9350736570931086</v>
       </c>
       <c r="O19" t="n">
-        <v>0.9818215233253043</v>
+        <v>0.9399018613561164</v>
       </c>
       <c r="P19" t="n">
-        <v>1.134251328311578</v>
+        <v>1.161904753975498</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.048575475148967</v>
+        <v>0.9586283429132586</v>
       </c>
       <c r="R19" t="n">
-        <v>1.102081240574314</v>
+        <v>0.9505788625000295</v>
       </c>
       <c r="S19" t="n">
-        <v>0.7289745018388678</v>
+        <v>0.6552308142814657</v>
       </c>
       <c r="T19" t="n">
-        <v>1.291495583274147</v>
+        <v>1.111818209561434</v>
       </c>
       <c r="U19" t="n">
-        <v>0.9983844101877856</v>
+        <v>1.030210793734856</v>
       </c>
       <c r="V19" t="n">
-        <v>1.094069833990628</v>
+        <v>1.04578047226291</v>
       </c>
       <c r="W19" t="n">
-        <v>1.087235738098221</v>
+        <v>1.06201814135732</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44360</v>
+        <v>44379</v>
       </c>
       <c r="B20" t="n">
-        <v>1.01742637567523</v>
+        <v>1.004951836630999</v>
       </c>
       <c r="C20" t="n">
-        <v>1.015174487179789</v>
+        <v>1.006112629329045</v>
       </c>
       <c r="D20" t="n">
-        <v>1.048310446333826</v>
+        <v>1.044150173109389</v>
       </c>
       <c r="E20" t="n">
-        <v>1.022963974179437</v>
+        <v>1.026693762302258</v>
       </c>
       <c r="F20" t="n">
-        <v>1.052232892567194</v>
+        <v>0.9975556467443739</v>
       </c>
       <c r="G20" t="n">
-        <v>1.015931638454176</v>
+        <v>1.005065121331052</v>
       </c>
       <c r="H20" t="n">
-        <v>1.048108985572379</v>
+        <v>0.9802602683816883</v>
       </c>
       <c r="I20" t="n">
-        <v>1.031205315869955</v>
+        <v>1.000215377616844</v>
       </c>
       <c r="J20" t="n">
-        <v>1.000812424322252</v>
+        <v>1.013064137599336</v>
       </c>
       <c r="K20" t="n">
-        <v>1.031771020359553</v>
+        <v>1.005833605644394</v>
       </c>
       <c r="L20" t="n">
-        <v>1.112780245758198</v>
+        <v>1.061345342680408</v>
       </c>
       <c r="M20" t="n">
-        <v>1.012730113612379</v>
+        <v>0.945321520452881</v>
       </c>
       <c r="N20" t="n">
-        <v>0.9953704430032984</v>
+        <v>0.9412061894673835</v>
       </c>
       <c r="O20" t="n">
-        <v>0.987576499541554</v>
+        <v>0.9474025334055368</v>
       </c>
       <c r="P20" t="n">
-        <v>1.143717736036242</v>
+        <v>1.174603154179312</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.038883720863935</v>
+        <v>0.950730062995673</v>
       </c>
       <c r="R20" t="n">
-        <v>1.079534168382776</v>
+        <v>0.9381122241180592</v>
       </c>
       <c r="S20" t="n">
-        <v>0.7072952386025142</v>
+        <v>0.674300521414954</v>
       </c>
       <c r="T20" t="n">
-        <v>1.284164204975027</v>
+        <v>1.123636349764737</v>
       </c>
       <c r="U20" t="n">
-        <v>1.003346333647336</v>
+        <v>1.035597199779981</v>
       </c>
       <c r="V20" t="n">
-        <v>1.09534916995314</v>
+        <v>1.050330966558696</v>
       </c>
       <c r="W20" t="n">
-        <v>1.091590679154401</v>
+        <v>1.071570295612333</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44361</v>
+        <v>44381</v>
       </c>
       <c r="B21" t="n">
-        <v>1.018324061479146</v>
+        <v>1.007886297884206</v>
       </c>
       <c r="C21" t="n">
-        <v>1.015406644970703</v>
+        <v>1.012203186570219</v>
       </c>
       <c r="D21" t="n">
-        <v>1.052197307089439</v>
+        <v>1.044728133118819</v>
       </c>
       <c r="E21" t="n">
-        <v>1.023891575348767</v>
+        <v>1.026001819967293</v>
       </c>
       <c r="F21" t="n">
-        <v>1.050052536185166</v>
+        <v>0.9930475743334102</v>
       </c>
       <c r="G21" t="n">
-        <v>1.015295853178231</v>
+        <v>1.005446590574346</v>
       </c>
       <c r="H21" t="n">
-        <v>1.049665780618668</v>
+        <v>0.9744757419897866</v>
       </c>
       <c r="I21" t="n">
-        <v>1.032030860880402</v>
+        <v>0.9997847045256484</v>
       </c>
       <c r="J21" t="n">
-        <v>1.001336696701955</v>
+        <v>1.012645320371165</v>
       </c>
       <c r="K21" t="n">
-        <v>1.031928291128969</v>
+        <v>1.007599015815124</v>
       </c>
       <c r="L21" t="n">
-        <v>1.110834417549033</v>
+        <v>1.053353971036348</v>
       </c>
       <c r="M21" t="n">
-        <v>1.012142556114561</v>
+        <v>0.9412142209626359</v>
       </c>
       <c r="N21" t="n">
-        <v>0.992444974875091</v>
+        <v>0.942762773626648</v>
       </c>
       <c r="O21" t="n">
-        <v>0.9933314757578038</v>
+        <v>0.9460443989464339</v>
       </c>
       <c r="P21" t="n">
-        <v>1.153184143760906</v>
+        <v>1.167724841454173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.029191966578904</v>
+        <v>0.93994096840477</v>
       </c>
       <c r="R21" t="n">
-        <v>1.056987096191238</v>
+        <v>0.919709139795356</v>
       </c>
       <c r="S21" t="n">
-        <v>0.6856159753661606</v>
+        <v>0.6850532136807809</v>
       </c>
       <c r="T21" t="n">
-        <v>1.276832826675907</v>
+        <v>1.123787874164003</v>
       </c>
       <c r="U21" t="n">
-        <v>1.008308257106887</v>
+        <v>1.03161593342737</v>
       </c>
       <c r="V21" t="n">
-        <v>1.096628505915652</v>
+        <v>1.042792818619904</v>
       </c>
       <c r="W21" t="n">
-        <v>1.095867069653853</v>
+        <v>1.074847484341245</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44362</v>
+        <v>44382</v>
       </c>
       <c r="B22" t="n">
-        <v>1.02200024225863</v>
+        <v>1.010820759137414</v>
       </c>
       <c r="C22" t="n">
-        <v>1.010370761005826</v>
+        <v>1.018293743811393</v>
       </c>
       <c r="D22" t="n">
-        <v>1.044678981033753</v>
+        <v>1.04530609312825</v>
       </c>
       <c r="E22" t="n">
-        <v>1.021831819034705</v>
+        <v>1.025309877632328</v>
       </c>
       <c r="F22" t="n">
-        <v>1.047308024712175</v>
+        <v>0.9885395019224466</v>
       </c>
       <c r="G22" t="n">
-        <v>1.018915600382338</v>
+        <v>1.005828059817639</v>
       </c>
       <c r="H22" t="n">
-        <v>1.042147629056811</v>
+        <v>0.9686912155978848</v>
       </c>
       <c r="I22" t="n">
-        <v>1.03401215210989</v>
+        <v>0.999354031434453</v>
       </c>
       <c r="J22" t="n">
-        <v>0.9959096885496689</v>
+        <v>1.012226503142993</v>
       </c>
       <c r="K22" t="n">
-        <v>1.034287577664161</v>
+        <v>1.009364425985855</v>
       </c>
       <c r="L22" t="n">
-        <v>1.131071078429917</v>
+        <v>1.045362599392289</v>
       </c>
       <c r="M22" t="n">
-        <v>1.00470031056237</v>
+        <v>0.9371069214723907</v>
       </c>
       <c r="N22" t="n">
-        <v>0.9886958060084653</v>
+        <v>0.9443193577859125</v>
       </c>
       <c r="O22" t="n">
-        <v>0.9852927688645445</v>
+        <v>0.9446862644873308</v>
       </c>
       <c r="P22" t="n">
-        <v>1.11531843079045</v>
+        <v>1.160846528729035</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.004437146848741</v>
+        <v>0.9291518738138672</v>
       </c>
       <c r="R22" t="n">
-        <v>1.043607489963263</v>
+        <v>0.9013060554726526</v>
       </c>
       <c r="S22" t="n">
-        <v>0.695044751833491</v>
+        <v>0.6958059059466076</v>
       </c>
       <c r="T22" t="n">
-        <v>1.266862170087976</v>
+        <v>1.123939398563269</v>
       </c>
       <c r="U22" t="n">
-        <v>1.022847861110867</v>
+        <v>1.027634667074759</v>
       </c>
       <c r="V22" t="n">
-        <v>1.113636290561875</v>
+        <v>1.035254670681112</v>
       </c>
       <c r="W22" t="n">
-        <v>1.083078568413249</v>
+        <v>1.078064958527578</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44363</v>
+        <v>44383</v>
       </c>
       <c r="B23" t="n">
-        <v>1.02378135108097</v>
+        <v>1.001791668784926</v>
       </c>
       <c r="C23" t="n">
-        <v>1.009745744275206</v>
+        <v>1.012676462239107</v>
       </c>
       <c r="D23" t="n">
-        <v>1.042215861137946</v>
+        <v>1.04588405313768</v>
       </c>
       <c r="E23" t="n">
-        <v>1.016324018196727</v>
+        <v>1.024617935297363</v>
       </c>
       <c r="F23" t="n">
-        <v>1.044879369556962</v>
+        <v>0.9840314295114828</v>
       </c>
       <c r="G23" t="n">
-        <v>1.017688121401745</v>
+        <v>0.9961570227123627</v>
       </c>
       <c r="H23" t="n">
-        <v>1.028174342504736</v>
+        <v>0.9629066892059832</v>
       </c>
       <c r="I23" t="n">
-        <v>1.035443052006438</v>
+        <v>0.9934323791086336</v>
       </c>
       <c r="J23" t="n">
-        <v>0.9961577786758578</v>
+        <v>1.011807685914822</v>
       </c>
       <c r="K23" t="n">
-        <v>1.036174901895139</v>
+        <v>1.003991406682807</v>
       </c>
       <c r="L23" t="n">
-        <v>1.131071078429917</v>
+        <v>1.037371227748229</v>
       </c>
       <c r="M23" t="n">
-        <v>0.9894241891695317</v>
+        <v>0.9329996219821457</v>
       </c>
       <c r="N23" t="n">
-        <v>0.9719950416734677</v>
+        <v>0.9458759419451769</v>
       </c>
       <c r="O23" t="n">
-        <v>0.966931554707087</v>
+        <v>0.9433281300282279</v>
       </c>
       <c r="P23" t="n">
-        <v>1.118760768333219</v>
+        <v>1.153968216003896</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.019383508570062</v>
+        <v>0.9183627792229644</v>
       </c>
       <c r="R23" t="n">
-        <v>1.038652069747334</v>
+        <v>0.8829029711499494</v>
       </c>
       <c r="S23" t="n">
-        <v>0.6661390395141517</v>
+        <v>0.7065585982124344</v>
       </c>
       <c r="T23" t="n">
-        <v>1.26568916745899</v>
+        <v>1.124090922962535</v>
       </c>
       <c r="U23" t="n">
-        <v>1.039233715125851</v>
+        <v>1.022014018967532</v>
       </c>
       <c r="V23" t="n">
-        <v>1.119656782903543</v>
+        <v>1.02771652274232</v>
       </c>
       <c r="W23" t="n">
-        <v>1.083710260138063</v>
+        <v>1.081222380135642</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44364</v>
+        <v>44384</v>
       </c>
       <c r="B24" t="n">
-        <v>1.019278694063182</v>
+        <v>1.008859767353782</v>
       </c>
       <c r="C24" t="n">
-        <v>1.00605816300363</v>
+        <v>1.015984856560801</v>
       </c>
       <c r="D24" t="n">
-        <v>1.051247856541263</v>
+        <v>1.045985329061077</v>
       </c>
       <c r="E24" t="n">
-        <v>1.015881189975422</v>
+        <v>1.028059601644397</v>
       </c>
       <c r="F24" t="n">
-        <v>1.032587423099567</v>
+        <v>0.9746648942940265</v>
       </c>
       <c r="G24" t="n">
-        <v>1.018795787705094</v>
+        <v>1.007802229787289</v>
       </c>
       <c r="H24" t="n">
-        <v>1.03447744582342</v>
+        <v>0.9621113344800704</v>
       </c>
       <c r="I24" t="n">
-        <v>1.035663158152858</v>
+        <v>0.9969853705041254</v>
       </c>
       <c r="J24" t="n">
-        <v>0.9936603641286892</v>
+        <v>1.012591918081147</v>
       </c>
       <c r="K24" t="n">
-        <v>1.035703089586891</v>
+        <v>1.012127724428235</v>
       </c>
       <c r="L24" t="n">
-        <v>1.11379211443142</v>
+        <v>1.022281682697253</v>
       </c>
       <c r="M24" t="n">
-        <v>0.9420289302867448</v>
+        <v>0.9333846904898947</v>
       </c>
       <c r="N24" t="n">
-        <v>0.9421154989136221</v>
+        <v>0.9494767035625329</v>
       </c>
       <c r="O24" t="n">
-        <v>0.9102950617948202</v>
+        <v>0.9399944823064666</v>
       </c>
       <c r="P24" t="n">
-        <v>1.120481978140504</v>
+        <v>1.141269815800082</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.9892573776797983</v>
+        <v>0.9336283197043708</v>
       </c>
       <c r="R24" t="n">
-        <v>0.9737363390173203</v>
+        <v>0.8757792020522596</v>
       </c>
       <c r="S24" t="n">
-        <v>0.6227804710351428</v>
+        <v>0.6950632988225249</v>
       </c>
       <c r="T24" t="n">
-        <v>1.264516164830003</v>
+        <v>1.132727258855646</v>
       </c>
       <c r="U24" t="n">
-        <v>1.034848794316251</v>
+        <v>1.01545667062341</v>
       </c>
       <c r="V24" t="n">
-        <v>1.099939782445136</v>
+        <v>1.012548313627045</v>
       </c>
       <c r="W24" t="n">
-        <v>1.102194723123977</v>
+        <v>1.064533878267409</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44365</v>
+        <v>44385</v>
       </c>
       <c r="B25" t="n">
-        <v>0.9999144928616153</v>
+        <v>0.9918879266364364</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9966427149582767</v>
+        <v>1.001941652630086</v>
       </c>
       <c r="D25" t="n">
-        <v>1.04152550322619</v>
+        <v>1.038476283533022</v>
       </c>
       <c r="E25" t="n">
-        <v>1.002548289013501</v>
+        <v>1.019258357760756</v>
       </c>
       <c r="F25" t="n">
-        <v>1.010147738321086</v>
+        <v>0.9655059104613816</v>
       </c>
       <c r="G25" t="n">
-        <v>1.000682122544204</v>
+        <v>0.9903295900533651</v>
       </c>
       <c r="H25" t="n">
-        <v>1.033756037001542</v>
+        <v>0.9413593813550704</v>
       </c>
       <c r="I25" t="n">
-        <v>1.01981291229488</v>
+        <v>0.9784668382951913</v>
       </c>
       <c r="J25" t="n">
-        <v>0.984399147015532</v>
+        <v>0.9992437551923753</v>
       </c>
       <c r="K25" t="n">
-        <v>1.019188458830458</v>
+        <v>0.9947804850767689</v>
       </c>
       <c r="L25" t="n">
-        <v>1.120797048478842</v>
+        <v>1.032717523269061</v>
       </c>
       <c r="M25" t="n">
-        <v>0.9353700947316456</v>
+        <v>0.9245283351445922</v>
       </c>
       <c r="N25" t="n">
-        <v>0.9368893374570092</v>
+        <v>0.9488578186353813</v>
       </c>
       <c r="O25" t="n">
-        <v>0.8907463327751323</v>
+        <v>0.9303639522934991</v>
       </c>
       <c r="P25" t="n">
-        <v>1.106712545897628</v>
+        <v>1.171428554128358</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.9939281101497853</v>
+        <v>0.9455752424126134</v>
       </c>
       <c r="R25" t="n">
-        <v>1.019821586346938</v>
+        <v>0.863757809854148</v>
       </c>
       <c r="S25" t="n">
-        <v>0.6179628523152529</v>
+        <v>0.6398146776340677</v>
       </c>
       <c r="T25" t="n">
-        <v>1.263929618768328</v>
+        <v>1.141363664106889</v>
       </c>
       <c r="U25" t="n">
-        <v>1.014539515965736</v>
+        <v>1.009601869791252</v>
       </c>
       <c r="V25" t="n">
-        <v>1.106411791616945</v>
+        <v>1.022062964390231</v>
       </c>
       <c r="W25" t="n">
-        <v>1.094802500679467</v>
+        <v>1.05730679936282</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44367</v>
+        <v>44386</v>
       </c>
       <c r="B26" t="n">
-        <v>1.003106225956336</v>
+        <v>1.004754339056836</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9996093209456546</v>
+        <v>1.013291284350173</v>
       </c>
       <c r="D26" t="n">
-        <v>1.045649201039213</v>
+        <v>1.04861439352369</v>
       </c>
       <c r="E26" t="n">
-        <v>1.009567274935699</v>
+        <v>1.030753500323261</v>
       </c>
       <c r="F26" t="n">
-        <v>1.021058391980556</v>
+        <v>0.986410929560862</v>
       </c>
       <c r="G26" t="n">
-        <v>1.005708846338027</v>
+        <v>1.007495235632596</v>
       </c>
       <c r="H26" t="n">
-        <v>1.028535046915675</v>
+        <v>0.9580621836587128</v>
       </c>
       <c r="I26" t="n">
-        <v>1.022399600399432</v>
+        <v>0.9888027460564001</v>
       </c>
       <c r="J26" t="n">
-        <v>0.9808811332686617</v>
+        <v>0.9994358080622056</v>
       </c>
       <c r="K26" t="n">
-        <v>1.023199163442504</v>
+        <v>1.008750408466591</v>
       </c>
       <c r="L26" t="n">
-        <v>1.134807035337613</v>
+        <v>1.055563314180409</v>
       </c>
       <c r="M26" t="n">
-        <v>0.9392870700070138</v>
+        <v>0.9314594213954579</v>
       </c>
       <c r="N26" t="n">
-        <v>0.9426266822351859</v>
+        <v>0.9520085601683805</v>
       </c>
       <c r="O26" t="n">
-        <v>0.8984653187674887</v>
+        <v>0.9515696283822811</v>
       </c>
       <c r="P26" t="n">
-        <v>1.102409644487118</v>
+        <v>1.16666661620771</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.006772557627141</v>
+        <v>0.9342920095006212</v>
       </c>
       <c r="R26" t="n">
-        <v>1.016848324765702</v>
+        <v>0.8517364176560365</v>
       </c>
       <c r="S26" t="n">
-        <v>0.6298692444645776</v>
+        <v>0.6260025223369534</v>
       </c>
       <c r="T26" t="n">
-        <v>1.261583568763173</v>
+        <v>1.152727300470525</v>
       </c>
       <c r="U26" t="n">
-        <v>1.011193094280155</v>
+        <v>1.007259895856087</v>
       </c>
       <c r="V26" t="n">
-        <v>1.116872352563449</v>
+        <v>1.041781667801293</v>
       </c>
       <c r="W26" t="n">
-        <v>1.100293536867702</v>
+        <v>1.065028114373843</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44368</v>
+        <v>44388</v>
       </c>
       <c r="B27" t="n">
-        <v>1.006297959051056</v>
+        <v>1.005001228246162</v>
       </c>
       <c r="C27" t="n">
-        <v>1.002575926933032</v>
+        <v>1.01299493093553</v>
       </c>
       <c r="D27" t="n">
-        <v>1.049772898852236</v>
+        <v>1.049731354120391</v>
       </c>
       <c r="E27" t="n">
-        <v>1.016586260857897</v>
+        <v>1.032532155334335</v>
       </c>
       <c r="F27" t="n">
-        <v>1.031969045640026</v>
+        <v>0.9868046434473171</v>
       </c>
       <c r="G27" t="n">
-        <v>1.010735570131851</v>
+        <v>1.010789135530175</v>
       </c>
       <c r="H27" t="n">
-        <v>1.023314056829809</v>
+        <v>0.958640627471416</v>
       </c>
       <c r="I27" t="n">
-        <v>1.024986288503984</v>
+        <v>0.9917097278150987</v>
       </c>
       <c r="J27" t="n">
-        <v>0.9773631195217913</v>
+        <v>0.999223729333619</v>
       </c>
       <c r="K27" t="n">
-        <v>1.02720986805455</v>
+        <v>1.011590422497931</v>
       </c>
       <c r="L27" t="n">
-        <v>1.148817022196384</v>
+        <v>1.05231977264384</v>
       </c>
       <c r="M27" t="n">
-        <v>0.943204045282382</v>
+        <v>0.9331921929581742</v>
       </c>
       <c r="N27" t="n">
-        <v>0.9483640270133626</v>
+        <v>0.9514177907653851</v>
       </c>
       <c r="O27" t="n">
-        <v>0.9061843047598452</v>
+        <v>0.9617557427991805</v>
       </c>
       <c r="P27" t="n">
-        <v>1.098106743076607</v>
+        <v>1.178571385320894</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.019617005104496</v>
+        <v>0.9478981988974678</v>
       </c>
       <c r="R27" t="n">
-        <v>1.013875063184467</v>
+        <v>0.864870882852782</v>
       </c>
       <c r="S27" t="n">
-        <v>0.6417756366139022</v>
+        <v>0.6182053378950341</v>
       </c>
       <c r="T27" t="n">
-        <v>1.259237518758018</v>
+        <v>1.15363637750799</v>
       </c>
       <c r="U27" t="n">
-        <v>1.007846672594575</v>
+        <v>1.006791545737639</v>
       </c>
       <c r="V27" t="n">
-        <v>1.127332913509953</v>
+        <v>1.039092758481785</v>
       </c>
       <c r="W27" t="n">
-        <v>1.105680122311383</v>
+        <v>1.066580109199828</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44369</v>
+        <v>44389</v>
       </c>
       <c r="B28" t="n">
-        <v>1.010244924031187</v>
+        <v>1.005248117435488</v>
       </c>
       <c r="C28" t="n">
-        <v>1.012509228544674</v>
+        <v>1.012698577520888</v>
       </c>
       <c r="D28" t="n">
-        <v>1.058071402566888</v>
+        <v>1.050848314717091</v>
       </c>
       <c r="E28" t="n">
-        <v>1.02179574891957</v>
+        <v>1.034310810345409</v>
       </c>
       <c r="F28" t="n">
-        <v>1.036419908602247</v>
+        <v>0.9871983573337723</v>
       </c>
       <c r="G28" t="n">
-        <v>1.01287904043583</v>
+        <v>1.014083035427753</v>
       </c>
       <c r="H28" t="n">
-        <v>1.018453771154882</v>
+        <v>0.9592190712841193</v>
       </c>
       <c r="I28" t="n">
-        <v>1.026857484671298</v>
+        <v>0.9946167095737974</v>
       </c>
       <c r="J28" t="n">
-        <v>0.9782756495290689</v>
+        <v>0.9990116506050324</v>
       </c>
       <c r="K28" t="n">
-        <v>1.029726350361176</v>
+        <v>1.01443043652927</v>
       </c>
       <c r="L28" t="n">
-        <v>1.148817022196384</v>
+        <v>1.049076231107271</v>
       </c>
       <c r="M28" t="n">
-        <v>0.9341950544460975</v>
+        <v>0.9349249645208907</v>
       </c>
       <c r="N28" t="n">
-        <v>0.9443876751902606</v>
+        <v>0.9508270213623897</v>
       </c>
       <c r="O28" t="n">
-        <v>0.9192472470200974</v>
+        <v>0.9719418572160801</v>
       </c>
       <c r="P28" t="n">
-        <v>1.122203105875987</v>
+        <v>1.190476154434079</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.9939281101497852</v>
+        <v>0.9615043882943144</v>
       </c>
       <c r="R28" t="n">
-        <v>0.9846382823957205</v>
+        <v>0.8780053480495277</v>
       </c>
       <c r="S28" t="n">
-        <v>0.6128699242945629</v>
+        <v>0.6104081534531147</v>
       </c>
       <c r="T28" t="n">
-        <v>1.260410521387005</v>
+        <v>1.154545454545454</v>
       </c>
       <c r="U28" t="n">
-        <v>1.035771963340875</v>
+        <v>1.006323195619191</v>
       </c>
       <c r="V28" t="n">
-        <v>1.125978248188191</v>
+        <v>1.036403849162277</v>
       </c>
       <c r="W28" t="n">
-        <v>1.117828195710012</v>
+        <v>1.068102103694548</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44370</v>
+        <v>44390</v>
       </c>
       <c r="B29" t="n">
-        <v>1.007979367524083</v>
+        <v>1.005149403091653</v>
       </c>
       <c r="C29" t="n">
-        <v>1.011607453568659</v>
+        <v>1.014065319212496</v>
       </c>
       <c r="D29" t="n">
-        <v>1.059441824278938</v>
+        <v>1.04688336928141</v>
       </c>
       <c r="E29" t="n">
-        <v>1.020688854604655</v>
+        <v>1.030673332994695</v>
       </c>
       <c r="F29" t="n">
-        <v>1.039814537457848</v>
+        <v>0.9686123156661154</v>
       </c>
       <c r="G29" t="n">
-        <v>1.001222987586673</v>
+        <v>1.014027155592854</v>
       </c>
       <c r="H29" t="n">
-        <v>1.025668230182624</v>
+        <v>0.9605206250282444</v>
       </c>
       <c r="I29" t="n">
-        <v>1.025866797067591</v>
+        <v>0.9994617202428752</v>
       </c>
       <c r="J29" t="n">
-        <v>0.9854316670483942</v>
+        <v>0.9996118402450305</v>
       </c>
       <c r="K29" t="n">
-        <v>1.021862286904483</v>
+        <v>1.01581212235141</v>
       </c>
       <c r="L29" t="n">
-        <v>1.144613966756789</v>
+        <v>1.065293992586437</v>
       </c>
       <c r="M29" t="n">
-        <v>0.9373286197243744</v>
+        <v>0.927223741254527</v>
       </c>
       <c r="N29" t="n">
-        <v>0.9437628137124896</v>
+        <v>0.952064791216693</v>
       </c>
       <c r="O29" t="n">
-        <v>0.9271032861245249</v>
+        <v>0.9584220950774192</v>
       </c>
       <c r="P29" t="n">
-        <v>1.148020678482653</v>
+        <v>1.173015816309617</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.008640797163048</v>
+        <v>0.9486725739897232</v>
       </c>
       <c r="R29" t="n">
-        <v>0.9796828621797912</v>
+        <v>0.8900267402476392</v>
       </c>
       <c r="S29" t="n">
-        <v>0.6086028821699716</v>
+        <v>0.5337729692239646</v>
       </c>
       <c r="T29" t="n">
-        <v>1.259237518758018</v>
+        <v>1.195454545454545</v>
       </c>
       <c r="U29" t="n">
-        <v>1.019155273050613</v>
+        <v>1.016627612922407</v>
       </c>
       <c r="V29" t="n">
-        <v>1.131697767586879</v>
+        <v>1.05474353839594</v>
       </c>
       <c r="W29" t="n">
-        <v>1.120523525974726</v>
+        <v>1.057792368927284</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44371</v>
+        <v>44391</v>
       </c>
       <c r="B30" t="n">
-        <v>1.01309469814693</v>
+        <v>1.000423238610273</v>
       </c>
       <c r="C30" t="n">
-        <v>1.004942061698952</v>
+        <v>1.006245321019729</v>
       </c>
       <c r="D30" t="n">
-        <v>1.066715193978032</v>
+        <v>1.044551027950622</v>
       </c>
       <c r="E30" t="n">
-        <v>1.02662033243017</v>
+        <v>1.031873999996083</v>
       </c>
       <c r="F30" t="n">
-        <v>1.053424682595259</v>
+        <v>0.9528210880656893</v>
       </c>
       <c r="G30" t="n">
-        <v>1.00982805552375</v>
+        <v>1.013984822384597</v>
       </c>
       <c r="H30" t="n">
-        <v>1.035236862563182</v>
+        <v>0.964569775849602</v>
       </c>
       <c r="I30" t="n">
-        <v>1.028288384567846</v>
+        <v>0.9993540314344531</v>
       </c>
       <c r="J30" t="n">
-        <v>0.9913470385132809</v>
+        <v>0.9941301277371379</v>
       </c>
       <c r="K30" t="n">
-        <v>1.031141937281888</v>
+        <v>1.014123427769639</v>
       </c>
       <c r="L30" t="n">
-        <v>1.148038643407147</v>
+        <v>1.035396902795214</v>
       </c>
       <c r="M30" t="n">
-        <v>0.9416372999982885</v>
+        <v>0.9368502336153274</v>
       </c>
       <c r="N30" t="n">
-        <v>0.9431947263043454</v>
+        <v>0.9623044221899218</v>
       </c>
       <c r="O30" t="n">
-        <v>0.9344112521685273</v>
+        <v>0.9774053629013886</v>
       </c>
       <c r="P30" t="n">
-        <v>1.177280588632087</v>
+        <v>1.161904753975497</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.014946272634509</v>
+        <v>0.9741150007988075</v>
       </c>
       <c r="R30" t="n">
-        <v>0.9781962077599786</v>
+        <v>0.9122885399084267</v>
       </c>
       <c r="S30" t="n">
-        <v>0.5796971698506324</v>
+        <v>0.4646231038145939</v>
       </c>
       <c r="T30" t="n">
-        <v>1.266275624026301</v>
+        <v>1.194090964577414</v>
       </c>
       <c r="U30" t="n">
-        <v>1.014770352241014</v>
+        <v>1.013817333537379</v>
       </c>
       <c r="V30" t="n">
-        <v>1.137266628267067</v>
+        <v>1.030888108064719</v>
       </c>
       <c r="W30" t="n">
-        <v>1.12302722739246</v>
+        <v>1.037272643360275</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44372</v>
+        <v>44392</v>
       </c>
       <c r="B31" t="n">
-        <v>1.016813667282889</v>
+        <v>0.9892497117444717</v>
       </c>
       <c r="C31" t="n">
-        <v>1.011009205830268</v>
+        <v>0.9952452144171601</v>
       </c>
       <c r="D31" t="n">
-        <v>1.066023313697679</v>
+        <v>1.037288694472549</v>
       </c>
       <c r="E31" t="n">
-        <v>1.030039591357318</v>
+        <v>1.028507778476938</v>
       </c>
       <c r="F31" t="n">
-        <v>1.053776687158754</v>
+        <v>0.9475991374734813</v>
       </c>
       <c r="G31" t="n">
-        <v>1.011041933804445</v>
+        <v>1.003753105454405</v>
       </c>
       <c r="H31" t="n">
-        <v>1.043666462536336</v>
+        <v>0.9668835511004156</v>
       </c>
       <c r="I31" t="n">
-        <v>1.027407792026312</v>
+        <v>0.9921404419775406</v>
       </c>
       <c r="J31" t="n">
-        <v>1.00080846699649</v>
+        <v>0.9769806661079288</v>
       </c>
       <c r="K31" t="n">
-        <v>1.033186532282282</v>
+        <v>1.004298415442439</v>
       </c>
       <c r="L31" t="n">
-        <v>1.159713612662135</v>
+        <v>1.01452543683688</v>
       </c>
       <c r="M31" t="n">
-        <v>0.9471210205577505</v>
+        <v>0.9387755027097643</v>
       </c>
       <c r="N31" t="n">
-        <v>0.9463190336932001</v>
+        <v>0.9624732870327167</v>
       </c>
       <c r="O31" t="n">
-        <v>0.9448250584801768</v>
+        <v>0.9852764481031253</v>
       </c>
       <c r="P31" t="n">
-        <v>1.203442370371488</v>
+        <v>1.147619015901989</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.035730938584799</v>
+        <v>0.9760398193622719</v>
       </c>
       <c r="R31" t="n">
-        <v>0.9514370898208073</v>
+        <v>0.9087266553595817</v>
       </c>
       <c r="S31" t="n">
-        <v>0.5363386013716234</v>
+        <v>0.4372661143806055</v>
       </c>
       <c r="T31" t="n">
-        <v>1.271554270098286</v>
+        <v>1.199090853604403</v>
       </c>
       <c r="U31" t="n">
-        <v>1.016616602252018</v>
+        <v>1.017798555221405</v>
       </c>
       <c r="V31" t="n">
-        <v>1.14659839713822</v>
+        <v>1.013099898257201</v>
       </c>
       <c r="W31" t="n">
-        <v>1.119782454578367</v>
+        <v>1.024357762405071</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44374</v>
+        <v>44393</v>
       </c>
       <c r="B32" t="n">
-        <v>1.012318141657846</v>
+        <v>0.9886995153284156</v>
       </c>
       <c r="C32" t="n">
-        <v>1.008495754411673</v>
+        <v>0.9937280715318795</v>
       </c>
       <c r="D32" t="n">
-        <v>1.071224123539777</v>
+        <v>1.029022865651706</v>
       </c>
       <c r="E32" t="n">
-        <v>1.031231843778569</v>
+        <v>1.020754008280041</v>
       </c>
       <c r="F32" t="n">
-        <v>1.051054713235305</v>
+        <v>0.9358963024694386</v>
       </c>
       <c r="G32" t="n">
-        <v>1.009299747406536</v>
+        <v>0.9980149174699997</v>
       </c>
       <c r="H32" t="n">
-        <v>1.044122094039746</v>
+        <v>0.9588575383846256</v>
       </c>
       <c r="I32" t="n">
-        <v>1.02460099777534</v>
+        <v>0.9846037860953618</v>
       </c>
       <c r="J32" t="n">
-        <v>1.001184657223282</v>
+        <v>0.9775008500000169</v>
       </c>
       <c r="K32" t="n">
-        <v>1.02949040670806</v>
+        <v>1.001381612620242</v>
       </c>
       <c r="L32" t="n">
-        <v>1.150840640778901</v>
+        <v>1.016922816052306</v>
       </c>
       <c r="M32" t="n">
-        <v>0.9477085407005246</v>
+        <v>0.9152869112915408</v>
       </c>
       <c r="N32" t="n">
-        <v>0.9462906466583867</v>
+        <v>0.9531337820771303</v>
       </c>
       <c r="O32" t="n">
-        <v>0.9398921918545645</v>
+        <v>0.9492545991671182</v>
       </c>
       <c r="P32" t="n">
-        <v>1.220481953518963</v>
+        <v>1.16666661620771</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.055931818655598</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="R32" t="n">
-        <v>0.9724975075925326</v>
+        <v>0.9002671477103151</v>
       </c>
       <c r="S32" t="n">
-        <v>0.5434617989652335</v>
+        <v>0.477989705715027</v>
       </c>
       <c r="T32" t="n">
-        <v>1.292961903681153</v>
+        <v>1.205909035422585</v>
       </c>
       <c r="U32" t="n">
-        <v>1.014654934103375</v>
+        <v>1.019203739582504</v>
       </c>
       <c r="V32" t="n">
-        <v>1.135310017059344</v>
+        <v>1.014754546943661</v>
       </c>
       <c r="W32" t="n">
-        <v>1.133496883863428</v>
+        <v>1.018528659353471</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44375</v>
+        <v>44395</v>
       </c>
       <c r="B33" t="n">
-        <v>1.007822616032804</v>
+        <v>0.9771521414675054</v>
       </c>
       <c r="C33" t="n">
-        <v>1.005982302993078</v>
+        <v>0.9820932304258597</v>
       </c>
       <c r="D33" t="n">
-        <v>1.076424933381876</v>
+        <v>1.023592901992628</v>
       </c>
       <c r="E33" t="n">
-        <v>1.032424096199819</v>
+        <v>1.012654574070177</v>
       </c>
       <c r="F33" t="n">
-        <v>1.048332739311856</v>
+        <v>0.9288529696483822</v>
       </c>
       <c r="G33" t="n">
-        <v>1.007557561008628</v>
+        <v>0.9849424227602396</v>
       </c>
       <c r="H33" t="n">
-        <v>1.044577725543155</v>
+        <v>0.9509399590592233</v>
       </c>
       <c r="I33" t="n">
-        <v>1.021794203524368</v>
+        <v>0.9716839219294741</v>
       </c>
       <c r="J33" t="n">
-        <v>1.001560847450075</v>
+        <v>0.9685700496480111</v>
       </c>
       <c r="K33" t="n">
-        <v>1.025794281133838</v>
+        <v>0.9903285286535662</v>
       </c>
       <c r="L33" t="n">
-        <v>1.141967668895668</v>
+        <v>0.9806091701637869</v>
       </c>
       <c r="M33" t="n">
-        <v>0.9482960608432984</v>
+        <v>0.9060454874384894</v>
       </c>
       <c r="N33" t="n">
-        <v>0.9462622596235732</v>
+        <v>0.9536963930315052</v>
       </c>
       <c r="O33" t="n">
-        <v>0.9349593252289522</v>
+        <v>0.9377257282419366</v>
       </c>
       <c r="P33" t="n">
-        <v>1.237521536666438</v>
+        <v>1.183333285397324</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.076132698726397</v>
+        <v>0.9866150546012294</v>
       </c>
       <c r="R33" t="n">
-        <v>0.993557925364258</v>
+        <v>0.9031612054443848</v>
       </c>
       <c r="S33" t="n">
-        <v>0.5505849965588437</v>
+        <v>0.4849848722873834</v>
       </c>
       <c r="T33" t="n">
-        <v>1.314369537264021</v>
+        <v>1.208409049294211</v>
       </c>
       <c r="U33" t="n">
-        <v>1.012693265954731</v>
+        <v>1.010538614696733</v>
       </c>
       <c r="V33" t="n">
-        <v>1.124021636980469</v>
+        <v>0.9804881802767522</v>
       </c>
       <c r="W33" t="n">
-        <v>1.146983689459377</v>
+        <v>1.021216409561231</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44376</v>
+        <v>44396</v>
       </c>
       <c r="B34" t="n">
-        <v>1.00990296505221</v>
+        <v>0.9656047676065952</v>
       </c>
       <c r="C34" t="n">
-        <v>1.006375118335076</v>
+        <v>0.9704583893198399</v>
       </c>
       <c r="D34" t="n">
-        <v>1.078490135123987</v>
+        <v>1.01816293833355</v>
       </c>
       <c r="E34" t="n">
-        <v>1.03271042476849</v>
+        <v>1.004555139860313</v>
       </c>
       <c r="F34" t="n">
-        <v>1.042238674082347</v>
+        <v>0.9218096368273258</v>
       </c>
       <c r="G34" t="n">
-        <v>1.016393840843977</v>
+        <v>0.9718699280504794</v>
       </c>
       <c r="H34" t="n">
-        <v>1.043894231936921</v>
+        <v>0.9430223797338212</v>
       </c>
       <c r="I34" t="n">
-        <v>1.026197082254111</v>
+        <v>0.9587640577635863</v>
       </c>
       <c r="J34" t="n">
-        <v>1.005419093500762</v>
+        <v>0.9596392492960053</v>
       </c>
       <c r="K34" t="n">
-        <v>1.029254538052927</v>
+        <v>0.9792754446868901</v>
       </c>
       <c r="L34" t="n">
-        <v>1.143057327942243</v>
+        <v>0.9442955242752674</v>
       </c>
       <c r="M34" t="n">
-        <v>0.9357617997301914</v>
+        <v>0.8968040635854381</v>
       </c>
       <c r="N34" t="n">
-        <v>0.9363213367268336</v>
+        <v>0.95425900398588</v>
       </c>
       <c r="O34" t="n">
-        <v>0.9104777295836519</v>
+        <v>0.9261968573167551</v>
       </c>
       <c r="P34" t="n">
-        <v>1.249569759102029</v>
+        <v>1.199999954586939</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.048808971683401</v>
+        <v>0.973230109202459</v>
       </c>
       <c r="R34" t="n">
-        <v>0.9920713654612247</v>
+        <v>0.9060552631784545</v>
       </c>
       <c r="S34" t="n">
-        <v>0.5216792842395045</v>
+        <v>0.4919800388597398</v>
       </c>
       <c r="T34" t="n">
-        <v>1.350146609667109</v>
+        <v>1.210909063165837</v>
       </c>
       <c r="U34" t="n">
-        <v>1.015924269502672</v>
+        <v>1.001873489810962</v>
       </c>
       <c r="V34" t="n">
-        <v>1.125225758415071</v>
+        <v>0.9462218136098436</v>
       </c>
       <c r="W34" t="n">
-        <v>1.150427175471551</v>
+        <v>1.023544911788056</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44377</v>
+        <v>44397</v>
       </c>
       <c r="B35" t="n">
-        <v>1.002764266977359</v>
+        <v>0.9707824141601971</v>
       </c>
       <c r="C35" t="n">
-        <v>0.998955311739737</v>
+        <v>0.9783579506943254</v>
       </c>
       <c r="D35" t="n">
-        <v>1.076680328837417</v>
+        <v>1.034132563357702</v>
       </c>
       <c r="E35" t="n">
-        <v>1.034082029081442</v>
+        <v>1.019786817104805</v>
       </c>
       <c r="F35" t="n">
-        <v>1.043010571378128</v>
+        <v>0.9493340135526297</v>
       </c>
       <c r="G35" t="n">
-        <v>1.006058637361692</v>
+        <v>0.9772047275970939</v>
       </c>
       <c r="H35" t="n">
-        <v>1.036452003508593</v>
+        <v>0.9456977761489964</v>
       </c>
       <c r="I35" t="n">
-        <v>1.015960424898077</v>
+        <v>0.9642549548557174</v>
       </c>
       <c r="J35" t="n">
-        <v>0.9992155700933266</v>
+        <v>0.9568783183397446</v>
       </c>
       <c r="K35" t="n">
-        <v>1.021704941137084</v>
+        <v>0.9829597694081664</v>
       </c>
       <c r="L35" t="n">
-        <v>1.146637704103234</v>
+        <v>0.9442955242752674</v>
       </c>
       <c r="M35" t="n">
-        <v>0.9486877658418442</v>
+        <v>0.8910281094135112</v>
       </c>
       <c r="N35" t="n">
-        <v>0.9408657759580799</v>
+        <v>0.9530212341315768</v>
       </c>
       <c r="O35" t="n">
-        <v>0.915867370222238</v>
+        <v>0.922955830545344</v>
       </c>
       <c r="P35" t="n">
-        <v>1.256454434187566</v>
+        <v>1.230158692915214</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.051144293374988</v>
+        <v>1.025221225008986</v>
       </c>
       <c r="R35" t="n">
-        <v>1.058969302084322</v>
+        <v>0.9238646859226793</v>
       </c>
       <c r="S35" t="n">
-        <v>0.4927735719201652</v>
+        <v>0.4829798820023185</v>
       </c>
       <c r="T35" t="n">
-        <v>1.416422287390029</v>
+        <v>1.201818154074928</v>
       </c>
       <c r="U35" t="n">
-        <v>1.007615924357541</v>
+        <v>1.005386406045125</v>
       </c>
       <c r="V35" t="n">
-        <v>1.130794619095258</v>
+        <v>0.956287943799176</v>
       </c>
       <c r="W35" t="n">
-        <v>1.144071227294712</v>
+        <v>1.034585778621375</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44378</v>
+        <v>44398</v>
       </c>
       <c r="B36" t="n">
-        <v>1.015260554304721</v>
+        <v>0.9873168945362952</v>
       </c>
       <c r="C36" t="n">
-        <v>1.00996007060387</v>
+        <v>0.9970453637989775</v>
       </c>
       <c r="D36" t="n">
-        <v>1.0780484307497</v>
+        <v>1.043623802990328</v>
       </c>
       <c r="E36" t="n">
-        <v>1.039481619574018</v>
+        <v>1.02819171648041</v>
       </c>
       <c r="F36" t="n">
-        <v>1.051501662047847</v>
+        <v>0.966526978775362</v>
       </c>
       <c r="G36" t="n">
-        <v>1.01077245016925</v>
+        <v>0.9904490637744453</v>
       </c>
       <c r="H36" t="n">
-        <v>1.030376669590494</v>
+        <v>0.9520607022211676</v>
       </c>
       <c r="I36" t="n">
-        <v>1.021133717129254</v>
+        <v>0.9760982595073564</v>
       </c>
       <c r="J36" t="n">
-        <v>1.008340674742608</v>
+        <v>0.970314595007045</v>
       </c>
       <c r="K36" t="n">
-        <v>1.027838951132215</v>
+        <v>1.000153504379817</v>
       </c>
       <c r="L36" t="n">
-        <v>1.172633940474331</v>
+        <v>0.9928077547610825</v>
       </c>
       <c r="M36" t="n">
-        <v>0.9443791602780195</v>
+        <v>0.9018098072975587</v>
       </c>
       <c r="N36" t="n">
-        <v>0.9441036314861884</v>
+        <v>0.9494767035625332</v>
       </c>
       <c r="O36" t="n">
-        <v>0.9271946548659055</v>
+        <v>0.9352718029257907</v>
       </c>
       <c r="P36" t="n">
-        <v>1.259896771730335</v>
+        <v>1.257142831192536</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.011910372252808</v>
+        <v>1.104203517809108</v>
       </c>
       <c r="R36" t="n">
-        <v>1.05797819913778</v>
+        <v>0.9260908319199476</v>
       </c>
       <c r="S36" t="n">
-        <v>0.5060564265608869</v>
+        <v>0.5204063673235313</v>
       </c>
       <c r="T36" t="n">
-        <v>1.434604141369593</v>
+        <v>1.207727328213778</v>
       </c>
       <c r="U36" t="n">
-        <v>1.015231936753326</v>
+        <v>1.002576126660097</v>
       </c>
       <c r="V36" t="n">
-        <v>1.141480938456833</v>
+        <v>0.9960011955383824</v>
       </c>
       <c r="W36" t="n">
-        <v>1.142224123860729</v>
+        <v>1.055824405996465</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44379</v>
+        <v>44399</v>
       </c>
       <c r="B37" t="n">
-        <v>1.014989770104075</v>
+        <v>0.9830845084335664</v>
       </c>
       <c r="C37" t="n">
-        <v>1.015518255101171</v>
+        <v>1.00302979360395</v>
       </c>
       <c r="D37" t="n">
-        <v>1.086730063894535</v>
+        <v>1.047379022287529</v>
       </c>
       <c r="E37" t="n">
-        <v>1.04727781660896</v>
+        <v>1.030265239826437</v>
       </c>
       <c r="F37" t="n">
-        <v>1.040848289118959</v>
+        <v>0.9515750403880204</v>
       </c>
       <c r="G37" t="n">
-        <v>1.013770360722191</v>
+        <v>0.9963599712485395</v>
       </c>
       <c r="H37" t="n">
-        <v>1.029541237014965</v>
+        <v>0.9542298996181307</v>
       </c>
       <c r="I37" t="n">
-        <v>1.022564701003729</v>
+        <v>0.9912790957951498</v>
       </c>
       <c r="J37" t="n">
-        <v>1.013319576822148</v>
+        <v>0.9827824992945765</v>
       </c>
       <c r="K37" t="n">
-        <v>1.03051277920624</v>
+        <v>1.005833605644394</v>
       </c>
       <c r="L37" t="n">
-        <v>1.171544281427756</v>
+        <v>1.015512599313388</v>
       </c>
       <c r="M37" t="n">
-        <v>0.9616137319534971</v>
+        <v>0.9072006195174283</v>
       </c>
       <c r="N37" t="n">
-        <v>0.9502953855163022</v>
+        <v>0.951333358343988</v>
       </c>
       <c r="O37" t="n">
-        <v>0.9345939199573592</v>
+        <v>0.9446245407367924</v>
       </c>
       <c r="P37" t="n">
-        <v>1.27366612190141</v>
+        <v>1.271428569266045</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.00357309385848</v>
+        <v>1.212831831183782</v>
       </c>
       <c r="R37" t="n">
-        <v>1.044103041436534</v>
+        <v>0.9154051782734127</v>
       </c>
       <c r="S37" t="n">
-        <v>0.5207845920213566</v>
+        <v>0.5765460953053506</v>
       </c>
       <c r="T37" t="n">
-        <v>1.449853354535145</v>
+        <v>1.201818154074928</v>
       </c>
       <c r="U37" t="n">
-        <v>1.02054002658755</v>
+        <v>1.015925065410443</v>
       </c>
       <c r="V37" t="n">
-        <v>1.146447853251059</v>
+        <v>1.017512470094445</v>
       </c>
       <c r="W37" t="n">
-        <v>1.15234318456692</v>
+        <v>1.059101263943143</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44381</v>
+        <v>44400</v>
       </c>
       <c r="B38" t="n">
-        <v>1.017953542141905</v>
+        <v>0.991450566295189</v>
       </c>
       <c r="C38" t="n">
-        <v>1.021665749806883</v>
+        <v>1.012145695476372</v>
       </c>
       <c r="D38" t="n">
-        <v>1.0873315928069</v>
+        <v>1.058248283150208</v>
       </c>
       <c r="E38" t="n">
-        <v>1.046572001609017</v>
+        <v>1.040717746385818</v>
       </c>
       <c r="F38" t="n">
-        <v>1.036144572116815</v>
+        <v>0.9559749184977925</v>
       </c>
       <c r="G38" t="n">
-        <v>1.014155134011176</v>
+        <v>1.006298177934816</v>
       </c>
       <c r="H38" t="n">
-        <v>1.023465903096866</v>
+        <v>0.9398409608301697</v>
       </c>
       <c r="I38" t="n">
-        <v>1.022124404732962</v>
+        <v>1.002260972121905</v>
       </c>
       <c r="J38" t="n">
-        <v>1.012900653991238</v>
+        <v>0.986343683104168</v>
       </c>
       <c r="K38" t="n">
-        <v>1.032321505551502</v>
+        <v>1.017040230591835</v>
       </c>
       <c r="L38" t="n">
-        <v>1.162723169793424</v>
+        <v>1.017768924577129</v>
       </c>
       <c r="M38" t="n">
-        <v>0.9574356449157947</v>
+        <v>0.8991144011876238</v>
       </c>
       <c r="N38" t="n">
-        <v>0.9518670015556674</v>
+        <v>0.9483514816537836</v>
       </c>
       <c r="O38" t="n">
-        <v>0.9332541470908042</v>
+        <v>0.9189739774693004</v>
       </c>
       <c r="P38" t="n">
-        <v>1.266207710213444</v>
+        <v>1.288888831702071</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.9921843248903386</v>
+        <v>1.189601759959503</v>
       </c>
       <c r="R38" t="n">
-        <v>1.023620719791902</v>
+        <v>0.890917232615357</v>
       </c>
       <c r="S38" t="n">
-        <v>0.529089251853206</v>
+        <v>0.5649617069916418</v>
       </c>
       <c r="T38" t="n">
-        <v>1.450048869889036</v>
+        <v>1.204090881347655</v>
       </c>
       <c r="U38" t="n">
-        <v>1.016616646271141</v>
+        <v>1.019672134369537</v>
       </c>
       <c r="V38" t="n">
-        <v>1.138219881500182</v>
+        <v>1.021787119473147</v>
       </c>
       <c r="W38" t="n">
-        <v>1.155844070222955</v>
+        <v>1.063691746219817</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44382</v>
+        <v>44402</v>
       </c>
       <c r="B39" t="n">
-        <v>1.020917314179735</v>
+        <v>0.9912953650274572</v>
       </c>
       <c r="C39" t="n">
-        <v>1.027813244512596</v>
+        <v>1.013247010592702</v>
       </c>
       <c r="D39" t="n">
-        <v>1.087933121719266</v>
+        <v>1.058380937893062</v>
       </c>
       <c r="E39" t="n">
-        <v>1.045866186609074</v>
+        <v>1.041957345222056</v>
       </c>
       <c r="F39" t="n">
-        <v>1.031440855114672</v>
+        <v>0.9575475559372104</v>
       </c>
       <c r="G39" t="n">
-        <v>1.01453990730016</v>
+        <v>1.004682711349797</v>
       </c>
       <c r="H39" t="n">
-        <v>1.017390569178767</v>
+        <v>0.9309834047925702</v>
       </c>
       <c r="I39" t="n">
-        <v>1.021684108462195</v>
+        <v>1.002368660930327</v>
       </c>
       <c r="J39" t="n">
-        <v>1.012481731160329</v>
+        <v>0.9859622149166366</v>
       </c>
       <c r="K39" t="n">
-        <v>1.034130231896763</v>
+        <v>1.016426176471622</v>
       </c>
       <c r="L39" t="n">
-        <v>1.153902058159092</v>
+        <v>1.016640761945258</v>
       </c>
       <c r="M39" t="n">
-        <v>0.9532575578780923</v>
+        <v>0.8993069354414983</v>
       </c>
       <c r="N39" t="n">
-        <v>0.9534386175950327</v>
+        <v>0.9472262597450339</v>
       </c>
       <c r="O39" t="n">
-        <v>0.9319143742242492</v>
+        <v>0.9220761434642709</v>
       </c>
       <c r="P39" t="n">
-        <v>1.258749298525478</v>
+        <v>1.295238031803978</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.9807955559221972</v>
+        <v>1.241814161962084</v>
       </c>
       <c r="R39" t="n">
-        <v>1.003138398147269</v>
+        <v>0.896037436346695</v>
       </c>
       <c r="S39" t="n">
-        <v>0.5373939116850552</v>
+        <v>0.5605061730248309</v>
       </c>
       <c r="T39" t="n">
-        <v>1.450244385242928</v>
+        <v>1.203863594748756</v>
       </c>
       <c r="U39" t="n">
-        <v>1.012693265954731</v>
+        <v>1.027166272287726</v>
       </c>
       <c r="V39" t="n">
-        <v>1.129991909749304</v>
+        <v>1.024544990021926</v>
       </c>
       <c r="W39" t="n">
-        <v>1.159281533314888</v>
+        <v>1.061116993554221</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44383</v>
+        <v>44403</v>
       </c>
       <c r="B40" t="n">
-        <v>1.011798037009354</v>
+        <v>0.9911401637597252</v>
       </c>
       <c r="C40" t="n">
-        <v>1.022143449884827</v>
+        <v>1.014348325709033</v>
       </c>
       <c r="D40" t="n">
-        <v>1.088534650631631</v>
+        <v>1.058513592635917</v>
       </c>
       <c r="E40" t="n">
-        <v>1.04516037160913</v>
+        <v>1.043196944058293</v>
       </c>
       <c r="F40" t="n">
-        <v>1.026737138112528</v>
+        <v>0.9591201933766283</v>
       </c>
       <c r="G40" t="n">
-        <v>1.004785105778653</v>
+        <v>1.003067244764778</v>
       </c>
       <c r="H40" t="n">
-        <v>1.011315235260668</v>
+        <v>0.9221258487549708</v>
       </c>
       <c r="I40" t="n">
-        <v>1.015630139711557</v>
+        <v>1.002476349738749</v>
       </c>
       <c r="J40" t="n">
-        <v>1.012062808329419</v>
+        <v>0.9855807467291052</v>
       </c>
       <c r="K40" t="n">
-        <v>1.02862537997728</v>
+        <v>1.01581212235141</v>
       </c>
       <c r="L40" t="n">
-        <v>1.14508094652476</v>
+        <v>1.015512599313388</v>
       </c>
       <c r="M40" t="n">
-        <v>0.94907947084039</v>
+        <v>0.8994994696953728</v>
       </c>
       <c r="N40" t="n">
-        <v>0.9550102336343979</v>
+        <v>0.9461010378362843</v>
       </c>
       <c r="O40" t="n">
-        <v>0.9305746013576942</v>
+        <v>0.9251783094592413</v>
       </c>
       <c r="P40" t="n">
-        <v>1.251290886837513</v>
+        <v>1.301587231905884</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.969406786954056</v>
+        <v>1.294026563964665</v>
       </c>
       <c r="R40" t="n">
-        <v>0.9826560765026371</v>
+        <v>0.9011576400780329</v>
       </c>
       <c r="S40" t="n">
-        <v>0.5456985715169045</v>
+        <v>0.5560506390580198</v>
       </c>
       <c r="T40" t="n">
-        <v>1.45043990059682</v>
+        <v>1.203636308149857</v>
       </c>
       <c r="U40" t="n">
-        <v>1.007154339845229</v>
+        <v>1.034660410205914</v>
       </c>
       <c r="V40" t="n">
-        <v>1.121763937998426</v>
+        <v>1.027302860570705</v>
       </c>
       <c r="W40" t="n">
-        <v>1.162655226210666</v>
+        <v>1.058452154760816</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44384</v>
+        <v>44404</v>
       </c>
       <c r="B41" t="n">
-        <v>1.018936735084205</v>
+        <v>0.9870065608873239</v>
       </c>
       <c r="C41" t="n">
-        <v>1.025482772671178</v>
+        <v>1.011862602592015</v>
       </c>
       <c r="D41" t="n">
-        <v>1.08864005653352</v>
+        <v>1.045665829294486</v>
       </c>
       <c r="E41" t="n">
-        <v>1.048671039492546</v>
+        <v>1.038280936036492</v>
       </c>
       <c r="F41" t="n">
-        <v>1.016964107216578</v>
+        <v>0.9482654143871659</v>
       </c>
       <c r="G41" t="n">
-        <v>1.016531176283416</v>
+        <v>0.9966547358097362</v>
       </c>
       <c r="H41" t="n">
-        <v>1.010479895387377</v>
+        <v>0.9030368940087218</v>
       </c>
       <c r="I41" t="n">
-        <v>1.01926252096194</v>
+        <v>0.9941860364826018</v>
       </c>
       <c r="J41" t="n">
-        <v>1.012847238236092</v>
+        <v>0.9851992785415739</v>
       </c>
       <c r="K41" t="n">
-        <v>1.036961330740204</v>
+        <v>1.01089961618781</v>
       </c>
       <c r="L41" t="n">
-        <v>1.128424661804867</v>
+        <v>1.011845949718087</v>
       </c>
       <c r="M41" t="n">
-        <v>0.9494711758389358</v>
+        <v>0.8840970231626455</v>
       </c>
       <c r="N41" t="n">
-        <v>0.9586457676838009</v>
+        <v>0.9476763656783195</v>
       </c>
       <c r="O41" t="n">
-        <v>0.9272860236072861</v>
+        <v>0.9112881341682642</v>
       </c>
       <c r="P41" t="n">
-        <v>1.237521536666438</v>
+        <v>1.260634868542054</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.9855208095211709</v>
+        <v>1.277212357694704</v>
       </c>
       <c r="R41" t="n">
-        <v>0.974727441963862</v>
+        <v>0.9016028862618919</v>
       </c>
       <c r="S41" t="n">
-        <v>0.5368203716448725</v>
+        <v>0.5186241537368069</v>
       </c>
       <c r="T41" t="n">
-        <v>1.461583559813737</v>
+        <v>1.206818181818181</v>
       </c>
       <c r="U41" t="n">
-        <v>1.000692332749347</v>
+        <v>1.039812663526108</v>
       </c>
       <c r="V41" t="n">
-        <v>1.105207670182343</v>
+        <v>1.027027120857632</v>
       </c>
       <c r="W41" t="n">
-        <v>1.144317393570817</v>
+        <v>1.043560750631989</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44385</v>
+        <v>44405</v>
       </c>
       <c r="B42" t="n">
-        <v>1.001795371607832</v>
+        <v>0.9898986913908552</v>
       </c>
       <c r="C42" t="n">
-        <v>1.011308286101757</v>
+        <v>1.017590460573204</v>
       </c>
       <c r="D42" t="n">
-        <v>1.080824796107724</v>
+        <v>1.052940978982947</v>
       </c>
       <c r="E42" t="n">
-        <v>1.039693340575555</v>
+        <v>1.038087543874623</v>
       </c>
       <c r="F42" t="n">
-        <v>1.007407635170744</v>
+        <v>0.9625986067123066</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9989071995779358</v>
+        <v>0.9999448100396058</v>
       </c>
       <c r="H42" t="n">
-        <v>0.9886846720370922</v>
+        <v>0.9282719080463665</v>
       </c>
       <c r="I42" t="n">
-        <v>1.000330201208593</v>
+        <v>1.000969034990812</v>
       </c>
       <c r="J42" t="n">
-        <v>0.9994957096726033</v>
+        <v>0.9937300013104723</v>
       </c>
       <c r="K42" t="n">
-        <v>1.019188458830458</v>
+        <v>1.017347239351467</v>
       </c>
       <c r="L42" t="n">
-        <v>1.139944050313151</v>
+        <v>1.022281682697254</v>
       </c>
       <c r="M42" t="n">
-        <v>0.9404621850026512</v>
+        <v>0.8921833149367582</v>
       </c>
       <c r="N42" t="n">
-        <v>0.95802090620603</v>
+        <v>0.9524585802527376</v>
       </c>
       <c r="O42" t="n">
-        <v>0.9177856956276546</v>
+        <v>0.9249930675585407</v>
       </c>
       <c r="P42" t="n">
-        <v>1.270223784358641</v>
+        <v>1.258730093373795</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.9981317604640926</v>
+        <v>1.256415928251284</v>
       </c>
       <c r="R42" t="n">
-        <v>0.9613478357358867</v>
+        <v>0.9016028862618919</v>
       </c>
       <c r="S42" t="n">
-        <v>0.4941500344115621</v>
+        <v>0.5419711626006654</v>
       </c>
       <c r="T42" t="n">
-        <v>1.472727308525019</v>
+        <v>1.208181762695311</v>
       </c>
       <c r="U42" t="n">
-        <v>0.9949226584028105</v>
+        <v>1.034192015418881</v>
       </c>
       <c r="V42" t="n">
-        <v>1.115593016600938</v>
+        <v>1.030612263147635</v>
       </c>
       <c r="W42" t="n">
-        <v>1.136345666173389</v>
+        <v>1.063083283337211</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44386</v>
+        <v>44406</v>
       </c>
       <c r="B43" t="n">
-        <v>1.014790299830885</v>
+        <v>0.9986173792078793</v>
       </c>
       <c r="C43" t="n">
-        <v>1.022764019649312</v>
+        <v>1.019536605369902</v>
       </c>
       <c r="D43" t="n">
-        <v>1.09137633285183</v>
+        <v>1.054059332645994</v>
       </c>
       <c r="E43" t="n">
-        <v>1.051418947807718</v>
+        <v>1.0424538988908</v>
       </c>
       <c r="F43" t="n">
-        <v>1.029219905428254</v>
+        <v>0.9691184664223578</v>
       </c>
       <c r="G43" t="n">
-        <v>1.016221523139219</v>
+        <v>1.004447307353956</v>
       </c>
       <c r="H43" t="n">
-        <v>1.006227180185155</v>
+        <v>0.9328994585479934</v>
       </c>
       <c r="I43" t="n">
-        <v>1.010897059773221</v>
+        <v>1.010335907761208</v>
       </c>
       <c r="J43" t="n">
-        <v>0.9996878109676358</v>
+        <v>0.9981313920037913</v>
       </c>
       <c r="K43" t="n">
-        <v>1.033501148819098</v>
+        <v>1.022413249894883</v>
       </c>
       <c r="L43" t="n">
-        <v>1.16516190789501</v>
+        <v>1.039627660604611</v>
       </c>
       <c r="M43" t="n">
-        <v>0.9475127255562964</v>
+        <v>0.9133615687527959</v>
       </c>
       <c r="N43" t="n">
-        <v>0.9612020743424805</v>
+        <v>0.9630358550626272</v>
       </c>
       <c r="O43" t="n">
-        <v>0.9387046769923343</v>
+        <v>0.9213816276348135</v>
       </c>
       <c r="P43" t="n">
-        <v>1.265060237008588</v>
+        <v>1.28888883170207</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.9862213882112849</v>
+        <v>1.22323008810347</v>
       </c>
       <c r="R43" t="n">
-        <v>0.9479682295079115</v>
+        <v>0.9105076400950174</v>
       </c>
       <c r="S43" t="n">
-        <v>0.4834824501032345</v>
+        <v>0.5541793365474962</v>
       </c>
       <c r="T43" t="n">
-        <v>1.487390065123259</v>
+        <v>1.203181873668323</v>
       </c>
       <c r="U43" t="n">
-        <v>0.9926147358412497</v>
+        <v>1.026932030225624</v>
       </c>
       <c r="V43" t="n">
-        <v>1.137116199211247</v>
+        <v>1.048676317872237</v>
       </c>
       <c r="W43" t="n">
-        <v>1.14475194256084</v>
+        <v>1.066455199145123</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44388</v>
+        <v>44407</v>
       </c>
       <c r="B44" t="n">
-        <v>1.015039655066013</v>
+        <v>0.9921135987860542</v>
       </c>
       <c r="C44" t="n">
-        <v>1.022464895780116</v>
+        <v>1.015038391610845</v>
       </c>
       <c r="D44" t="n">
-        <v>1.092538842509809</v>
+        <v>1.046528833896202</v>
       </c>
       <c r="E44" t="n">
-        <v>1.053233262849743</v>
+        <v>1.036818343021946</v>
       </c>
       <c r="F44" t="n">
-        <v>1.029630705995076</v>
+        <v>0.9631567245328374</v>
       </c>
       <c r="G44" t="n">
-        <v>1.019543952717642</v>
+        <v>0.9982769443501442</v>
       </c>
       <c r="H44" t="n">
-        <v>1.006834704306741</v>
+        <v>0.9238611360606471</v>
       </c>
       <c r="I44" t="n">
-        <v>1.013868996617453</v>
+        <v>1.003014711638367</v>
       </c>
       <c r="J44" t="n">
-        <v>0.9994756787644236</v>
+        <v>1.001204335608189</v>
       </c>
       <c r="K44" t="n">
-        <v>1.036410845548256</v>
+        <v>1.017500743731283</v>
       </c>
       <c r="L44" t="n">
-        <v>1.161581591115983</v>
+        <v>1.044281472676419</v>
       </c>
       <c r="M44" t="n">
-        <v>0.9492753606947075</v>
+        <v>0.9098960256273632</v>
       </c>
       <c r="N44" t="n">
-        <v>0.960605599899523</v>
+        <v>0.9554405427918706</v>
       </c>
       <c r="O44" t="n">
-        <v>0.9487530780323906</v>
+        <v>0.9075840732941867</v>
       </c>
       <c r="P44" t="n">
-        <v>1.27796902331192</v>
+        <v>1.242857093119027</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.000583830422897</v>
+        <v>1.114822976528894</v>
       </c>
       <c r="R44" t="n">
-        <v>0.9625866671606742</v>
+        <v>0.8958148557157787</v>
       </c>
       <c r="S44" t="n">
-        <v>0.4774604267033721</v>
+        <v>0.5535555509143741</v>
       </c>
       <c r="T44" t="n">
-        <v>1.488563067752245</v>
+        <v>1.207272755015979</v>
       </c>
       <c r="U44" t="n">
-        <v>0.9921531953480595</v>
+        <v>1.026932030225624</v>
       </c>
       <c r="V44" t="n">
-        <v>1.134181224983993</v>
+        <v>1.052537305079324</v>
       </c>
       <c r="W44" t="n">
-        <v>1.146401664014313</v>
+        <v>1.057704828589163</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44389</v>
+        <v>44409</v>
       </c>
       <c r="B45" t="n">
-        <v>1.01528901030114</v>
+        <v>0.9955982908985646</v>
       </c>
       <c r="C45" t="n">
-        <v>1.022165771910921</v>
+        <v>1.020786118790509</v>
       </c>
       <c r="D45" t="n">
-        <v>1.093701352167788</v>
+        <v>1.04682806454745</v>
       </c>
       <c r="E45" t="n">
-        <v>1.055047577891769</v>
+        <v>1.035863015689875</v>
       </c>
       <c r="F45" t="n">
-        <v>1.030041506561898</v>
+        <v>0.9608313040300349</v>
       </c>
       <c r="G45" t="n">
-        <v>1.022866382296064</v>
+        <v>0.9990585408062965</v>
       </c>
       <c r="H45" t="n">
-        <v>1.007442228428328</v>
+        <v>0.9272234096789135</v>
       </c>
       <c r="I45" t="n">
-        <v>1.016840933461685</v>
+        <v>1.004952658406252</v>
       </c>
       <c r="J45" t="n">
-        <v>0.9992635465612112</v>
+        <v>1.003805157381514</v>
       </c>
       <c r="K45" t="n">
-        <v>1.039320542277414</v>
+        <v>1.020954848483785</v>
       </c>
       <c r="L45" t="n">
-        <v>1.158001274336955</v>
+        <v>1.025313750898937</v>
       </c>
       <c r="M45" t="n">
-        <v>0.9510379958331188</v>
+        <v>0.9079707565329264</v>
       </c>
       <c r="N45" t="n">
-        <v>0.9600091254565655</v>
+        <v>0.9548497733888752</v>
       </c>
       <c r="O45" t="n">
-        <v>0.9588014790724471</v>
+        <v>0.9095749998322085</v>
       </c>
       <c r="P45" t="n">
-        <v>1.290877809615253</v>
+        <v>1.246031693169981</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.014946272634509</v>
+        <v>1.094137147985523</v>
       </c>
       <c r="R45" t="n">
-        <v>0.9772051048134369</v>
+        <v>0.906723132454243</v>
       </c>
       <c r="S45" t="n">
-        <v>0.4714384033035098</v>
+        <v>0.5599715035099293</v>
       </c>
       <c r="T45" t="n">
-        <v>1.489736070381232</v>
+        <v>1.23931822343306</v>
       </c>
       <c r="U45" t="n">
-        <v>0.9916916548548692</v>
+        <v>1.026229482713659</v>
       </c>
       <c r="V45" t="n">
-        <v>1.131246250756739</v>
+        <v>1.028819692002634</v>
       </c>
       <c r="W45" t="n">
-        <v>1.148019155291555</v>
+        <v>1.053824268136016</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44390</v>
+        <v>44410</v>
       </c>
       <c r="B46" t="n">
-        <v>1.015189309951827</v>
+        <v>0.999082983011075</v>
       </c>
       <c r="C46" t="n">
-        <v>1.023545290562587</v>
+        <v>1.026533845970173</v>
       </c>
       <c r="D46" t="n">
-        <v>1.089574718358185</v>
+        <v>1.047127295198699</v>
       </c>
       <c r="E46" t="n">
-        <v>1.05133717321445</v>
+        <v>1.034907688357803</v>
       </c>
       <c r="F46" t="n">
-        <v>1.010648854398172</v>
+        <v>0.9585058835272324</v>
       </c>
       <c r="G46" t="n">
-        <v>1.022810018465323</v>
+        <v>0.9998401372624489</v>
       </c>
       <c r="H46" t="n">
-        <v>1.008809215640795</v>
+        <v>0.9305856832971798</v>
       </c>
       <c r="I46" t="n">
-        <v>1.021794203524369</v>
+        <v>1.006890605174138</v>
       </c>
       <c r="J46" t="n">
-        <v>0.9998638875361243</v>
+        <v>1.006405979154839</v>
       </c>
       <c r="K46" t="n">
-        <v>1.040736129198126</v>
+        <v>1.024408953236286</v>
       </c>
       <c r="L46" t="n">
-        <v>1.175902917614056</v>
+        <v>1.006346029121455</v>
       </c>
       <c r="M46" t="n">
-        <v>0.9432040452823821</v>
+        <v>0.9060454874384896</v>
       </c>
       <c r="N46" t="n">
-        <v>0.9612588484121074</v>
+        <v>0.9542590039858799</v>
       </c>
       <c r="O46" t="n">
-        <v>0.9454645002819824</v>
+        <v>0.9115659263702303</v>
       </c>
       <c r="P46" t="n">
-        <v>1.271944912094125</v>
+        <v>1.249206293220934</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.00140124646704</v>
+        <v>1.073451319442153</v>
       </c>
       <c r="R46" t="n">
-        <v>0.9905847110414121</v>
+        <v>0.9176314091927072</v>
       </c>
       <c r="S46" t="n">
-        <v>0.4122505161734341</v>
+        <v>0.5663874561054845</v>
       </c>
       <c r="T46" t="n">
-        <v>1.542521994134898</v>
+        <v>1.271363691850141</v>
       </c>
       <c r="U46" t="n">
-        <v>1.001846250011005</v>
+        <v>1.025526935201695</v>
       </c>
       <c r="V46" t="n">
-        <v>1.151264224158126</v>
+        <v>1.005102078925943</v>
       </c>
       <c r="W46" t="n">
-        <v>1.136925952072146</v>
+        <v>1.049812791410868</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44391</v>
+        <v>44411</v>
       </c>
       <c r="B47" t="n">
-        <v>1.010415938307956</v>
+        <v>1.002468891893258</v>
       </c>
       <c r="C47" t="n">
-        <v>1.015652187257733</v>
+        <v>1.030116521618639</v>
       </c>
       <c r="D47" t="n">
-        <v>1.087147265383788</v>
+        <v>1.052848966950755</v>
       </c>
       <c r="E47" t="n">
-        <v>1.052561912237767</v>
+        <v>1.04339747756265</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9941723076665359</v>
+        <v>0.9620016192176736</v>
       </c>
       <c r="G47" t="n">
-        <v>1.022767318593549</v>
+        <v>0.9989634949142766</v>
       </c>
       <c r="H47" t="n">
-        <v>1.013061930843017</v>
+        <v>0.9347795002372558</v>
       </c>
       <c r="I47" t="n">
-        <v>1.021684108462195</v>
+        <v>1.008290313256146</v>
       </c>
       <c r="J47" t="n">
-        <v>0.9943807928409342</v>
+        <v>1.007270217069074</v>
       </c>
       <c r="K47" t="n">
-        <v>1.039006000738581</v>
+        <v>1.026865242919035</v>
       </c>
       <c r="L47" t="n">
-        <v>1.142901628431609</v>
+        <v>0.996474404356384</v>
       </c>
       <c r="M47" t="n">
-        <v>0.9529964461157582</v>
+        <v>0.9118213681661081</v>
       </c>
       <c r="N47" t="n">
-        <v>0.9715973631521727</v>
+        <v>0.9535838880104159</v>
       </c>
       <c r="O47" t="n">
-        <v>0.964191119711033</v>
+        <v>0.9075840732941868</v>
       </c>
       <c r="P47" t="n">
-        <v>1.259896771730335</v>
+        <v>1.277777769367951</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.028257802267545</v>
+        <v>1.092035393300767</v>
       </c>
       <c r="R47" t="n">
-        <v>1.015361717604279</v>
+        <v>0.9118432937245678</v>
       </c>
       <c r="S47" t="n">
-        <v>0.3588437883097469</v>
+        <v>0.5404562701741811</v>
       </c>
       <c r="T47" t="n">
-        <v>1.5407625349386</v>
+        <v>1.273636419122868</v>
       </c>
       <c r="U47" t="n">
-        <v>0.9990768309753759</v>
+        <v>1.03395786269395</v>
       </c>
       <c r="V47" t="n">
-        <v>1.125225758415071</v>
+        <v>0.9984832737720831</v>
       </c>
       <c r="W47" t="n">
-        <v>1.114399230522255</v>
+        <v>1.069072948233634</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44392</v>
+        <v>44412</v>
       </c>
       <c r="B48" t="n">
-        <v>0.9991308049797855</v>
+        <v>1.005036498130351</v>
       </c>
       <c r="C48" t="n">
-        <v>1.004549246356953</v>
+        <v>1.032681894305195</v>
       </c>
       <c r="D48" t="n">
-        <v>1.079588777794645</v>
+        <v>1.054221276608786</v>
       </c>
       <c r="E48" t="n">
-        <v>1.049128201766119</v>
+        <v>1.038564055711225</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9887237310808566</v>
+        <v>0.9502079474752401</v>
       </c>
       <c r="G48" t="n">
-        <v>1.012446980992548</v>
+        <v>1.007764976564022</v>
       </c>
       <c r="H48" t="n">
-        <v>1.015492027329361</v>
+        <v>0.9397685836383765</v>
       </c>
       <c r="I48" t="n">
-        <v>1.014309334877183</v>
+        <v>1.014104276773544</v>
       </c>
       <c r="J48" t="n">
-        <v>0.9772270070579152</v>
+        <v>1.007422315908507</v>
       </c>
       <c r="K48" t="n">
-        <v>1.028939921516112</v>
+        <v>1.033159361702876</v>
       </c>
       <c r="L48" t="n">
-        <v>1.1198630889429</v>
+        <v>0.9624876107074484</v>
       </c>
       <c r="M48" t="n">
-        <v>0.9549548963983977</v>
+        <v>0.9064305559462384</v>
       </c>
       <c r="N48" t="n">
-        <v>0.9717678587169911</v>
+        <v>0.9538088980525945</v>
       </c>
       <c r="O48" t="n">
-        <v>0.9719557900740798</v>
+        <v>0.8847115733445242</v>
       </c>
       <c r="P48" t="n">
-        <v>1.244406211751976</v>
+        <v>1.320634832211605</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.030289605190412</v>
+        <v>1.082964600369536</v>
       </c>
       <c r="R48" t="n">
-        <v>1.011397400334892</v>
+        <v>0.9047195246268779</v>
       </c>
       <c r="S48" t="n">
-        <v>0.337715080665541</v>
+        <v>0.5030297848529682</v>
       </c>
       <c r="T48" t="n">
-        <v>1.547214004650843</v>
+        <v>1.282727328213777</v>
       </c>
       <c r="U48" t="n">
-        <v>1.003000167272664</v>
+        <v>1.030210793734855</v>
       </c>
       <c r="V48" t="n">
-        <v>1.105809730899644</v>
+        <v>0.9704909061126799</v>
       </c>
       <c r="W48" t="n">
-        <v>1.100856212797632</v>
+        <v>1.086664847086568</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44393</v>
+        <v>44413</v>
       </c>
       <c r="B49" t="n">
-        <v>0.9985751129421281</v>
+        <v>1.004542719751699</v>
       </c>
       <c r="C49" t="n">
-        <v>1.003017920488768</v>
+        <v>1.039688032850869</v>
       </c>
       <c r="D49" t="n">
-        <v>1.070985872854385</v>
+        <v>1.062394396864263</v>
       </c>
       <c r="E49" t="n">
-        <v>1.041218977204274</v>
+        <v>1.044801096910206</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9765130079682635</v>
+        <v>0.9673792597545188</v>
       </c>
       <c r="G49" t="n">
-        <v>1.006659092447437</v>
+        <v>1.011139152767629</v>
       </c>
       <c r="H49" t="n">
-        <v>1.007062520058446</v>
+        <v>0.9378886302139819</v>
       </c>
       <c r="I49" t="n">
-        <v>1.006604276105651</v>
+        <v>1.017872563643387</v>
       </c>
       <c r="J49" t="n">
-        <v>0.9777473221118559</v>
+        <v>1.00519758953134</v>
       </c>
       <c r="K49" t="n">
-        <v>1.025951551903255</v>
+        <v>1.03684375962605</v>
       </c>
       <c r="L49" t="n">
-        <v>1.122509386804021</v>
+        <v>0.9757438847570934</v>
       </c>
       <c r="M49" t="n">
-        <v>0.9310614891678208</v>
+        <v>0.8971890586488789</v>
       </c>
       <c r="N49" t="n">
-        <v>0.9623381624808</v>
+        <v>0.9500393574413725</v>
       </c>
       <c r="O49" t="n">
-        <v>0.9364209463153246</v>
+        <v>0.8707287771031968</v>
       </c>
       <c r="P49" t="n">
-        <v>1.265060237008588</v>
+        <v>1.314285632109698</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.055581529310541</v>
+        <v>1.095132724877877</v>
       </c>
       <c r="R49" t="n">
-        <v>1.001982111376304</v>
+        <v>0.9118432937245676</v>
       </c>
       <c r="S49" t="n">
-        <v>0.3691672569952252</v>
+        <v>0.4659597640046372</v>
       </c>
       <c r="T49" t="n">
-        <v>1.556011658609788</v>
+        <v>1.287272782759232</v>
       </c>
       <c r="U49" t="n">
-        <v>1.0043849208096</v>
+        <v>1.036533900016875</v>
       </c>
       <c r="V49" t="n">
-        <v>1.107615798220207</v>
+        <v>0.9830392197397237</v>
       </c>
       <c r="W49" t="n">
-        <v>1.094686942159582</v>
+        <v>1.100156508993687</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44395</v>
+        <v>44414</v>
       </c>
       <c r="B50" t="n">
-        <v>0.9869123984585338</v>
+        <v>1.004909540324568</v>
       </c>
       <c r="C50" t="n">
-        <v>0.9912743112804793</v>
+        <v>1.037480910451596</v>
       </c>
       <c r="D50" t="n">
-        <v>1.065334478154518</v>
+        <v>1.058160519970372</v>
       </c>
       <c r="E50" t="n">
-        <v>1.032957158455076</v>
+        <v>1.046551416917218</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9691640034887464</v>
+        <v>0.9724627371327381</v>
       </c>
       <c r="G50" t="n">
-        <v>0.9934733720436666</v>
+        <v>1.012216799460192</v>
       </c>
       <c r="H50" t="n">
-        <v>0.9987468974878244</v>
+        <v>0.9297903285712669</v>
       </c>
       <c r="I50" t="n">
-        <v>0.9933957238943485</v>
+        <v>1.020025846956871</v>
       </c>
       <c r="J50" t="n">
-        <v>0.9688142699017334</v>
+        <v>1.009623011255167</v>
       </c>
       <c r="K50" t="n">
-        <v>1.014627269026464</v>
+        <v>1.036690182044337</v>
       </c>
       <c r="L50" t="n">
-        <v>1.082425313818836</v>
+        <v>0.9643208817087786</v>
       </c>
       <c r="M50" t="n">
-        <v>0.9216607933329906</v>
+        <v>0.8671544494875387</v>
       </c>
       <c r="N50" t="n">
-        <v>0.9629062065499597</v>
+        <v>0.9262968060163619</v>
       </c>
       <c r="O50" t="n">
-        <v>0.925047942454002</v>
+        <v>0.847763726852269</v>
       </c>
       <c r="P50" t="n">
-        <v>1.283132529626074</v>
+        <v>1.314285632109698</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.041452628176769</v>
+        <v>1.096460188866333</v>
       </c>
       <c r="R50" t="n">
-        <v>1.005203148694175</v>
+        <v>0.9225289473711025</v>
       </c>
       <c r="S50" t="n">
-        <v>0.3745698554714382</v>
+        <v>0.4915344854630587</v>
       </c>
       <c r="T50" t="n">
-        <v>1.559237482960273</v>
+        <v>1.306818181818181</v>
       </c>
       <c r="U50" t="n">
-        <v>0.9958457834083129</v>
+        <v>1.022248261029634</v>
       </c>
       <c r="V50" t="n">
-        <v>1.070213680454696</v>
+        <v>0.9749034779499237</v>
       </c>
       <c r="W50" t="n">
-        <v>1.097732325617271</v>
+        <v>1.084335468293291</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44396</v>
+        <v>44416</v>
       </c>
       <c r="B51" t="n">
-        <v>0.9752496839749396</v>
+        <v>1.005565546393192</v>
       </c>
       <c r="C51" t="n">
-        <v>0.9795307020721901</v>
+        <v>1.037419013578956</v>
       </c>
       <c r="D51" t="n">
-        <v>1.059683083454652</v>
+        <v>1.059031395396946</v>
       </c>
       <c r="E51" t="n">
-        <v>1.024695339705877</v>
+        <v>1.046059585749151</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9618149990092294</v>
+        <v>0.9696614271824712</v>
       </c>
       <c r="G51" t="n">
-        <v>0.9802876516398966</v>
+        <v>1.011701745426399</v>
       </c>
       <c r="H51" t="n">
-        <v>0.9904312749172025</v>
+        <v>0.9314533710824519</v>
       </c>
       <c r="I51" t="n">
-        <v>0.9801871716830459</v>
+        <v>1.020779504330839</v>
       </c>
       <c r="J51" t="n">
-        <v>0.9598812176916108</v>
+        <v>1.01062332732183</v>
       </c>
       <c r="K51" t="n">
-        <v>1.003302986149674</v>
+        <v>1.037534529335222</v>
       </c>
       <c r="L51" t="n">
-        <v>1.042341240833651</v>
+        <v>0.9516287696695495</v>
       </c>
       <c r="M51" t="n">
-        <v>0.9122600974981603</v>
+        <v>0.852329642438589</v>
       </c>
       <c r="N51" t="n">
-        <v>0.9634742506191194</v>
+        <v>0.9180825658939894</v>
       </c>
       <c r="O51" t="n">
-        <v>0.9136749385926796</v>
+        <v>0.8470692110228116</v>
       </c>
       <c r="P51" t="n">
-        <v>1.301204822243559</v>
+        <v>1.301587231905884</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.027323727042997</v>
+        <v>1.10342918491483</v>
       </c>
       <c r="R51" t="n">
-        <v>1.008424186012046</v>
+        <v>0.9218611205563273</v>
       </c>
       <c r="S51" t="n">
-        <v>0.3799724539476512</v>
+        <v>0.481955087434415</v>
       </c>
       <c r="T51" t="n">
-        <v>1.562463307310759</v>
+        <v>1.311136349764736</v>
       </c>
       <c r="U51" t="n">
-        <v>0.9873066460070258</v>
+        <v>1.023770477084613</v>
       </c>
       <c r="V51" t="n">
-        <v>1.032811562689185</v>
+        <v>0.9634583861851991</v>
       </c>
       <c r="W51" t="n">
-        <v>1.10038098241469</v>
+        <v>1.089657482534802</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44397</v>
+        <v>44417</v>
       </c>
       <c r="B52" t="n">
-        <v>0.980479047307155</v>
+        <v>1.006221552461817</v>
       </c>
       <c r="C52" t="n">
-        <v>0.9875041123537328</v>
+        <v>1.037357116706316</v>
       </c>
       <c r="D52" t="n">
-        <v>1.076303941325305</v>
+        <v>1.05990227082352</v>
       </c>
       <c r="E52" t="n">
-        <v>1.040232394934628</v>
+        <v>1.045567754581084</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9905338985684634</v>
+        <v>0.9668601172322043</v>
       </c>
       <c r="G52" t="n">
-        <v>0.9856686578513045</v>
+        <v>1.011186691392605</v>
       </c>
       <c r="H52" t="n">
-        <v>0.9932411724756665</v>
+        <v>0.9331164135936368</v>
       </c>
       <c r="I52" t="n">
-        <v>0.9858007601849897</v>
+        <v>1.021533161704808</v>
       </c>
       <c r="J52" t="n">
-        <v>0.9571195905799622</v>
+        <v>1.011623643388494</v>
       </c>
       <c r="K52" t="n">
-        <v>1.007077709609612</v>
+        <v>1.038378876626108</v>
       </c>
       <c r="L52" t="n">
-        <v>1.042341240833651</v>
+        <v>0.9389366576303203</v>
       </c>
       <c r="M52" t="n">
-        <v>0.9063845972300631</v>
+        <v>0.8375048353896393</v>
       </c>
       <c r="N52" t="n">
-        <v>0.9622245276635775</v>
+        <v>0.9098683257716168</v>
       </c>
       <c r="O52" t="n">
-        <v>0.9104777295836519</v>
+        <v>0.8463746951933543</v>
       </c>
       <c r="P52" t="n">
-        <v>1.333907069935762</v>
+        <v>1.28888883170207</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.082204588576613</v>
+        <v>1.110398180963327</v>
       </c>
       <c r="R52" t="n">
-        <v>1.028245772358984</v>
+        <v>0.9211932937415521</v>
       </c>
       <c r="S52" t="n">
-        <v>0.3730213351686165</v>
+        <v>0.4723756894057712</v>
       </c>
       <c r="T52" t="n">
-        <v>1.550733102032167</v>
+        <v>1.315454517711291</v>
       </c>
       <c r="U52" t="n">
-        <v>0.990768485830245</v>
+        <v>1.025292693139593</v>
       </c>
       <c r="V52" t="n">
-        <v>1.04379885499374</v>
+        <v>0.9520132944204743</v>
       </c>
       <c r="W52" t="n">
-        <v>1.112185467637397</v>
+        <v>1.094738719973105</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44398</v>
+        <v>44418</v>
       </c>
       <c r="B53" t="n">
-        <v>0.9971786818806757</v>
+        <v>1.010270562721358</v>
       </c>
       <c r="C53" t="n">
-        <v>1.006366224402805</v>
+        <v>1.042607250045915</v>
       </c>
       <c r="D53" t="n">
-        <v>1.086182228680932</v>
+        <v>1.054760462938235</v>
       </c>
       <c r="E53" t="n">
-        <v>1.048805803082314</v>
+        <v>1.046605668083532</v>
       </c>
       <c r="F53" t="n">
-        <v>1.00847301654686</v>
+        <v>0.9688286338524228</v>
       </c>
       <c r="G53" t="n">
-        <v>0.9990277081049418</v>
+        <v>1.012811471283441</v>
       </c>
       <c r="H53" t="n">
-        <v>0.9999239841642322</v>
+        <v>0.9347795002372558</v>
       </c>
       <c r="I53" t="n">
-        <v>0.9979086976862651</v>
+        <v>1.022394507887199</v>
       </c>
       <c r="J53" t="n">
-        <v>0.9705592551394424</v>
+        <v>1.012623959455157</v>
       </c>
       <c r="K53" t="n">
-        <v>1.024693310749942</v>
+        <v>1.041909770169466</v>
       </c>
       <c r="L53" t="n">
-        <v>1.09589047115432</v>
+        <v>0.9644619356604626</v>
       </c>
       <c r="M53" t="n">
-        <v>0.9173521130590766</v>
+        <v>0.8324990916775187</v>
       </c>
       <c r="N53" t="n">
-        <v>0.9586457676838012</v>
+        <v>0.9101496527110364</v>
       </c>
       <c r="O53" t="n">
-        <v>0.922627193511886</v>
+        <v>0.8606352836366477</v>
       </c>
       <c r="P53" t="n">
-        <v>1.363166980085196</v>
+        <v>1.298412707543366</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.165576837999018</v>
+        <v>1.123893769460124</v>
       </c>
       <c r="R53" t="n">
-        <v>1.030723435208559</v>
+        <v>0.9176314091927072</v>
       </c>
       <c r="S53" t="n">
-        <v>0.4019270474879558</v>
+        <v>0.4500980467661371</v>
       </c>
       <c r="T53" t="n">
-        <v>1.558357842856488</v>
+        <v>1.328181873668322</v>
       </c>
       <c r="U53" t="n">
-        <v>0.987999066794616</v>
+        <v>1.033489467906916</v>
       </c>
       <c r="V53" t="n">
-        <v>1.087146307988679</v>
+        <v>0.973938231148152</v>
       </c>
       <c r="W53" t="n">
-        <v>1.135002034157516</v>
+        <v>1.074610362574395</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>44399</v>
+        <v>44419</v>
       </c>
       <c r="B54" t="n">
-        <v>0.99290402070706</v>
+        <v>1.018608377121032</v>
       </c>
       <c r="C54" t="n">
-        <v>1.012406599541892</v>
+        <v>1.05077668696838</v>
       </c>
       <c r="D54" t="n">
-        <v>1.090090583831257</v>
+        <v>1.053123540327668</v>
       </c>
       <c r="E54" t="n">
-        <v>1.05092089823751</v>
+        <v>1.047940868762743</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9928721831093796</v>
+        <v>0.9685560180131362</v>
       </c>
       <c r="G54" t="n">
-        <v>1.00498981212689</v>
+        <v>1.016368025219805</v>
       </c>
       <c r="H54" t="n">
-        <v>1.002202234383519</v>
+        <v>0.9370209865611441</v>
       </c>
       <c r="I54" t="n">
-        <v>1.013428742335649</v>
+        <v>1.026162794757041</v>
       </c>
       <c r="J54" t="n">
-        <v>0.9830303031487415</v>
+        <v>1.014736638710404</v>
       </c>
       <c r="K54" t="n">
-        <v>1.03051277920624</v>
+        <v>1.046515194371536</v>
       </c>
       <c r="L54" t="n">
-        <v>1.120952747989475</v>
+        <v>0.9780002100208351</v>
       </c>
       <c r="M54" t="n">
-        <v>0.9228358336185385</v>
+        <v>0.8409703785150721</v>
       </c>
       <c r="N54" t="n">
-        <v>0.960520352117114</v>
+        <v>0.9226960443990058</v>
       </c>
       <c r="O54" t="n">
-        <v>0.931853484961305</v>
+        <v>0.8848041942948746</v>
       </c>
       <c r="P54" t="n">
-        <v>1.378657540063555</v>
+        <v>1.28888883170207</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.280242879157482</v>
+        <v>1.152876100238426</v>
       </c>
       <c r="R54" t="n">
-        <v>1.018830483400396</v>
+        <v>0.9234194397388203</v>
       </c>
       <c r="S54" t="n">
-        <v>0.4452856159669647</v>
+        <v>0.4401176398027118</v>
       </c>
       <c r="T54" t="n">
-        <v>1.550733102032166</v>
+        <v>1.34636369185014</v>
       </c>
       <c r="U54" t="n">
-        <v>1.001153917261659</v>
+        <v>1.027166272287725</v>
       </c>
       <c r="V54" t="n">
-        <v>1.110626101806711</v>
+        <v>0.9851076358018095</v>
       </c>
       <c r="W54" t="n">
-        <v>1.138618336182525</v>
+        <v>1.069853662816787</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>44400</v>
+        <v>44420</v>
       </c>
       <c r="B55" t="n">
-        <v>1.001353642704978</v>
+        <v>1.01481335135955</v>
       </c>
       <c r="C55" t="n">
-        <v>1.021607721258582</v>
+        <v>1.050334381332767</v>
       </c>
       <c r="D55" t="n">
-        <v>1.101403087392512</v>
+        <v>1.05676968252993</v>
       </c>
       <c r="E55" t="n">
-        <v>1.061582965788259</v>
+        <v>1.052286030117344</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9974630103156956</v>
+        <v>0.9708663342675783</v>
       </c>
       <c r="G55" t="n">
-        <v>1.015014097283592</v>
+        <v>1.023523529016655</v>
       </c>
       <c r="H55" t="n">
-        <v>0.9870899154240389</v>
+        <v>0.9283441969732916</v>
       </c>
       <c r="I55" t="n">
-        <v>1.024656003317464</v>
+        <v>1.034237730396344</v>
       </c>
       <c r="J55" t="n">
-        <v>0.9865923848936077</v>
+        <v>1.017009329461471</v>
       </c>
       <c r="K55" t="n">
-        <v>1.041994370351438</v>
+        <v>1.048050384573491</v>
       </c>
       <c r="L55" t="n">
-        <v>1.123443346339962</v>
+        <v>0.9757438847570934</v>
       </c>
       <c r="M55" t="n">
-        <v>0.9146102527793455</v>
+        <v>0.8278783430288388</v>
       </c>
       <c r="N55" t="n">
-        <v>0.9575096795454817</v>
+        <v>0.9229210544411842</v>
       </c>
       <c r="O55" t="n">
-        <v>0.906549710031438</v>
+        <v>0.8835077835863101</v>
       </c>
       <c r="P55" t="n">
-        <v>1.397590355512882</v>
+        <v>1.249206293220934</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.255721645048565</v>
+        <v>1.161504405173505</v>
       </c>
       <c r="R55" t="n">
-        <v>0.9915758139879537</v>
+        <v>0.9407836162991862</v>
       </c>
       <c r="S55" t="n">
-        <v>0.4363386097728835</v>
+        <v>0.4459098339595662</v>
       </c>
       <c r="T55" t="n">
-        <v>1.553665653351814</v>
+        <v>1.354090881347654</v>
       </c>
       <c r="U55" t="n">
-        <v>1.004846505321912</v>
+        <v>1.026463724775761</v>
       </c>
       <c r="V55" t="n">
-        <v>1.115291928826617</v>
+        <v>0.9833149594527969</v>
       </c>
       <c r="W55" t="n">
-        <v>1.143467911304195</v>
+        <v>1.079523976357281</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>44402</v>
+        <v>44421</v>
       </c>
       <c r="B56" t="n">
-        <v>1.0011968912137</v>
+        <v>1.01841087954687</v>
       </c>
       <c r="C56" t="n">
-        <v>1.022719331999418</v>
+        <v>1.052178761278146</v>
       </c>
       <c r="D56" t="n">
-        <v>1.101541151725489</v>
+        <v>1.057243325087773</v>
       </c>
       <c r="E56" t="n">
-        <v>1.062847417185894</v>
+        <v>1.053977376457366</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9991038982135935</v>
+        <v>0.9617982927974384</v>
       </c>
       <c r="G56" t="n">
-        <v>1.013384638547167</v>
+        <v>1.026087917983203</v>
       </c>
       <c r="H56" t="n">
-        <v>0.9777870603619497</v>
+        <v>0.9257411777499095</v>
       </c>
       <c r="I56" t="n">
-        <v>1.024766098379637</v>
+        <v>1.035422060861508</v>
       </c>
       <c r="J56" t="n">
-        <v>0.9862108205207177</v>
+        <v>1.013328185873573</v>
       </c>
       <c r="K56" t="n">
-        <v>1.041365249774782</v>
+        <v>1.050506601054342</v>
       </c>
       <c r="L56" t="n">
-        <v>1.122198047164719</v>
+        <v>0.9665773145651609</v>
       </c>
       <c r="M56" t="n">
-        <v>0.9148061052786184</v>
+        <v>0.8459761222271927</v>
       </c>
       <c r="N56" t="n">
-        <v>0.9563735914071624</v>
+        <v>0.9361426479535463</v>
       </c>
       <c r="O56" t="n">
-        <v>0.9096099356223241</v>
+        <v>0.889063839572884</v>
       </c>
       <c r="P56" t="n">
-        <v>1.404475030598419</v>
+        <v>1.225396754994565</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.310836092203426</v>
+        <v>1.132300872595105</v>
       </c>
       <c r="R56" t="n">
-        <v>0.9972745141553996</v>
+        <v>0.9403384550373536</v>
       </c>
       <c r="S56" t="n">
-        <v>0.4328974535443907</v>
+        <v>0.4412760949507354</v>
       </c>
       <c r="T56" t="n">
-        <v>1.553372380320977</v>
+        <v>1.360454489968038</v>
       </c>
       <c r="U56" t="n">
-        <v>1.012231681442419</v>
+        <v>1.032318525607919</v>
       </c>
       <c r="V56" t="n">
-        <v>1.118302174997451</v>
+        <v>0.9733866465179953</v>
       </c>
       <c r="W56" t="n">
-        <v>1.140790740792096</v>
+        <v>1.078372749853306</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>44403</v>
+        <v>44423</v>
       </c>
       <c r="B57" t="n">
-        <v>1.001040139722421</v>
+        <v>1.013846942755462</v>
       </c>
       <c r="C57" t="n">
-        <v>1.023830942740253</v>
+        <v>1.050502405641609</v>
       </c>
       <c r="D57" t="n">
-        <v>1.101679216058466</v>
+        <v>1.056204097593212</v>
       </c>
       <c r="E57" t="n">
-        <v>1.064111868583529</v>
+        <v>1.054560029376257</v>
       </c>
       <c r="F57" t="n">
-        <v>1.000744786111491</v>
+        <v>0.9588498484558015</v>
       </c>
       <c r="G57" t="n">
-        <v>1.011755179810741</v>
+        <v>1.024427484123636</v>
       </c>
       <c r="H57" t="n">
-        <v>0.9684842052998606</v>
+        <v>0.9221619932184335</v>
       </c>
       <c r="I57" t="n">
-        <v>1.024876193441811</v>
+        <v>1.031384593041857</v>
       </c>
       <c r="J57" t="n">
-        <v>0.9858292561478278</v>
+        <v>1.010879414096123</v>
       </c>
       <c r="K57" t="n">
-        <v>1.040736129198126</v>
+        <v>1.047896843592726</v>
       </c>
       <c r="L57" t="n">
-        <v>1.120952747989475</v>
+        <v>0.9584684338255777</v>
       </c>
       <c r="M57" t="n">
-        <v>0.9150019577778912</v>
+        <v>0.8484790308054071</v>
       </c>
       <c r="N57" t="n">
-        <v>0.955237503268843</v>
+        <v>0.9384775241924428</v>
       </c>
       <c r="O57" t="n">
-        <v>0.91267016121321</v>
+        <v>0.8872581196110204</v>
       </c>
       <c r="P57" t="n">
-        <v>1.411359705683956</v>
+        <v>1.238888824133227</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.365950539358287</v>
+        <v>1.134955716176063</v>
       </c>
       <c r="R57" t="n">
-        <v>1.002973214322846</v>
+        <v>0.9383348896710018</v>
       </c>
       <c r="S57" t="n">
-        <v>0.429456297315898</v>
+        <v>0.4304491392530582</v>
       </c>
       <c r="T57" t="n">
-        <v>1.553079107290139</v>
+        <v>1.370227258855645</v>
       </c>
       <c r="U57" t="n">
-        <v>1.019616857562926</v>
+        <v>1.035363002386463</v>
       </c>
       <c r="V57" t="n">
-        <v>1.121312421168285</v>
+        <v>0.9659404644188997</v>
       </c>
       <c r="W57" t="n">
-        <v>1.138014044286372</v>
+        <v>1.075328421946504</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>44404</v>
+        <v>44424</v>
       </c>
       <c r="B58" t="n">
-        <v>0.9968652484726818</v>
+        <v>1.009283005964054</v>
       </c>
       <c r="C58" t="n">
-        <v>1.021321981885501</v>
+        <v>1.048826050005071</v>
       </c>
       <c r="D58" t="n">
-        <v>1.088307527735743</v>
+        <v>1.055164870098652</v>
       </c>
       <c r="E58" t="n">
-        <v>1.059097300134258</v>
+        <v>1.055142682295149</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9894189235625507</v>
+        <v>0.9559014041141645</v>
       </c>
       <c r="G58" t="n">
-        <v>1.005287129752575</v>
+        <v>1.022767050264068</v>
       </c>
       <c r="H58" t="n">
-        <v>0.9484355848296859</v>
+        <v>0.9185828086869576</v>
       </c>
       <c r="I58" t="n">
-        <v>1.016400637190918</v>
+        <v>1.027347125222205</v>
       </c>
       <c r="J58" t="n">
-        <v>0.9854476917749379</v>
+        <v>1.008430642318673</v>
       </c>
       <c r="K58" t="n">
-        <v>1.035703089586891</v>
+        <v>1.04528708613111</v>
       </c>
       <c r="L58" t="n">
-        <v>1.116905392060512</v>
+        <v>0.9503595530859945</v>
       </c>
       <c r="M58" t="n">
-        <v>0.899334056676418</v>
+        <v>0.8509819393836215</v>
       </c>
       <c r="N58" t="n">
-        <v>0.9568280439980839</v>
+        <v>0.9408124004313394</v>
       </c>
       <c r="O58" t="n">
-        <v>0.8989677771511523</v>
+        <v>0.8854523996491568</v>
       </c>
       <c r="P58" t="n">
-        <v>1.366953526760701</v>
+        <v>1.252380893271887</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.348201773789698</v>
+        <v>1.13761055975702</v>
       </c>
       <c r="R58" t="n">
-        <v>1.003468765796117</v>
+        <v>0.9363313243046498</v>
       </c>
       <c r="S58" t="n">
-        <v>0.4005505849965587</v>
+        <v>0.419622183555381</v>
       </c>
       <c r="T58" t="n">
-        <v>1.557184750733138</v>
+        <v>1.380000027743251</v>
       </c>
       <c r="U58" t="n">
-        <v>1.024694199160116</v>
+        <v>1.038407479165008</v>
       </c>
       <c r="V58" t="n">
-        <v>1.121011448225305</v>
+        <v>0.958494282319804</v>
       </c>
       <c r="W58" t="n">
-        <v>1.122026216252776</v>
+        <v>1.072059092021863</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>44405</v>
+        <v>44425</v>
       </c>
       <c r="B59" t="n">
-        <v>0.9997862669413192</v>
+        <v>1.013106275187484</v>
       </c>
       <c r="C59" t="n">
-        <v>1.027103386643738</v>
+        <v>1.047976857739822</v>
       </c>
       <c r="D59" t="n">
-        <v>1.095879354173545</v>
+        <v>1.045351971446597</v>
       </c>
       <c r="E59" t="n">
-        <v>1.058900030677221</v>
+        <v>1.04927837310082</v>
       </c>
       <c r="F59" t="n">
-        <v>1.004374158148134</v>
+        <v>0.9419228975652053</v>
       </c>
       <c r="G59" t="n">
-        <v>1.00860570052777</v>
+        <v>1.022524277154197</v>
       </c>
       <c r="H59" t="n">
-        <v>0.9749392475878409</v>
+        <v>0.9016630513376717</v>
       </c>
       <c r="I59" t="n">
-        <v>1.023335198483089</v>
+        <v>1.023901822635136</v>
       </c>
       <c r="J59" t="n">
-        <v>0.9939805655243252</v>
+        <v>1.007414305565005</v>
       </c>
       <c r="K59" t="n">
-        <v>1.042308911890271</v>
+        <v>1.046054681232088</v>
       </c>
       <c r="L59" t="n">
-        <v>1.128424661804867</v>
+        <v>0.940487928320923</v>
       </c>
       <c r="M59" t="n">
-        <v>0.9075597122257004</v>
+        <v>0.8432807161172579</v>
       </c>
       <c r="N59" t="n">
-        <v>0.9616564402554331</v>
+        <v>0.9394058515831702</v>
       </c>
       <c r="O59" t="n">
-        <v>0.9124874237304489</v>
+        <v>0.8613760392921952</v>
       </c>
       <c r="P59" t="n">
-        <v>1.364888107820679</v>
+        <v>1.217460292711399</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.326249446993615</v>
+        <v>1.115707952521198</v>
       </c>
       <c r="R59" t="n">
-        <v>1.003468765796117</v>
+        <v>0.9274265704715243</v>
       </c>
       <c r="S59" t="n">
-        <v>0.4185822520351212</v>
+        <v>0.4065229300096092</v>
       </c>
       <c r="T59" t="n">
-        <v>1.558944209929435</v>
+        <v>1.36409093683416</v>
       </c>
       <c r="U59" t="n">
-        <v>1.019155273050613</v>
+        <v>1.037470689590942</v>
       </c>
       <c r="V59" t="n">
-        <v>1.12492467064075</v>
+        <v>0.9518753719619326</v>
       </c>
       <c r="W59" t="n">
-        <v>1.143059193529607</v>
+        <v>1.05964854170163</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>44406</v>
+        <v>44426</v>
       </c>
       <c r="B60" t="n">
-        <v>1.008592041129142</v>
+        <v>1.011441495321849</v>
       </c>
       <c r="C60" t="n">
-        <v>1.029067724939972</v>
+        <v>1.054297422550297</v>
       </c>
       <c r="D60" t="n">
-        <v>1.097043313706377</v>
+        <v>1.036060497528072</v>
       </c>
       <c r="E60" t="n">
-        <v>1.063353926196784</v>
+        <v>1.03800023520357</v>
       </c>
       <c r="F60" t="n">
-        <v>1.011176971451482</v>
+        <v>0.9339667611474366</v>
       </c>
       <c r="G60" t="n">
-        <v>1.013147195630569</v>
+        <v>1.025351257443668</v>
       </c>
       <c r="H60" t="n">
-        <v>0.9797994405605291</v>
+        <v>0.9021691620910158</v>
       </c>
       <c r="I60" t="n">
-        <v>1.032911369444009</v>
+        <v>1.024224806917909</v>
       </c>
       <c r="J60" t="n">
-        <v>0.9983830660070212</v>
+        <v>1.01340018127798</v>
       </c>
       <c r="K60" t="n">
-        <v>1.047499222270922</v>
+        <v>1.047282789472514</v>
       </c>
       <c r="L60" t="n">
-        <v>1.147571663639176</v>
+        <v>0.9245521671524841</v>
       </c>
       <c r="M60" t="n">
-        <v>0.9291029641750922</v>
+        <v>0.8378899038973883</v>
       </c>
       <c r="N60" t="n">
-        <v>0.9723358594471662</v>
+        <v>0.9401372844558755</v>
       </c>
       <c r="O60" t="n">
-        <v>0.9089248094498282</v>
+        <v>0.8632281050537766</v>
       </c>
       <c r="P60" t="n">
-        <v>1.397590355512882</v>
+        <v>1.222222154943612</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.29121908709893</v>
+        <v>1.101991162224302</v>
       </c>
       <c r="R60" t="n">
-        <v>1.013379606227975</v>
+        <v>0.9274265704715243</v>
       </c>
       <c r="S60" t="n">
-        <v>0.4280110285024517</v>
+        <v>0.4170379792935148</v>
       </c>
       <c r="T60" t="n">
-        <v>1.552492740217192</v>
+        <v>1.364999944513493</v>
       </c>
       <c r="U60" t="n">
-        <v>1.012000845167141</v>
+        <v>1.036065594567013</v>
       </c>
       <c r="V60" t="n">
-        <v>1.144641785930497</v>
+        <v>0.9408439949708283</v>
       </c>
       <c r="W60" t="n">
-        <v>1.146919369204634</v>
+        <v>1.045467442912045</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>44407</v>
+        <v>44427</v>
       </c>
       <c r="B61" t="n">
-        <v>1.00202329787744</v>
+        <v>0.9958663282411055</v>
       </c>
       <c r="C61" t="n">
-        <v>1.024527459710705</v>
+        <v>1.044146508212977</v>
       </c>
       <c r="D61" t="n">
-        <v>1.089205725207828</v>
+        <v>1.037193130121172</v>
       </c>
       <c r="E61" t="n">
-        <v>1.057605383776038</v>
+        <v>1.039304682036909</v>
       </c>
       <c r="F61" t="n">
-        <v>1.004956497570022</v>
+        <v>0.9225624198907103</v>
       </c>
       <c r="G61" t="n">
-        <v>1.006923388838949</v>
+        <v>1.012496763077465</v>
       </c>
       <c r="H61" t="n">
-        <v>0.9703067313134994</v>
+        <v>0.8873463132117678</v>
       </c>
       <c r="I61" t="n">
-        <v>1.025426584774751</v>
+        <v>1.005060306143428</v>
       </c>
       <c r="J61" t="n">
-        <v>1.001456784439287</v>
+        <v>1.008918784836751</v>
       </c>
       <c r="K61" t="n">
-        <v>1.042466182659688</v>
+        <v>1.03193125346245</v>
       </c>
       <c r="L61" t="n">
-        <v>1.152708678614713</v>
+        <v>0.9004371058612605</v>
       </c>
       <c r="M61" t="n">
-        <v>0.9255776938982696</v>
+        <v>0.8282634115365878</v>
       </c>
       <c r="N61" t="n">
-        <v>0.9646671995050341</v>
+        <v>0.9373804178078495</v>
       </c>
       <c r="O61" t="n">
-        <v>0.8953137941291511</v>
+        <v>0.8411889817100119</v>
       </c>
       <c r="P61" t="n">
-        <v>1.347676420106836</v>
+        <v>1.215872954841705</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.1767865424749</v>
+        <v>1.105752183597662</v>
       </c>
       <c r="R61" t="n">
-        <v>0.9970267856771539</v>
+        <v>0.9109528013568501</v>
       </c>
       <c r="S61" t="n">
-        <v>0.4275292582292024</v>
+        <v>0.4047407164228847</v>
       </c>
       <c r="T61" t="n">
-        <v>1.557771296794813</v>
+        <v>1.311363636363635</v>
       </c>
       <c r="U61" t="n">
-        <v>1.012000845167141</v>
+        <v>1.031615888758784</v>
       </c>
       <c r="V61" t="n">
-        <v>1.148856096120263</v>
+        <v>0.9162989523468972</v>
       </c>
       <c r="W61" t="n">
-        <v>1.137811150918592</v>
+        <v>1.044312572043633</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>44409</v>
+        <v>44428</v>
       </c>
       <c r="B62" t="n">
-        <v>1.005542796740209</v>
+        <v>0.9999576348070768</v>
       </c>
       <c r="C62" t="n">
-        <v>1.030328919414259</v>
+        <v>1.050515709365805</v>
       </c>
       <c r="D62" t="n">
-        <v>1.089517158326479</v>
+        <v>1.049523090701574</v>
       </c>
       <c r="E62" t="n">
-        <v>1.056630903206257</v>
+        <v>1.047766251420637</v>
       </c>
       <c r="F62" t="n">
-        <v>1.002530156784199</v>
+        <v>0.9377826435286477</v>
       </c>
       <c r="G62" t="n">
-        <v>1.007711754990033</v>
+        <v>1.015208847903933</v>
       </c>
       <c r="H62" t="n">
-        <v>0.9738380376938421</v>
+        <v>0.8863340917050795</v>
       </c>
       <c r="I62" t="n">
-        <v>1.027407834015275</v>
+        <v>1.009259266104467</v>
       </c>
       <c r="J62" t="n">
-        <v>1.004058261997244</v>
+        <v>1.009254926202512</v>
       </c>
       <c r="K62" t="n">
-        <v>1.046005037464494</v>
+        <v>1.03576915576544</v>
       </c>
       <c r="L62" t="n">
-        <v>1.131771548081873</v>
+        <v>0.9004371058612605</v>
       </c>
       <c r="M62" t="n">
-        <v>0.9236192436156301</v>
+        <v>0.8221024623012201</v>
       </c>
       <c r="N62" t="n">
-        <v>0.9640707250620766</v>
+        <v>0.9378867547894475</v>
       </c>
       <c r="O62" t="n">
-        <v>0.8972778039052581</v>
+        <v>0.8599870782823655</v>
       </c>
       <c r="P62" t="n">
-        <v>1.351118757649605</v>
+        <v>1.222222154943612</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.154950963946033</v>
+        <v>1.096902676862485</v>
       </c>
       <c r="R62" t="n">
-        <v>1.009167513221952</v>
+        <v>0.8886910016960626</v>
       </c>
       <c r="S62" t="n">
-        <v>0.4324845105963415</v>
+        <v>0.42300840568681</v>
       </c>
       <c r="T62" t="n">
-        <v>1.599120288300724</v>
+        <v>1.33181818181818</v>
       </c>
       <c r="U62" t="n">
-        <v>1.011308512417795</v>
+        <v>1.037939084377975</v>
       </c>
       <c r="V62" t="n">
-        <v>1.122968059433027</v>
+        <v>0.8987865874564634</v>
       </c>
       <c r="W62" t="n">
-        <v>1.133691079879663</v>
+        <v>1.062069154508822</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>44410</v>
+        <v>44430</v>
       </c>
       <c r="B63" t="n">
-        <v>1.009062295602978</v>
+        <v>1.001446030808519</v>
       </c>
       <c r="C63" t="n">
-        <v>1.036130379117814</v>
+        <v>1.050285701796504</v>
       </c>
       <c r="D63" t="n">
-        <v>1.089828591445129</v>
+        <v>1.057653792086797</v>
       </c>
       <c r="E63" t="n">
-        <v>1.055656422636476</v>
+        <v>1.052231721359559</v>
       </c>
       <c r="F63" t="n">
-        <v>1.000103815998376</v>
+        <v>0.9465867831489396</v>
       </c>
       <c r="G63" t="n">
-        <v>1.008500121141118</v>
+        <v>1.016645793781835</v>
       </c>
       <c r="H63" t="n">
-        <v>0.9773693440741849</v>
+        <v>0.8930585948091784</v>
       </c>
       <c r="I63" t="n">
-        <v>1.0293890832558</v>
+        <v>1.014427219985071</v>
       </c>
       <c r="J63" t="n">
-        <v>1.006659739555201</v>
+        <v>1.011175503744371</v>
       </c>
       <c r="K63" t="n">
-        <v>1.049543892269299</v>
+        <v>1.039146471727085</v>
       </c>
       <c r="L63" t="n">
-        <v>1.110834417549033</v>
+        <v>0.9242701668417566</v>
       </c>
       <c r="M63" t="n">
-        <v>0.9216607933329906</v>
+        <v>0.83230652070149</v>
       </c>
       <c r="N63" t="n">
-        <v>0.9634742506191191</v>
+        <v>0.9435973396790573</v>
       </c>
       <c r="O63" t="n">
-        <v>0.8992418136813651</v>
+        <v>0.8681822661612434</v>
       </c>
       <c r="P63" t="n">
-        <v>1.354561095192373</v>
+        <v>1.237301524107749</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.133115385417167</v>
+        <v>1.100995585331949</v>
       </c>
       <c r="R63" t="n">
-        <v>1.02130824076675</v>
+        <v>0.8886910016960626</v>
       </c>
       <c r="S63" t="n">
-        <v>0.4374397629634805</v>
+        <v>0.4337462316690562</v>
       </c>
       <c r="T63" t="n">
-        <v>1.640469279806634</v>
+        <v>1.340227300470524</v>
       </c>
       <c r="U63" t="n">
-        <v>1.010616179668448</v>
+        <v>1.047072559382194</v>
       </c>
       <c r="V63" t="n">
-        <v>1.097080022745792</v>
+        <v>0.9234004861056544</v>
       </c>
       <c r="W63" t="n">
-        <v>1.129431825963845</v>
+        <v>1.075229452351294</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>44411</v>
+        <v>44431</v>
       </c>
       <c r="B64" t="n">
-        <v>1.01248202454187</v>
+        <v>1.002934426809961</v>
       </c>
       <c r="C64" t="n">
-        <v>1.039746547344974</v>
+        <v>1.050055694227203</v>
       </c>
       <c r="D64" t="n">
-        <v>1.095783589939434</v>
+        <v>1.06578449347202</v>
       </c>
       <c r="E64" t="n">
-        <v>1.064316422558931</v>
+        <v>1.056697191298481</v>
       </c>
       <c r="F64" t="n">
-        <v>1.003751262157879</v>
+        <v>0.9553909227692315</v>
       </c>
       <c r="G64" t="n">
-        <v>1.007615885870517</v>
+        <v>1.018082739659738</v>
       </c>
       <c r="H64" t="n">
-        <v>0.9817739982457021</v>
+        <v>0.8997830979132772</v>
       </c>
       <c r="I64" t="n">
-        <v>1.030820067130275</v>
+        <v>1.019595173865675</v>
       </c>
       <c r="J64" t="n">
-        <v>1.007524195382847</v>
+        <v>1.01309608128623</v>
       </c>
       <c r="K64" t="n">
-        <v>1.052060449573908</v>
+        <v>1.04252378768873</v>
       </c>
       <c r="L64" t="n">
-        <v>1.099937827083282</v>
+        <v>0.9481032278222526</v>
       </c>
       <c r="M64" t="n">
-        <v>0.9275362188909982</v>
+        <v>0.84251057910176</v>
       </c>
       <c r="N64" t="n">
-        <v>0.9627926150717213</v>
+        <v>0.9493079245686673</v>
       </c>
       <c r="O64" t="n">
-        <v>0.8953137941291515</v>
+        <v>0.8763774540401212</v>
       </c>
       <c r="P64" t="n">
-        <v>1.385542215149092</v>
+        <v>1.252380893271887</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.152732390521663</v>
+        <v>1.105088493801412</v>
       </c>
       <c r="R64" t="n">
-        <v>1.014866166131008</v>
+        <v>0.8886910016960626</v>
       </c>
       <c r="S64" t="n">
-        <v>0.4174122505161733</v>
+        <v>0.4444840576513024</v>
       </c>
       <c r="T64" t="n">
-        <v>1.643401831126283</v>
+        <v>1.348636419122867</v>
       </c>
       <c r="U64" t="n">
-        <v>1.018924524813579</v>
+        <v>1.056206034386413</v>
       </c>
       <c r="V64" t="n">
-        <v>1.089855523800862</v>
+        <v>0.9480143847548455</v>
       </c>
       <c r="W64" t="n">
-        <v>1.150505311375975</v>
+        <v>1.088264456612898</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>44412</v>
+        <v>44432</v>
       </c>
       <c r="B65" t="n">
-        <v>1.015075277242459</v>
+        <v>1.005304535472892</v>
       </c>
       <c r="C65" t="n">
-        <v>1.042335902371829</v>
+        <v>1.056491241225374</v>
       </c>
       <c r="D65" t="n">
-        <v>1.097211861658161</v>
+        <v>1.071287175194391</v>
       </c>
       <c r="E65" t="n">
-        <v>1.059386096039795</v>
+        <v>1.058277731647008</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9914457601083392</v>
+        <v>0.9651727720045394</v>
       </c>
       <c r="G65" t="n">
-        <v>1.016493600396255</v>
+        <v>1.021490280703037</v>
       </c>
       <c r="H65" t="n">
-        <v>0.9870138995882716</v>
+        <v>0.9206797171569955</v>
       </c>
       <c r="I65" t="n">
-        <v>1.036763940818739</v>
+        <v>1.020887193139261</v>
       </c>
       <c r="J65" t="n">
-        <v>1.007676332573266</v>
+        <v>1.018225729428472</v>
       </c>
       <c r="K65" t="n">
-        <v>1.058509001107871</v>
+        <v>1.04252378768873</v>
       </c>
       <c r="L65" t="n">
-        <v>1.062422202203902</v>
+        <v>0.9748976686396297</v>
       </c>
       <c r="M65" t="n">
-        <v>0.9220524983315361</v>
+        <v>0.8502118023681235</v>
       </c>
       <c r="N65" t="n">
-        <v>0.9630197980281977</v>
+        <v>0.9488578186353817</v>
       </c>
       <c r="O65" t="n">
-        <v>0.8727505238892678</v>
+        <v>0.8736920116726421</v>
       </c>
       <c r="P65" t="n">
-        <v>1.432013730940568</v>
+        <v>1.23650789301712</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.143157429047255</v>
+        <v>1.142035355322587</v>
       </c>
       <c r="R65" t="n">
-        <v>1.006937531592233</v>
+        <v>0.9024933786296098</v>
       </c>
       <c r="S65" t="n">
-        <v>0.388506538196834</v>
+        <v>0.4278203769320817</v>
       </c>
       <c r="T65" t="n">
-        <v>1.655132036404875</v>
+        <v>1.354545454545453</v>
       </c>
       <c r="U65" t="n">
-        <v>1.015231936753326</v>
+        <v>1.060655740194642</v>
       </c>
       <c r="V65" t="n">
-        <v>1.05930154526238</v>
+        <v>0.9797298171627937</v>
       </c>
       <c r="W65" t="n">
-        <v>1.170183219895058</v>
+        <v>1.095079686809291</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>44413</v>
+        <v>44433</v>
       </c>
       <c r="B66" t="n">
-        <v>1.014576566772204</v>
+        <v>1.008732809547998</v>
       </c>
       <c r="C66" t="n">
-        <v>1.049407537677356</v>
+        <v>1.060932007084493</v>
       </c>
       <c r="D66" t="n">
-        <v>1.105718277426884</v>
+        <v>1.072860643632871</v>
       </c>
       <c r="E66" t="n">
-        <v>1.065748182894517</v>
+        <v>1.060627233325282</v>
       </c>
       <c r="F66" t="n">
-        <v>1.009362285433161</v>
+        <v>0.9687896585542063</v>
       </c>
       <c r="G66" t="n">
-        <v>1.019897001583374</v>
+        <v>1.018588166808394</v>
       </c>
       <c r="H66" t="n">
-        <v>0.985039434605337</v>
+        <v>0.9219811826362525</v>
       </c>
       <c r="I66" t="n">
-        <v>1.040616428215541</v>
+        <v>1.022825180978394</v>
       </c>
       <c r="J66" t="n">
-        <v>1.005451045242103</v>
+        <v>1.024155630424046</v>
       </c>
       <c r="K66" t="n">
-        <v>1.062283799565793</v>
+        <v>1.042370283308914</v>
       </c>
       <c r="L66" t="n">
-        <v>1.077054868341277</v>
+        <v>0.9864616180469878</v>
       </c>
       <c r="M66" t="n">
-        <v>0.9126517277866164</v>
+        <v>0.8505968708758725</v>
       </c>
       <c r="N66" t="n">
-        <v>0.9592138550919451</v>
+        <v>0.9422751803278211</v>
       </c>
       <c r="O66" t="n">
-        <v>0.8589567710858295</v>
+        <v>0.863042863153076</v>
       </c>
       <c r="P66" t="n">
-        <v>1.425129055855031</v>
+        <v>1.23650789301712</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.15600187652461</v>
+        <v>1.138451312268496</v>
       </c>
       <c r="R66" t="n">
-        <v>1.014866166131008</v>
+        <v>0.9176314091927074</v>
       </c>
       <c r="S66" t="n">
-        <v>0.3598761351782948</v>
+        <v>0.4376225516590661</v>
       </c>
       <c r="T66" t="n">
-        <v>1.660997139044171</v>
+        <v>1.353636308149856</v>
       </c>
       <c r="U66" t="n">
-        <v>1.02146310757393</v>
+        <v>1.056206034386413</v>
       </c>
       <c r="V66" t="n">
-        <v>1.072998168210459</v>
+        <v>0.9962769352514557</v>
       </c>
       <c r="W66" t="n">
-        <v>1.184623627628626</v>
+        <v>1.100847792053729</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>44414</v>
+        <v>44434</v>
       </c>
       <c r="B67" t="n">
-        <v>1.014947051322163</v>
+        <v>1.005191699398083</v>
       </c>
       <c r="C67" t="n">
-        <v>1.047179782034134</v>
+        <v>1.059428167923408</v>
       </c>
       <c r="D67" t="n">
-        <v>1.101311745276706</v>
+        <v>1.066009821953582</v>
       </c>
       <c r="E67" t="n">
-        <v>1.067533594847542</v>
+        <v>1.054449165793292</v>
       </c>
       <c r="F67" t="n">
-        <v>1.01466637924403</v>
+        <v>0.9578482677909295</v>
       </c>
       <c r="G67" t="n">
-        <v>1.020983982171064</v>
+        <v>1.014282785454862</v>
       </c>
       <c r="H67" t="n">
-        <v>0.976534004200894</v>
+        <v>0.9123644604686368</v>
       </c>
       <c r="I67" t="n">
-        <v>1.04281782559145</v>
+        <v>1.020133535765293</v>
       </c>
       <c r="J67" t="n">
-        <v>1.009877582814614</v>
+        <v>1.023939546523708</v>
       </c>
       <c r="K67" t="n">
-        <v>1.062126453798394</v>
+        <v>1.039146471727085</v>
       </c>
       <c r="L67" t="n">
-        <v>1.064445820786418</v>
+        <v>0.9732054515899834</v>
       </c>
       <c r="M67" t="n">
-        <v>0.8820994850009402</v>
+        <v>0.8413554470228211</v>
       </c>
       <c r="N67" t="n">
-        <v>0.9352420226581414</v>
+        <v>0.9433441711882583</v>
       </c>
       <c r="O67" t="n">
-        <v>0.8363022017984945</v>
+        <v>0.8453560766867561</v>
       </c>
       <c r="P67" t="n">
-        <v>1.425129055855031</v>
+        <v>1.328253932884641</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.15740312299165</v>
+        <v>1.140265487733934</v>
       </c>
       <c r="R67" t="n">
-        <v>1.026759117939171</v>
+        <v>0.9122885399084268</v>
       </c>
       <c r="S67" t="n">
-        <v>0.379628338324802</v>
+        <v>0.441186978832515</v>
       </c>
       <c r="T67" t="n">
-        <v>1.686217008797653</v>
+        <v>1.354545454545453</v>
       </c>
       <c r="U67" t="n">
-        <v>1.007385176120507</v>
+        <v>1.041686153337069</v>
       </c>
       <c r="V67" t="n">
-        <v>1.064117916169447</v>
+        <v>0.9800055568758667</v>
       </c>
       <c r="W67" t="n">
-        <v>1.167100116963295</v>
+        <v>1.093635148005351</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>44416</v>
+        <v>44435</v>
       </c>
       <c r="B68" t="n">
-        <v>1.015609609889161</v>
+        <v>1.008436528743509</v>
       </c>
       <c r="C68" t="n">
-        <v>1.047117306519697</v>
+        <v>1.064174055560845</v>
       </c>
       <c r="D68" t="n">
-        <v>1.102218134541717</v>
+        <v>1.079111541289998</v>
       </c>
       <c r="E68" t="n">
-        <v>1.067031903018152</v>
+        <v>1.06373636651489</v>
       </c>
       <c r="F68" t="n">
-        <v>1.011743496015868</v>
+        <v>0.9851778736492655</v>
       </c>
       <c r="G68" t="n">
-        <v>1.020464467064482</v>
+        <v>1.018015947264488</v>
       </c>
       <c r="H68" t="n">
-        <v>0.9782806534321237</v>
+        <v>0.9240058021793653</v>
       </c>
       <c r="I68" t="n">
-        <v>1.04358832307081</v>
+        <v>1.025193841908722</v>
       </c>
       <c r="J68" t="n">
-        <v>1.010878151106136</v>
+        <v>1.025307947643026</v>
       </c>
       <c r="K68" t="n">
-        <v>1.062991518028166</v>
+        <v>1.043751895929155</v>
       </c>
       <c r="L68" t="n">
-        <v>1.050435893309612</v>
+        <v>0.9918205922845756</v>
       </c>
       <c r="M68" t="n">
-        <v>0.8670191787523303</v>
+        <v>0.8598382947289239</v>
       </c>
       <c r="N68" t="n">
-        <v>0.926948457899254</v>
+        <v>0.9575222076155041</v>
       </c>
       <c r="O68" t="n">
-        <v>0.8356170756259986</v>
+        <v>0.8734142194706762</v>
       </c>
       <c r="P68" t="n">
-        <v>1.411359705683956</v>
+        <v>1.393650709071969</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.164759466498281</v>
+        <v>1.166814176731376</v>
       </c>
       <c r="R68" t="n">
-        <v>1.026015837987654</v>
+        <v>0.9158504244572718</v>
       </c>
       <c r="S68" t="n">
-        <v>0.3722298524335426</v>
+        <v>0.4323650270171133</v>
       </c>
       <c r="T68" t="n">
-        <v>1.691788838406112</v>
+        <v>1.353181873668322</v>
       </c>
       <c r="U68" t="n">
-        <v>1.008885259756839</v>
+        <v>1.041452000612138</v>
       </c>
       <c r="V68" t="n">
-        <v>1.05162547207164</v>
+        <v>1.002482078233701</v>
       </c>
       <c r="W68" t="n">
-        <v>1.172891600338722</v>
+        <v>1.109200090776886</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>44417</v>
+        <v>44437</v>
       </c>
       <c r="B69" t="n">
-        <v>1.016272168456159</v>
+        <v>1.007105687631627</v>
       </c>
       <c r="C69" t="n">
-        <v>1.047054831005259</v>
+        <v>1.064800655211297</v>
       </c>
       <c r="D69" t="n">
-        <v>1.103124523806728</v>
+        <v>1.083975536919113</v>
       </c>
       <c r="E69" t="n">
-        <v>1.066530211188761</v>
+        <v>1.066026894526172</v>
       </c>
       <c r="F69" t="n">
-        <v>1.008820612787707</v>
+        <v>0.9827637817024176</v>
       </c>
       <c r="G69" t="n">
-        <v>1.0199449519579</v>
+        <v>1.019157783643941</v>
       </c>
       <c r="H69" t="n">
-        <v>0.9800273026633533</v>
+        <v>0.9248373013687408</v>
       </c>
       <c r="I69" t="n">
-        <v>1.044358820550171</v>
+        <v>1.02594749928269</v>
       </c>
       <c r="J69" t="n">
-        <v>1.011878719397658</v>
+        <v>1.028444941433073</v>
       </c>
       <c r="K69" t="n">
-        <v>1.063856582257938</v>
+        <v>1.043751895929155</v>
       </c>
       <c r="L69" t="n">
-        <v>1.036425965832805</v>
+        <v>0.9951346607969869</v>
       </c>
       <c r="M69" t="n">
-        <v>0.8519388725037204</v>
+        <v>0.8584905916739565</v>
       </c>
       <c r="N69" t="n">
-        <v>0.9186548931403664</v>
+        <v>0.9551592158524512</v>
       </c>
       <c r="O69" t="n">
-        <v>0.8349319494535028</v>
+        <v>0.8728123245915692</v>
       </c>
       <c r="P69" t="n">
-        <v>1.397590355512882</v>
+        <v>1.380158639933308</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.172115810004913</v>
+        <v>1.189491159059454</v>
       </c>
       <c r="R69" t="n">
-        <v>1.025272558036137</v>
+        <v>0.9100623514501455</v>
       </c>
       <c r="S69" t="n">
-        <v>0.3648313665422831</v>
+        <v>0.4316075808038712</v>
       </c>
       <c r="T69" t="n">
-        <v>1.69736066801457</v>
+        <v>1.354545454545453</v>
       </c>
       <c r="U69" t="n">
-        <v>1.01038534339317</v>
+        <v>1.03559719977998</v>
       </c>
       <c r="V69" t="n">
-        <v>1.039133027973833</v>
+        <v>1.007377326073837</v>
       </c>
       <c r="W69" t="n">
-        <v>1.178420994163031</v>
+        <v>1.112919675504308</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>44418</v>
+        <v>44438</v>
       </c>
       <c r="B70" t="n">
-        <v>1.020361622142077</v>
+        <v>1.005774846519746</v>
       </c>
       <c r="C70" t="n">
-        <v>1.052354045121708</v>
+        <v>1.065427254861748</v>
       </c>
       <c r="D70" t="n">
-        <v>1.097773035720422</v>
+        <v>1.088839532548228</v>
       </c>
       <c r="E70" t="n">
-        <v>1.067588933688677</v>
+        <v>1.068317422537455</v>
       </c>
       <c r="F70" t="n">
-        <v>1.010874560517784</v>
+        <v>0.9803496897555698</v>
       </c>
       <c r="G70" t="n">
-        <v>1.021583804666115</v>
+        <v>1.020299620023394</v>
       </c>
       <c r="H70" t="n">
-        <v>0.9817739982457022</v>
+        <v>0.9256688005581163</v>
       </c>
       <c r="I70" t="n">
-        <v>1.045239413091705</v>
+        <v>1.026701156656659</v>
       </c>
       <c r="J70" t="n">
-        <v>1.01287928768918</v>
+        <v>1.031581935223119</v>
       </c>
       <c r="K70" t="n">
-        <v>1.067474109946443</v>
+        <v>1.043751895929155</v>
       </c>
       <c r="L70" t="n">
-        <v>1.064601520297052</v>
+        <v>0.9984487293093981</v>
       </c>
       <c r="M70" t="n">
-        <v>0.8468468569428041</v>
+        <v>0.857142888618989</v>
       </c>
       <c r="N70" t="n">
-        <v>0.9189389368444385</v>
+        <v>0.9527962240893983</v>
       </c>
       <c r="O70" t="n">
-        <v>0.8489997387871536</v>
+        <v>0.8722104297124622</v>
       </c>
       <c r="P70" t="n">
-        <v>1.407917450212989</v>
+        <v>1.366666570794647</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.186361503949308</v>
+        <v>1.212168141387531</v>
       </c>
       <c r="R70" t="n">
-        <v>1.02130824076675</v>
+        <v>0.9042742784430191</v>
       </c>
       <c r="S70" t="n">
-        <v>0.34762560640297</v>
+        <v>0.4308501345906291</v>
       </c>
       <c r="T70" t="n">
-        <v>1.713783062797836</v>
+        <v>1.355909035422584</v>
       </c>
       <c r="U70" t="n">
-        <v>1.018462940301267</v>
+        <v>1.029742398947822</v>
       </c>
       <c r="V70" t="n">
-        <v>1.063064338622005</v>
+        <v>1.012272573913972</v>
       </c>
       <c r="W70" t="n">
-        <v>1.156915488215381</v>
+        <v>1.116597726786131</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>44419</v>
+        <v>44439</v>
       </c>
       <c r="B71" t="n">
-        <v>1.028782718569012</v>
+        <v>1.004444005407865</v>
       </c>
       <c r="C71" t="n">
-        <v>1.060599853877924</v>
+        <v>1.0660538545122</v>
       </c>
       <c r="D71" t="n">
-        <v>1.096069360273168</v>
+        <v>1.08836526311053</v>
       </c>
       <c r="E71" t="n">
-        <v>1.068950903638628</v>
+        <v>1.066876138367427</v>
       </c>
       <c r="F71" t="n">
-        <v>1.010590113498879</v>
+        <v>0.9837156134094036</v>
       </c>
       <c r="G71" t="n">
-        <v>1.025171163226744</v>
+        <v>1.016946014623207</v>
       </c>
       <c r="H71" t="n">
-        <v>0.9841281715985178</v>
+        <v>0.9394070507388828</v>
       </c>
       <c r="I71" t="n">
-        <v>1.049091900488508</v>
+        <v>1.02411720025198</v>
       </c>
       <c r="J71" t="n">
-        <v>1.014992499646284</v>
+        <v>1.034718929013165</v>
       </c>
       <c r="K71" t="n">
-        <v>1.072192533020863</v>
+        <v>1.040988670688672</v>
       </c>
       <c r="L71" t="n">
-        <v>1.079545466691765</v>
+        <v>0.9884359430000021</v>
       </c>
       <c r="M71" t="n">
-        <v>0.8554641427805429</v>
+        <v>0.8525221399703092</v>
       </c>
       <c r="N71" t="n">
-        <v>0.9316064886087382</v>
+        <v>0.9547091099191656</v>
       </c>
       <c r="O71" t="n">
-        <v>0.8728418926306484</v>
+        <v>0.8775812437983356</v>
       </c>
       <c r="P71" t="n">
-        <v>1.397590355512882</v>
+        <v>1.388888846839756</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.216954716995252</v>
+        <v>1.189380473763449</v>
       </c>
       <c r="R71" t="n">
-        <v>1.027750220885712</v>
+        <v>0.8904719864314983</v>
       </c>
       <c r="S71" t="n">
-        <v>0.3399174080498859</v>
+        <v>0.4302263489575071</v>
       </c>
       <c r="T71" t="n">
-        <v>1.737243473355021</v>
+        <v>1.405454600941049</v>
       </c>
       <c r="U71" t="n">
-        <v>1.012231681442419</v>
+        <v>1.023887598115664</v>
       </c>
       <c r="V71" t="n">
-        <v>1.075255867192502</v>
+        <v>1.00648098789933</v>
       </c>
       <c r="W71" t="n">
-        <v>1.151449842101355</v>
+        <v>1.109887358970953</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>44420</v>
+        <v>44440</v>
       </c>
       <c r="B72" t="n">
-        <v>1.02494978629825</v>
+        <v>1.008690444355075</v>
       </c>
       <c r="C72" t="n">
-        <v>1.060153413356053</v>
+        <v>1.072626585367666</v>
       </c>
       <c r="D72" t="n">
-        <v>1.099864190222421</v>
+        <v>1.091941473382193</v>
       </c>
       <c r="E72" t="n">
-        <v>1.073383180587557</v>
+        <v>1.067208671524853</v>
       </c>
       <c r="F72" t="n">
-        <v>1.013000694531233</v>
+        <v>0.9894653677013074</v>
       </c>
       <c r="G72" t="n">
-        <v>1.032388643478844</v>
+        <v>1.016252439882298</v>
       </c>
       <c r="H72" t="n">
-        <v>0.9750151707213693</v>
+        <v>0.9515545914678234</v>
       </c>
       <c r="I72" t="n">
-        <v>1.057347266615053</v>
+        <v>1.03369945063922</v>
       </c>
       <c r="J72" t="n">
-        <v>1.017265763445332</v>
+        <v>1.043825810391554</v>
       </c>
       <c r="K72" t="n">
-        <v>1.073765390710991</v>
+        <v>1.045440590510927</v>
       </c>
       <c r="L72" t="n">
-        <v>1.077054868341277</v>
+        <v>0.9897052133798774</v>
       </c>
       <c r="M72" t="n">
-        <v>0.8421464716703443</v>
+        <v>0.8613785687599198</v>
       </c>
       <c r="N72" t="n">
-        <v>0.9318336715652145</v>
+        <v>0.954765340967478</v>
       </c>
       <c r="O72" t="n">
-        <v>0.8715630090270373</v>
+        <v>0.8660987186728716</v>
       </c>
       <c r="P72" t="n">
-        <v>1.354561095192373</v>
+        <v>1.465079248062639</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.22606259631398</v>
+        <v>1.192699091536612</v>
       </c>
       <c r="R72" t="n">
-        <v>1.047076255759379</v>
+        <v>0.8775601018656689</v>
       </c>
       <c r="S72" t="n">
-        <v>0.3443909111469265</v>
+        <v>0.4255034938304558</v>
       </c>
       <c r="T72" t="n">
-        <v>1.747214040448587</v>
+        <v>1.435454489968038</v>
       </c>
       <c r="U72" t="n">
-        <v>1.011539348693072</v>
+        <v>1.025995329988728</v>
       </c>
       <c r="V72" t="n">
-        <v>1.073299141153439</v>
+        <v>0.9871759466598841</v>
       </c>
       <c r="W72" t="n">
-        <v>1.161928974918659</v>
+        <v>1.11740461901107</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>44421</v>
+        <v>44441</v>
       </c>
       <c r="B73" t="n">
-        <v>1.028583248295823</v>
+        <v>1.010679679600656</v>
       </c>
       <c r="C73" t="n">
-        <v>1.062015035454091</v>
+        <v>1.071542936560414</v>
       </c>
       <c r="D73" t="n">
-        <v>1.100357147672799</v>
+        <v>1.093496344384946</v>
       </c>
       <c r="E73" t="n">
-        <v>1.075108436517948</v>
+        <v>1.070242359886572</v>
       </c>
       <c r="F73" t="n">
-        <v>1.003539111630412</v>
+        <v>0.9968028636809897</v>
       </c>
       <c r="G73" t="n">
-        <v>1.034975243563231</v>
+        <v>1.017299230369731</v>
       </c>
       <c r="H73" t="n">
-        <v>0.9722812889986725</v>
+        <v>0.9466377087287597</v>
       </c>
       <c r="I73" t="n">
-        <v>1.058558060365181</v>
+        <v>1.036068111569548</v>
       </c>
       <c r="J73" t="n">
-        <v>1.013583691674881</v>
+        <v>1.046466683882392</v>
       </c>
       <c r="K73" t="n">
-        <v>1.076281873017617</v>
+        <v>1.048971484054285</v>
       </c>
       <c r="L73" t="n">
-        <v>1.066936537900835</v>
+        <v>1.009448570502661</v>
       </c>
       <c r="M73" t="n">
-        <v>0.8605561583414592</v>
+        <v>0.8525221399703092</v>
       </c>
       <c r="N73" t="n">
-        <v>0.9451829455548808</v>
+        <v>0.9522335702105591</v>
       </c>
       <c r="O73" t="n">
-        <v>0.8770439487130746</v>
+        <v>0.8645245157623412</v>
       </c>
       <c r="P73" t="n">
-        <v>1.328743522585708</v>
+        <v>1.473015786034241</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.195235886733602</v>
+        <v>1.17765483725126</v>
       </c>
       <c r="R73" t="n">
-        <v>1.046580798802888</v>
+        <v>0.8771149406038363</v>
       </c>
       <c r="S73" t="n">
-        <v>0.3408121212711845</v>
+        <v>0.4606131232444639</v>
       </c>
       <c r="T73" t="n">
-        <v>1.755425148345856</v>
+        <v>1.474090853604402</v>
       </c>
       <c r="U73" t="n">
-        <v>1.017309023039609</v>
+        <v>1.024121750840596</v>
       </c>
       <c r="V73" t="n">
-        <v>1.062462277904704</v>
+        <v>1.007032572529487</v>
       </c>
       <c r="W73" t="n">
-        <v>1.16040213273597</v>
+        <v>1.122936493512975</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>44423</v>
+        <v>44442</v>
       </c>
       <c r="B74" t="n">
-        <v>1.023973724748695</v>
+        <v>1.007082151413337</v>
       </c>
       <c r="C74" t="n">
-        <v>1.060323008437115</v>
+        <v>1.070140775862829</v>
       </c>
       <c r="D74" t="n">
-        <v>1.099275541031676</v>
+        <v>1.095802983641639</v>
       </c>
       <c r="E74" t="n">
-        <v>1.076517285868351</v>
+        <v>1.069883795383951</v>
       </c>
       <c r="F74" t="n">
-        <v>1.00046270856601</v>
+        <v>0.9916242189756889</v>
       </c>
       <c r="G74" t="n">
-        <v>1.033300428074122</v>
+        <v>1.013485165095436</v>
       </c>
       <c r="H74" t="n">
-        <v>0.9685221668666248</v>
+        <v>0.9519161243673172</v>
       </c>
       <c r="I74" t="n">
-        <v>1.054430377301908</v>
+        <v>1.027777798313401</v>
       </c>
       <c r="J74" t="n">
-        <v>1.011134302451471</v>
+        <v>1.048451295328714</v>
       </c>
       <c r="K74" t="n">
-        <v>1.073608082442583</v>
+        <v>1.043444887169523</v>
       </c>
       <c r="L74" t="n">
-        <v>1.057985716262285</v>
+        <v>0.9995768381449488</v>
       </c>
       <c r="M74" t="n">
-        <v>0.863102203476962</v>
+        <v>0.8810165485449616</v>
       </c>
       <c r="N74" t="n">
-        <v>0.9475403696139285</v>
+        <v>0.9624169701354757</v>
       </c>
       <c r="O74" t="n">
-        <v>0.8752626415727642</v>
+        <v>0.884804194294875</v>
       </c>
       <c r="P74" t="n">
-        <v>1.343373477660425</v>
+        <v>1.49523806207935</v>
       </c>
       <c r="Q74" t="n">
-        <v>1.19803829058087</v>
+        <v>1.184070786601534</v>
       </c>
       <c r="R74" t="n">
-        <v>1.044350864431558</v>
+        <v>0.8762244482361186</v>
       </c>
       <c r="S74" t="n">
-        <v>0.3324501053350019</v>
+        <v>0.4876136482055704</v>
       </c>
       <c r="T74" t="n">
-        <v>1.768035172716962</v>
+        <v>1.502272727272725</v>
       </c>
       <c r="U74" t="n">
-        <v>1.020309234331394</v>
+        <v>1.005854800832158</v>
       </c>
       <c r="V74" t="n">
-        <v>1.054334687883823</v>
+        <v>1.001241091718857</v>
       </c>
       <c r="W74" t="n">
-        <v>1.156980268802983</v>
+        <v>1.126163325555856</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>44424</v>
+        <v>44444</v>
       </c>
       <c r="B75" t="n">
-        <v>1.019364201201566</v>
+        <v>1.010524512776171</v>
       </c>
       <c r="C75" t="n">
-        <v>1.058630981420139</v>
+        <v>1.071330595300192</v>
       </c>
       <c r="D75" t="n">
-        <v>1.098193934390553</v>
+        <v>1.096060004382586</v>
       </c>
       <c r="E75" t="n">
-        <v>1.077926135218754</v>
+        <v>1.068672838706291</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9973863055016087</v>
+        <v>0.989253380103691</v>
       </c>
       <c r="G75" t="n">
-        <v>1.031625612585012</v>
+        <v>1.018331282629104</v>
       </c>
       <c r="H75" t="n">
-        <v>0.9647630447345772</v>
+        <v>0.9539889071067573</v>
       </c>
       <c r="I75" t="n">
-        <v>1.050302694238635</v>
+        <v>1.033753253972185</v>
       </c>
       <c r="J75" t="n">
-        <v>1.00868491322806</v>
+        <v>1.050015803333171</v>
       </c>
       <c r="K75" t="n">
-        <v>1.07093429186755</v>
+        <v>1.047129248491749</v>
       </c>
       <c r="L75" t="n">
-        <v>1.049034894623734</v>
+        <v>0.9951581159926139</v>
       </c>
       <c r="M75" t="n">
-        <v>0.8656482486124648</v>
+        <v>0.8762674926899042</v>
       </c>
       <c r="N75" t="n">
-        <v>0.9498977936729763</v>
+        <v>0.9561344024501056</v>
       </c>
       <c r="O75" t="n">
-        <v>0.8734813344324539</v>
+        <v>0.8772417513955261</v>
       </c>
       <c r="P75" t="n">
-        <v>1.358003432735142</v>
+        <v>1.480423261841568</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.200840694428137</v>
+        <v>1.182817084678428</v>
       </c>
       <c r="R75" t="n">
-        <v>1.042120930060229</v>
+        <v>0.8705847764699408</v>
       </c>
       <c r="S75" t="n">
-        <v>0.3240880893988192</v>
+        <v>0.4789402051242554</v>
       </c>
       <c r="T75" t="n">
-        <v>1.780645197088067</v>
+        <v>1.513030312278052</v>
       </c>
       <c r="U75" t="n">
-        <v>1.023309445623179</v>
+        <v>1.006674469375173</v>
       </c>
       <c r="V75" t="n">
-        <v>1.046207097862942</v>
+        <v>0.9970123814249984</v>
       </c>
       <c r="W75" t="n">
-        <v>1.153312761288233</v>
+        <v>1.127273814505801</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>44425</v>
+        <v>44445</v>
       </c>
       <c r="B76" t="n">
-        <v>1.023225659043312</v>
+        <v>1.013966874139004</v>
       </c>
       <c r="C76" t="n">
-        <v>1.057773850496311</v>
+        <v>1.072520414737555</v>
       </c>
       <c r="D76" t="n">
-        <v>1.087980870931126</v>
+        <v>1.096317025123533</v>
       </c>
       <c r="E76" t="n">
-        <v>1.070315223433214</v>
+        <v>1.067461882028631</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9828011496023803</v>
+        <v>0.9868825412316932</v>
       </c>
       <c r="G76" t="n">
-        <v>1.031380736727772</v>
+        <v>1.023177400162773</v>
       </c>
       <c r="H76" t="n">
-        <v>0.9469926744836897</v>
+        <v>0.9560616898461977</v>
       </c>
       <c r="I76" t="n">
-        <v>1.046780408050426</v>
+        <v>1.039728709630969</v>
       </c>
       <c r="J76" t="n">
-        <v>1.007668320209995</v>
+        <v>1.051580311337629</v>
       </c>
       <c r="K76" t="n">
-        <v>1.071720720712614</v>
+        <v>1.050813609813974</v>
       </c>
       <c r="L76" t="n">
-        <v>1.038138304157984</v>
+        <v>0.9907393938402791</v>
       </c>
       <c r="M76" t="n">
-        <v>0.8578142980617282</v>
+        <v>0.8715184368348469</v>
       </c>
       <c r="N76" t="n">
-        <v>0.948477661830585</v>
+        <v>0.9498518347647354</v>
       </c>
       <c r="O76" t="n">
-        <v>0.8497304796364104</v>
+        <v>0.8696793084961773</v>
       </c>
       <c r="P76" t="n">
-        <v>1.320137719764687</v>
+        <v>1.465608461603785</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.17772070678626</v>
+        <v>1.181563382755323</v>
       </c>
       <c r="R76" t="n">
-        <v>1.032210089628371</v>
+        <v>0.8649451047037631</v>
       </c>
       <c r="S76" t="n">
-        <v>0.3139711026889409</v>
+        <v>0.4702667620429404</v>
       </c>
       <c r="T76" t="n">
-        <v>1.76011733785053</v>
+        <v>1.523787897283379</v>
       </c>
       <c r="U76" t="n">
-        <v>1.022386276598555</v>
+        <v>1.007494137918188</v>
       </c>
       <c r="V76" t="n">
-        <v>1.038982484086672</v>
+        <v>0.9927836711311402</v>
       </c>
       <c r="W76" t="n">
-        <v>1.140014015213355</v>
+        <v>1.128294778050974</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>44426</v>
+        <v>44446</v>
       </c>
       <c r="B77" t="n">
-        <v>1.021544250570285</v>
+        <v>1.008634026317671</v>
       </c>
       <c r="C77" t="n">
-        <v>1.064153502992939</v>
+        <v>1.06584600541859</v>
       </c>
       <c r="D77" t="n">
-        <v>1.07831049562957</v>
+        <v>1.09657404586448</v>
       </c>
       <c r="E77" t="n">
-        <v>1.058810971565587</v>
+        <v>1.066250925350971</v>
       </c>
       <c r="F77" t="n">
-        <v>0.97449972701462</v>
+        <v>0.9845117023596953</v>
       </c>
       <c r="G77" t="n">
-        <v>1.034232202535297</v>
+        <v>1.017459782981787</v>
       </c>
       <c r="H77" t="n">
-        <v>0.9475242291206278</v>
+        <v>0.9581344725856379</v>
       </c>
       <c r="I77" t="n">
-        <v>1.047110609259019</v>
+        <v>1.033914746113571</v>
       </c>
       <c r="J77" t="n">
-        <v>1.013655705232582</v>
+        <v>1.046370657447477</v>
       </c>
       <c r="K77" t="n">
-        <v>1.072978961865927</v>
+        <v>1.045440590510926</v>
       </c>
       <c r="L77" t="n">
-        <v>1.020547941138221</v>
+        <v>0.9863206716879444</v>
       </c>
       <c r="M77" t="n">
-        <v>0.8523305775022662</v>
+        <v>0.8667693809797895</v>
       </c>
       <c r="N77" t="n">
-        <v>0.9492161581255787</v>
+        <v>0.9435692670793654</v>
       </c>
       <c r="O77" t="n">
-        <v>0.8515575059943757</v>
+        <v>0.8621168655968282</v>
       </c>
       <c r="P77" t="n">
-        <v>1.325301185042939</v>
+        <v>1.450793661366002</v>
       </c>
       <c r="Q77" t="n">
-        <v>1.163241516307431</v>
+        <v>1.180309680832218</v>
       </c>
       <c r="R77" t="n">
-        <v>1.032210089628371</v>
+        <v>0.8593054329375853</v>
       </c>
       <c r="S77" t="n">
-        <v>0.3220922229869235</v>
+        <v>0.4615933189616254</v>
       </c>
       <c r="T77" t="n">
-        <v>1.761290250985152</v>
+        <v>1.534545482288705</v>
       </c>
       <c r="U77" t="n">
-        <v>1.021001611099862</v>
+        <v>1.002576126660097</v>
       </c>
       <c r="V77" t="n">
-        <v>1.026941614234676</v>
+        <v>0.9885549608372818</v>
       </c>
       <c r="W77" t="n">
-        <v>1.12468902023927</v>
+        <v>1.129227246873269</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>44427</v>
+        <v>44447</v>
       </c>
       <c r="B78" t="n">
-        <v>1.005813511366292</v>
+        <v>1.001029853063733</v>
       </c>
       <c r="C78" t="n">
-        <v>1.053907693015987</v>
+        <v>1.054850304594813</v>
       </c>
       <c r="D78" t="n">
-        <v>1.079489316379657</v>
+        <v>1.090319526234852</v>
       </c>
       <c r="E78" t="n">
-        <v>1.060141571089673</v>
+        <v>1.064845002344549</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9626004518971547</v>
+        <v>0.9733150181118948</v>
       </c>
       <c r="G78" t="n">
-        <v>1.021266370656395</v>
+        <v>1.002508509131649</v>
       </c>
       <c r="H78" t="n">
-        <v>0.931956185955499</v>
+        <v>0.9435285787520334</v>
       </c>
       <c r="I78" t="n">
-        <v>1.027517887088486</v>
+        <v>1.02347114954394</v>
       </c>
       <c r="J78" t="n">
-        <v>1.009173178828913</v>
+        <v>1.040856903565574</v>
       </c>
       <c r="K78" t="n">
-        <v>1.057250759954558</v>
+        <v>1.034080461183669</v>
       </c>
       <c r="L78" t="n">
-        <v>0.9939290254885199</v>
+        <v>0.9997178920966328</v>
       </c>
       <c r="M78" t="n">
-        <v>0.8425381766688901</v>
+        <v>0.8536773454935562</v>
       </c>
       <c r="N78" t="n">
-        <v>0.9464326685104228</v>
+        <v>0.9412061894673838</v>
       </c>
       <c r="O78" t="n">
-        <v>0.8298163453451294</v>
+        <v>0.8482266903058511</v>
       </c>
       <c r="P78" t="n">
-        <v>1.318416509957402</v>
+        <v>1.560317400968114</v>
       </c>
       <c r="Q78" t="n">
-        <v>1.167211581000492</v>
+        <v>1.155973431815536</v>
       </c>
       <c r="R78" t="n">
-        <v>1.013875063184466</v>
+        <v>0.8606411714891621</v>
       </c>
       <c r="S78" t="n">
-        <v>0.3125946401975437</v>
+        <v>0.4433256296977001</v>
       </c>
       <c r="T78" t="n">
-        <v>1.692082111436949</v>
+        <v>1.534545482288705</v>
       </c>
       <c r="U78" t="n">
-        <v>1.016616602252018</v>
+        <v>0.9976580260648342</v>
       </c>
       <c r="V78" t="n">
-        <v>1.000150429055819</v>
+        <v>1.001103169260315</v>
       </c>
       <c r="W78" t="n">
-        <v>1.123347903722491</v>
+        <v>1.12069102664366</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>44428</v>
+        <v>44448</v>
       </c>
       <c r="B79" t="n">
-        <v>1.009945683834121</v>
+        <v>0.9909709096475114</v>
       </c>
       <c r="C79" t="n">
-        <v>1.060336436530937</v>
+        <v>1.052683006980309</v>
       </c>
       <c r="D79" t="n">
-        <v>1.092322086219128</v>
+        <v>1.0875813846773</v>
       </c>
       <c r="E79" t="n">
-        <v>1.06877278541536</v>
+        <v>1.059940742982969</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9784812138228246</v>
+        <v>0.9730553940386805</v>
       </c>
       <c r="G79" t="n">
-        <v>1.024001945848971</v>
+        <v>1.003335041504418</v>
       </c>
       <c r="H79" t="n">
-        <v>0.9308930766816227</v>
+        <v>0.9420101582271329</v>
       </c>
       <c r="I79" t="n">
-        <v>1.031810670756055</v>
+        <v>1.013673603682349</v>
       </c>
       <c r="J79" t="n">
-        <v>1.009509404951094</v>
+        <v>1.037007640451237</v>
       </c>
       <c r="K79" t="n">
-        <v>1.061182829181896</v>
+        <v>1.033466370462508</v>
       </c>
       <c r="L79" t="n">
-        <v>0.9939290254885199</v>
+        <v>0.9833591842584228</v>
       </c>
       <c r="M79" t="n">
-        <v>0.8362710461123365</v>
+        <v>0.857527957126738</v>
       </c>
       <c r="N79" t="n">
-        <v>0.9469438951709711</v>
+        <v>0.9453696049635789</v>
       </c>
       <c r="O79" t="n">
-        <v>0.8483602969853481</v>
+        <v>0.845263455736406</v>
       </c>
       <c r="P79" t="n">
-        <v>1.325301185042939</v>
+        <v>1.596825415086732</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.15787020514733</v>
+        <v>1.141814153522488</v>
       </c>
       <c r="R79" t="n">
-        <v>0.9890980566215993</v>
+        <v>0.857524533124176</v>
       </c>
       <c r="S79" t="n">
-        <v>0.3267033807343641</v>
+        <v>0.4460880661960071</v>
       </c>
       <c r="T79" t="n">
-        <v>1.718475073313782</v>
+        <v>1.542272671786219</v>
       </c>
       <c r="U79" t="n">
-        <v>1.022847861110867</v>
+        <v>0.9913349197828141</v>
       </c>
       <c r="V79" t="n">
-        <v>0.9810354893147135</v>
+        <v>0.9852454530563406</v>
       </c>
       <c r="W79" t="n">
-        <v>1.142608666971042</v>
+        <v>1.111074196805452</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>44430</v>
+        <v>44449</v>
       </c>
       <c r="B80" t="n">
-        <v>1.011448946637632</v>
+        <v>0.9916763073312995</v>
       </c>
       <c r="C80" t="n">
-        <v>1.060104278740022</v>
+        <v>1.049750486061066</v>
       </c>
       <c r="D80" t="n">
-        <v>1.100784353298545</v>
+        <v>1.078112294799585</v>
       </c>
       <c r="E80" t="n">
-        <v>1.073327783000307</v>
+        <v>1.051755267114429</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9876674418702045</v>
+        <v>0.9637191729420592</v>
       </c>
       <c r="G80" t="n">
-        <v>1.025451337644649</v>
+        <v>1.002478280085161</v>
       </c>
       <c r="H80" t="n">
-        <v>0.937955643091189</v>
+        <v>0.9409978484555764</v>
       </c>
       <c r="I80" t="n">
-        <v>1.031810670756055</v>
+        <v>1.028531455687369</v>
       </c>
       <c r="J80" t="n">
-        <v>1.011430466757291</v>
+        <v>1.03643949218525</v>
       </c>
       <c r="K80" t="n">
-        <v>1.064643011103002</v>
+        <v>1.031010153981657</v>
       </c>
       <c r="L80" t="n">
-        <v>1.020236660880883</v>
+        <v>1.005640866955676</v>
       </c>
       <c r="M80" t="n">
-        <v>0.8466509670884866</v>
+        <v>0.8467462592426905</v>
       </c>
       <c r="N80" t="n">
-        <v>0.9527096269839613</v>
+        <v>0.9405873045402321</v>
       </c>
       <c r="O80" t="n">
-        <v>0.8564446882492978</v>
+        <v>0.8283174249256336</v>
       </c>
       <c r="P80" t="n">
-        <v>1.34165230888904</v>
+        <v>1.568253938939715</v>
       </c>
       <c r="Q80" t="n">
-        <v>1.162190603728854</v>
+        <v>1.141371665526336</v>
       </c>
       <c r="R80" t="n">
-        <v>0.9890980566215993</v>
+        <v>0.8668744482191342</v>
       </c>
       <c r="S80" t="n">
-        <v>0.3349965588437714</v>
+        <v>0.4528604832644441</v>
       </c>
       <c r="T80" t="n">
-        <v>1.729325548994225</v>
+        <v>1.554090881347654</v>
       </c>
       <c r="U80" t="n">
-        <v>1.031848539005344</v>
+        <v>0.9920374672947783</v>
       </c>
       <c r="V80" t="n">
-        <v>1.00790183160581</v>
+        <v>1.005515741097559</v>
       </c>
       <c r="W80" t="n">
-        <v>1.156822707496446</v>
+        <v>1.101635313161839</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>44431</v>
+        <v>44451</v>
       </c>
       <c r="B81" t="n">
-        <v>1.012952209441143</v>
+        <v>0.9944414455858013</v>
       </c>
       <c r="C81" t="n">
-        <v>1.059872120949108</v>
+        <v>1.05068153078525</v>
       </c>
       <c r="D81" t="n">
-        <v>1.109246620377962</v>
+        <v>1.077758873867454</v>
       </c>
       <c r="E81" t="n">
-        <v>1.077882780585254</v>
+        <v>1.052952421036045</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9968536699175843</v>
+        <v>0.9665810583219391</v>
       </c>
       <c r="G81" t="n">
-        <v>1.026900729440328</v>
+        <v>1.00541993633211</v>
       </c>
       <c r="H81" t="n">
-        <v>0.9450182095007551</v>
+        <v>0.9409978484555764</v>
       </c>
       <c r="I81" t="n">
-        <v>1.031810670756055</v>
+        <v>1.028531455687369</v>
       </c>
       <c r="J81" t="n">
-        <v>1.013351528563489</v>
+        <v>1.032674288834132</v>
       </c>
       <c r="K81" t="n">
-        <v>1.068103193024108</v>
+        <v>1.032391803202847</v>
       </c>
       <c r="L81" t="n">
-        <v>1.046544296273247</v>
+        <v>1.005640866955676</v>
       </c>
       <c r="M81" t="n">
-        <v>0.8570308880646368</v>
+        <v>0.8467462592426905</v>
       </c>
       <c r="N81" t="n">
-        <v>0.9584753587969517</v>
+        <v>0.9421626753067317</v>
       </c>
       <c r="O81" t="n">
-        <v>0.8645290795132474</v>
+        <v>0.8300768697368647</v>
       </c>
       <c r="P81" t="n">
-        <v>1.358003432735142</v>
+        <v>1.568253938939715</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.166511002310378</v>
+        <v>1.139491112641678</v>
       </c>
       <c r="R81" t="n">
-        <v>0.9890980566215993</v>
+        <v>0.864203056038007</v>
       </c>
       <c r="S81" t="n">
-        <v>0.3432897369531786</v>
+        <v>0.4528604832644441</v>
       </c>
       <c r="T81" t="n">
-        <v>1.740176024674669</v>
+        <v>1.554090881347654</v>
       </c>
       <c r="U81" t="n">
-        <v>1.040849216899822</v>
+        <v>0.9878220035486509</v>
       </c>
       <c r="V81" t="n">
-        <v>1.034768173896906</v>
+        <v>1.005515741097559</v>
       </c>
       <c r="W81" t="n">
-        <v>1.17090108620737</v>
+        <v>1.098684369585882</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>44432</v>
+        <v>44452</v>
       </c>
       <c r="B82" t="n">
-        <v>1.015345991868543</v>
+        <v>0.9972065838403029</v>
       </c>
       <c r="C82" t="n">
-        <v>1.066367830542339</v>
+        <v>1.051612575509433</v>
       </c>
       <c r="D82" t="n">
-        <v>1.11497369854521</v>
+        <v>1.077405452935322</v>
       </c>
       <c r="E82" t="n">
-        <v>1.079495008988743</v>
+        <v>1.054149574957662</v>
       </c>
       <c r="F82" t="n">
-        <v>1.007060038929897</v>
+        <v>0.9694429437018189</v>
       </c>
       <c r="G82" t="n">
-        <v>1.030337784452312</v>
+        <v>1.008361592579058</v>
       </c>
       <c r="H82" t="n">
-        <v>0.9669653718203357</v>
+        <v>0.9409978484555764</v>
       </c>
       <c r="I82" t="n">
-        <v>1.031810670756055</v>
+        <v>1.028531455687369</v>
       </c>
       <c r="J82" t="n">
-        <v>1.018482470121702</v>
+        <v>1.028909085483015</v>
       </c>
       <c r="K82" t="n">
-        <v>1.068103193024108</v>
+        <v>1.033773452424037</v>
       </c>
       <c r="L82" t="n">
-        <v>1.076120790041406</v>
+        <v>1.005640866955676</v>
       </c>
       <c r="M82" t="n">
-        <v>0.8648648386153733</v>
+        <v>0.8467462592426905</v>
       </c>
       <c r="N82" t="n">
-        <v>0.9580209062060302</v>
+        <v>0.9437380460732313</v>
       </c>
       <c r="O82" t="n">
-        <v>0.8618799435646447</v>
+        <v>0.8318363145480957</v>
       </c>
       <c r="P82" t="n">
-        <v>1.340791745021298</v>
+        <v>1.568253938939715</v>
       </c>
       <c r="Q82" t="n">
-        <v>1.205511426898124</v>
+        <v>1.13761055975702</v>
       </c>
       <c r="R82" t="n">
-        <v>1.004459868742658</v>
+        <v>0.8615316638568798</v>
       </c>
       <c r="S82" t="n">
-        <v>0.3304198252605061</v>
+        <v>0.4528604832644441</v>
       </c>
       <c r="T82" t="n">
-        <v>1.747800586510263</v>
+        <v>1.554090881347654</v>
       </c>
       <c r="U82" t="n">
-        <v>1.045234225747665</v>
+        <v>0.9836065398025235</v>
       </c>
       <c r="V82" t="n">
-        <v>1.069385918737993</v>
+        <v>1.005515741097559</v>
       </c>
       <c r="W82" t="n">
-        <v>1.177812464052211</v>
+        <v>1.095619526886303</v>
       </c>
     </row>
   </sheetData>
